--- a/DOC/wyniki/bez idealnej/Wyniki.xlsx
+++ b/DOC/wyniki/bez idealnej/Wyniki.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B136C-B7DA-4FCD-AD73-DBF312EC4DCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10E230A-27B9-447C-998E-D85C6D3B99B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ogólnie" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="34">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Pasujaca</t>
-  </si>
-  <si>
-    <t>Idealna</t>
   </si>
   <si>
     <t>win</t>
@@ -531,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,76 +541,76 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
       <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
       <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
         <v>16</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -670,51 +667,51 @@
       </c>
       <c r="P2">
         <f>SUM('3 Talie'!B22)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>SUM('3 Talie'!C22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2">
         <f>SUM('3 Talie'!D22)</f>
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S2">
         <f>SUM('3 Talie'!E22)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <f>SUM('3 Talie'!F22)</f>
-        <v>0.18181818181818182</v>
+        <v>0.27522935779816515</v>
       </c>
       <c r="U2">
         <f>SUM('3 Talie'!G22)</f>
-        <v>-295</v>
+        <v>-410</v>
       </c>
       <c r="W2">
         <f>SUM('4 Talie'!B22)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X2">
         <f>SUM('4 Talie'!C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <f>SUM('4 Talie'!D22)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z2">
         <f>SUM('4 Talie'!E22)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" t="e">
+        <v>2</v>
+      </c>
+      <c r="AA2">
         <f>SUM('4 Talie'!F22)</f>
-        <v>#DIV/0!</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="AB2">
         <f>SUM('4 Talie'!G22)</f>
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -771,51 +768,51 @@
       </c>
       <c r="P3">
         <f>SUM('3 Talie'!B23)</f>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <f>SUM('3 Talie'!C23)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R3">
         <f>SUM('3 Talie'!D23)</f>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="S3">
         <f>SUM('3 Talie'!E23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3">
         <f>SUM('3 Talie'!F23)</f>
-        <v>0.2982456140350877</v>
+        <v>0.40707964601769914</v>
       </c>
       <c r="U3">
         <f>SUM('3 Talie'!G23)</f>
-        <v>-150</v>
+        <v>-80</v>
       </c>
       <c r="W3">
         <f>SUM('4 Talie'!B23)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X3">
         <f>SUM('4 Talie'!C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <f>SUM('4 Talie'!D23)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z3">
         <f>SUM('4 Talie'!E23)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA3">
         <f>SUM('4 Talie'!F23)</f>
-        <v>#DIV/0!</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="AB3">
         <f>SUM('4 Talie'!G23)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -872,51 +869,51 @@
       </c>
       <c r="P4">
         <f>SUM('3 Talie'!B24)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Q4">
         <f>SUM('3 Talie'!C24)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <f>SUM('3 Talie'!D24)</f>
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="S4">
         <f>SUM('3 Talie'!E24)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T4">
         <f>SUM('3 Talie'!F24)</f>
-        <v>0.27868852459016391</v>
+        <v>0.23966942148760331</v>
       </c>
       <c r="U4">
         <f>SUM('3 Talie'!G24)</f>
-        <v>-200</v>
+        <v>-525</v>
       </c>
       <c r="W4">
         <f>SUM('4 Talie'!B24)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X4">
         <f>SUM('4 Talie'!C24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <f>SUM('4 Talie'!D24)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z4">
         <f>SUM('4 Talie'!E24)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" t="e">
+        <v>3</v>
+      </c>
+      <c r="AA4">
         <f>SUM('4 Talie'!F24)</f>
-        <v>#DIV/0!</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="AB4">
         <f>SUM('4 Talie'!G24)</f>
-        <v>0</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -973,51 +970,51 @@
       </c>
       <c r="P5">
         <f>SUM('3 Talie'!B25)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <f>SUM('3 Talie'!C25)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R5">
         <f>SUM('3 Talie'!D25)</f>
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="S5">
         <f>SUM('3 Talie'!E25)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T5">
         <f>SUM('3 Talie'!F25)</f>
-        <v>0.3728813559322034</v>
+        <v>0.3</v>
       </c>
       <c r="U5">
         <f>SUM('3 Talie'!G25)</f>
-        <v>-75</v>
+        <v>-345</v>
       </c>
       <c r="W5">
         <f>SUM('4 Talie'!B25)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X5">
         <f>SUM('4 Talie'!C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f>SUM('4 Talie'!D25)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z5">
         <f>SUM('4 Talie'!E25)</f>
         <v>0</v>
       </c>
-      <c r="AA5" t="e">
+      <c r="AA5">
         <f>SUM('4 Talie'!F25)</f>
-        <v>#DIV/0!</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="AB5">
         <f>SUM('4 Talie'!G25)</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1074,51 +1071,51 @@
       </c>
       <c r="P6">
         <f>SUM('3 Talie'!B26)</f>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <f>SUM('3 Talie'!C26)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R6">
         <f>SUM('3 Talie'!D26)</f>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="S6">
         <f>SUM('3 Talie'!E26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f>SUM('3 Talie'!F26)</f>
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="U6">
         <f>SUM('3 Talie'!G26)</f>
-        <v>-70</v>
+        <v>-45</v>
       </c>
       <c r="W6">
         <f>SUM('4 Talie'!B26)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X6">
         <f>SUM('4 Talie'!C26)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <f>SUM('4 Talie'!D26)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z6">
         <f>SUM('4 Talie'!E26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>3</v>
+      </c>
+      <c r="AA6">
         <f>SUM('4 Talie'!F26)</f>
-        <v>#DIV/0!</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="AB6">
         <f>SUM('4 Talie'!G26)</f>
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1175,51 +1172,51 @@
       </c>
       <c r="P7">
         <f>SUM('3 Talie'!B27)</f>
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <f>SUM('3 Talie'!C27)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R7">
         <f>SUM('3 Talie'!D27)</f>
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="S7">
         <f>SUM('3 Talie'!E27)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T7">
         <f>SUM('3 Talie'!F27)</f>
-        <v>0.37704918032786883</v>
+        <v>0.36290322580645162</v>
       </c>
       <c r="U7">
         <f>SUM('3 Talie'!G27)</f>
-        <v>-60</v>
+        <v>-185</v>
       </c>
       <c r="W7">
         <f>SUM('4 Talie'!B27)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X7">
         <f>SUM('4 Talie'!C27)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y7">
         <f>SUM('4 Talie'!D27)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z7">
         <f>SUM('4 Talie'!E27)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <f>SUM('4 Talie'!F27)</f>
-        <v>#DIV/0!</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="AB7">
         <f>SUM('4 Talie'!G27)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1276,27 +1273,27 @@
       </c>
       <c r="P8">
         <f>SUM('3 Talie'!B28)</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <f>SUM('3 Talie'!C28)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R8">
         <f>SUM('3 Talie'!D28)</f>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="S8">
         <f>SUM('3 Talie'!E28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <f>SUM('3 Talie'!F28)</f>
-        <v>0.31578947368421051</v>
+        <v>0.39655172413793105</v>
       </c>
       <c r="U8">
         <f>SUM('3 Talie'!G28)</f>
-        <v>-120</v>
+        <v>-125</v>
       </c>
       <c r="W8">
         <f>SUM('4 Talie'!B28)</f>
@@ -1304,23 +1301,23 @@
       </c>
       <c r="X8">
         <f>SUM('4 Talie'!C28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f>SUM('4 Talie'!D28)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z8">
         <f>SUM('4 Talie'!E28)</f>
         <v>0</v>
       </c>
-      <c r="AA8" t="e">
+      <c r="AA8">
         <f>SUM('4 Talie'!F28)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <f>SUM('4 Talie'!G28)</f>
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1377,51 +1374,51 @@
       </c>
       <c r="P9">
         <f>SUM('3 Talie'!B29)</f>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <f>SUM('3 Talie'!C29)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R9">
         <f>SUM('3 Talie'!D29)</f>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="S9">
         <f>SUM('3 Talie'!E29)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T9">
         <f>SUM('3 Talie'!F29)</f>
-        <v>0.36206896551724138</v>
+        <v>0.35652173913043478</v>
       </c>
       <c r="U9">
         <f>SUM('3 Talie'!G29)</f>
-        <v>-80</v>
+        <v>-190</v>
       </c>
       <c r="W9">
         <f>SUM('4 Talie'!B29)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X9">
         <f>SUM('4 Talie'!C29)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <f>SUM('4 Talie'!D29)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z9">
         <f>SUM('4 Talie'!E29)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" t="e">
+        <v>2</v>
+      </c>
+      <c r="AA9">
         <f>SUM('4 Talie'!F29)</f>
-        <v>#DIV/0!</v>
+        <v>0.48717948717948717</v>
       </c>
       <c r="AB9">
         <f>SUM('4 Talie'!G29)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1478,51 +1475,51 @@
       </c>
       <c r="P10">
         <f>SUM('3 Talie'!B30)</f>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <f>SUM('3 Talie'!C30)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R10">
         <f>SUM('3 Talie'!D30)</f>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="S10">
         <f>SUM('3 Talie'!E30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f>SUM('3 Talie'!F30)</f>
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="U10">
         <f>SUM('3 Talie'!G30)</f>
-        <v>-70</v>
+        <v>-45</v>
       </c>
       <c r="W10">
         <f>SUM('4 Talie'!B30)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X10">
         <f>SUM('4 Talie'!C30)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <f>SUM('4 Talie'!D30)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z10">
         <f>SUM('4 Talie'!E30)</f>
         <v>0</v>
       </c>
-      <c r="AA10" t="e">
+      <c r="AA10">
         <f>SUM('4 Talie'!F30)</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
         <f>SUM('4 Talie'!G30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1579,51 +1576,51 @@
       </c>
       <c r="P11">
         <f>SUM('3 Talie'!B31)</f>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <f>SUM('3 Talie'!C31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11">
         <f>SUM('3 Talie'!D31)</f>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="S11">
         <f>SUM('3 Talie'!E31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <f>SUM('3 Talie'!F31)</f>
-        <v>0.32432432432432434</v>
+        <v>0.43529411764705883</v>
       </c>
       <c r="U11">
         <f>SUM('3 Talie'!G31)</f>
-        <v>-90</v>
+        <v>-50</v>
       </c>
       <c r="W11">
         <f>SUM('4 Talie'!B31)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X11">
         <f>SUM('4 Talie'!C31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <f>SUM('4 Talie'!D31)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z11">
         <f>SUM('4 Talie'!E31)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" t="e">
+        <v>2</v>
+      </c>
+      <c r="AA11">
         <f>SUM('4 Talie'!F31)</f>
-        <v>#DIV/0!</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="AB11">
         <f>SUM('4 Talie'!G31)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1680,51 +1677,51 @@
       </c>
       <c r="P12">
         <f>SUM('3 Talie'!B32)</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q12">
         <f>SUM('3 Talie'!C32)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R12">
         <f>SUM('3 Talie'!D32)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="S12">
         <f>SUM('3 Talie'!E32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12">
         <f>SUM('3 Talie'!F32)</f>
-        <v>0.31034482758620691</v>
+        <v>0.36283185840707965</v>
       </c>
       <c r="U12">
         <f>SUM('3 Talie'!G32)</f>
-        <v>-190</v>
+        <v>-235</v>
       </c>
       <c r="W12">
         <f>SUM('4 Talie'!B32)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X12">
         <f>SUM('4 Talie'!C32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <f>SUM('4 Talie'!D32)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z12">
         <f>SUM('4 Talie'!E32)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AA12">
         <f>SUM('4 Talie'!F32)</f>
-        <v>#DIV/0!</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AB12">
         <f>SUM('4 Talie'!G32)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1781,47 +1778,47 @@
       </c>
       <c r="P13">
         <f>SUM('3 Talie'!B33)</f>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="Q13">
         <f>SUM('3 Talie'!C33)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R13">
         <f>SUM('3 Talie'!D33)</f>
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S13">
         <f>SUM('3 Talie'!E33)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T13">
         <f>SUM('3 Talie'!F33)</f>
-        <v>0.296875</v>
+        <v>0.3359375</v>
       </c>
       <c r="U13">
         <f>SUM('3 Talie'!G33)</f>
-        <v>-200</v>
+        <v>-320</v>
       </c>
       <c r="W13">
         <f>SUM('4 Talie'!B33)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X13">
         <f>SUM('4 Talie'!C33)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y13">
         <f>SUM('4 Talie'!D33)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z13">
         <f>SUM('4 Talie'!E33)</f>
         <v>0</v>
       </c>
-      <c r="AA13" t="e">
+      <c r="AA13">
         <f>SUM('4 Talie'!F33)</f>
-        <v>#DIV/0!</v>
+        <v>0.45</v>
       </c>
       <c r="AB13">
         <f>SUM('4 Talie'!G33)</f>
@@ -1830,46 +1827,46 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" t="s">
+      <c r="P16" t="s">
         <v>24</v>
       </c>
-      <c r="P16" t="s">
+      <c r="W16" t="s">
         <v>25</v>
-      </c>
-      <c r="W16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -2383,18 +2380,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <f>SUM(B21:B33)</f>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <f>SUM(B21:B32)</f>
@@ -2442,79 +2439,79 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
       <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
       <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>16</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -3395,81 +3392,81 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>14</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>16</v>
       </c>
-      <c r="N18" t="s">
-        <v>17</v>
-      </c>
       <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>14</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>15</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>16</v>
       </c>
-      <c r="T18" t="s">
-        <v>17</v>
-      </c>
       <c r="V18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" t="s">
         <v>13</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>14</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>15</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>16</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -4320,7 +4317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB2AC3-9D80-4096-9D36-672416D3269F}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -4331,49 +4328,49 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
       <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5015,22 +5012,22 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5389,62 +5386,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5481,23 +5493,39 @@
         <v>-170</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R13" si="2">(N2-P2+Q2/2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-25</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X13" si="3">(T2-V2+W2/2)*10</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5534,23 +5562,39 @@
         <v>-65</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>13</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5587,23 +5631,39 @@
         <v>-55</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-170</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5640,23 +5700,39 @@
         <v>-20</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-105</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5693,23 +5769,39 @@
         <v>-40</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5746,23 +5838,39 @@
         <v>-35</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-105</v>
+      </c>
+      <c r="T7">
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5799,23 +5907,39 @@
         <v>-75</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5852,23 +5976,39 @@
         <v>-20</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-65</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5905,23 +6045,39 @@
         <v>-40</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5958,23 +6114,39 @@
         <v>-40</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6011,23 +6183,39 @@
         <v>-60</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>19</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6064,41 +6252,57 @@
         <v>-90</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-35</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>-85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6106,28 +6310,28 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B33" si="3">B2+H2+N2</f>
-        <v>10</v>
+        <f>B2+H2+N2+T2</f>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:C33" si="4">C2+I2+O2</f>
-        <v>5</v>
+        <f t="shared" ref="C22:E33" si="4">C2+I2+O2+U2</f>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D33" si="5">D2+J2+P2</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E33" si="6">E2+K2+Q2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.18181818181818182</v>
+        <v>0.27522935779816515</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-295</v>
+        <v>-410</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,28 +6339,28 @@
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" ref="B23:B33" si="5">B3+H3+N3+T3</f>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F34" si="7">B23/(SUM(B23:D23))</f>
-        <v>0.2982456140350877</v>
+        <f t="shared" ref="F23:F34" si="6">B23/(SUM(B23:D23))</f>
+        <v>0.40707964601769914</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G34" si="8">(B23-D23+E23/2)*10</f>
-        <v>-150</v>
+        <f t="shared" ref="G23:G34" si="7">(B23-D23+E23/2)*10</f>
+        <v>-80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6164,28 +6368,28 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
+        <v>0.23966942148760331</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="7"/>
-        <v>0.27868852459016391</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="8"/>
-        <v>-200</v>
+        <v>-525</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6193,28 +6397,28 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="7"/>
-        <v>0.3728813559322034</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="8"/>
-        <v>-75</v>
+        <v>-345</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6222,28 +6426,28 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="7"/>
-        <v>0.375</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="8"/>
-        <v>-70</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6251,28 +6455,28 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
+        <v>0.36290322580645162</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="7"/>
-        <v>0.37704918032786883</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="8"/>
-        <v>-60</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6280,28 +6484,28 @@
         <v>6</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
+        <v>0.39655172413793105</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="7"/>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="8"/>
-        <v>-120</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6309,28 +6513,28 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
+        <v>0.35652173913043478</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="7"/>
-        <v>0.36206896551724138</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="8"/>
-        <v>-80</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6338,28 +6542,28 @@
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="7"/>
-        <v>0.375</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="8"/>
-        <v>-70</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6367,28 +6571,28 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
+        <v>0.43529411764705883</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="7"/>
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="8"/>
-        <v>-90</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6396,88 +6600,60 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.36283185840707965</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="7"/>
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="8">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="E32" s="1">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
+        <v>0.3359375</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="7"/>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="8"/>
-        <v>-190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="7"/>
-        <v>0.296875</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="8"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" ref="B34" si="9">B14+I14+P14</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" ref="C34:E34" si="10">C14+J14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6487,57 +6663,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC024D11-A05D-4D78-AF56-9F7AC3169C89}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -6545,20 +6724,20 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F13" si="0">(B2-D2+E2/2)*10</f>
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6598,20 +6777,20 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6651,20 +6830,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-145</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6704,20 +6883,20 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6757,20 +6936,20 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6810,20 +6989,20 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -6866,17 +7045,17 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6916,20 +7095,20 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -6969,20 +7148,20 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7022,20 +7201,20 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7075,20 +7254,20 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7128,13 +7307,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7179,22 +7358,22 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7203,27 +7382,27 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22:B33" si="3">B2+H2+N2</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:C33" si="4">C2+I2+O2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22:D33" si="5">D2+J2+P2</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ref="E22:E33" si="6">E2+K2+Q2</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>#DIV/0!</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7232,27 +7411,27 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="7">B23/(SUM(B23:D23))</f>
-        <v>#DIV/0!</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="8">(B23-D23+E23/2)*10</f>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7261,27 +7440,27 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7290,27 +7469,27 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="e">
+      <c r="F25" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7319,27 +7498,27 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7348,27 +7527,27 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7381,23 +7560,23 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="e">
+      <c r="F28" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7406,27 +7585,27 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.48717948717948717</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7435,27 +7614,27 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="e">
+      <c r="F30" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7464,27 +7643,27 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7493,27 +7672,27 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7522,23 +7701,23 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F33" s="8" t="e">
+      <c r="F33" s="8">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.45</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="8"/>

--- a/DOC/wyniki/bez idealnej/Wyniki.xlsx
+++ b/DOC/wyniki/bez idealnej/Wyniki.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10E230A-27B9-447C-998E-D85C6D3B99B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918DDE69-1887-43EA-BD9C-A47031390A90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ogólnie" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="34">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -667,27 +667,27 @@
       </c>
       <c r="P2">
         <f>SUM('3 Talie'!B22)</f>
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="Q2">
         <f>SUM('3 Talie'!C22)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R2">
         <f>SUM('3 Talie'!D22)</f>
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="S2">
         <f>SUM('3 Talie'!E22)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T2">
         <f>SUM('3 Talie'!F22)</f>
-        <v>0.27522935779816515</v>
+        <v>0.29268292682926828</v>
       </c>
       <c r="U2">
         <f>SUM('3 Talie'!G22)</f>
-        <v>-410</v>
+        <v>-865</v>
       </c>
       <c r="W2">
         <f>SUM('4 Talie'!B22)</f>
@@ -768,27 +768,27 @@
       </c>
       <c r="P3">
         <f>SUM('3 Talie'!B23)</f>
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <f>SUM('3 Talie'!C23)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R3">
         <f>SUM('3 Talie'!D23)</f>
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="S3">
         <f>SUM('3 Talie'!E23)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T3">
         <f>SUM('3 Talie'!F23)</f>
-        <v>0.40707964601769914</v>
+        <v>0.44094488188976377</v>
       </c>
       <c r="U3">
         <f>SUM('3 Talie'!G23)</f>
-        <v>-80</v>
+        <v>40</v>
       </c>
       <c r="W3">
         <f>SUM('4 Talie'!B23)</f>
@@ -869,27 +869,27 @@
       </c>
       <c r="P4">
         <f>SUM('3 Talie'!B24)</f>
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="Q4">
         <f>SUM('3 Talie'!C24)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R4">
         <f>SUM('3 Talie'!D24)</f>
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="S4">
         <f>SUM('3 Talie'!E24)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T4">
         <f>SUM('3 Talie'!F24)</f>
-        <v>0.23966942148760331</v>
+        <v>0.28624535315985128</v>
       </c>
       <c r="U4">
         <f>SUM('3 Talie'!G24)</f>
-        <v>-525</v>
+        <v>-940</v>
       </c>
       <c r="W4">
         <f>SUM('4 Talie'!B24)</f>
@@ -970,27 +970,27 @@
       </c>
       <c r="P5">
         <f>SUM('3 Talie'!B25)</f>
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <f>SUM('3 Talie'!C25)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R5">
         <f>SUM('3 Talie'!D25)</f>
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="S5">
         <f>SUM('3 Talie'!E25)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="T5">
         <f>SUM('3 Talie'!F25)</f>
-        <v>0.3</v>
+        <v>0.35074626865671643</v>
       </c>
       <c r="U5">
         <f>SUM('3 Talie'!G25)</f>
-        <v>-345</v>
+        <v>-545</v>
       </c>
       <c r="W5">
         <f>SUM('4 Talie'!B25)</f>
@@ -1071,27 +1071,27 @@
       </c>
       <c r="P6">
         <f>SUM('3 Talie'!B26)</f>
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <f>SUM('3 Talie'!C26)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <f>SUM('3 Talie'!D26)</f>
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="S6">
         <f>SUM('3 Talie'!E26)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T6">
         <f>SUM('3 Talie'!F26)</f>
-        <v>0.42857142857142855</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="U6">
         <f>SUM('3 Talie'!G26)</f>
-        <v>-45</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <f>SUM('4 Talie'!B26)</f>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="P7">
         <f>SUM('3 Talie'!B27)</f>
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <f>SUM('3 Talie'!C27)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="R7">
         <f>SUM('3 Talie'!D27)</f>
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="S7">
         <f>SUM('3 Talie'!E27)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T7">
         <f>SUM('3 Talie'!F27)</f>
-        <v>0.36290322580645162</v>
+        <v>0.3971119133574007</v>
       </c>
       <c r="U7">
         <f>SUM('3 Talie'!G27)</f>
-        <v>-185</v>
+        <v>-230</v>
       </c>
       <c r="W7">
         <f>SUM('4 Talie'!B27)</f>
@@ -1273,27 +1273,27 @@
       </c>
       <c r="P8">
         <f>SUM('3 Talie'!B28)</f>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="Q8">
         <f>SUM('3 Talie'!C28)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R8">
         <f>SUM('3 Talie'!D28)</f>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="S8">
         <f>SUM('3 Talie'!E28)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <f>SUM('3 Talie'!F28)</f>
-        <v>0.39655172413793105</v>
+        <v>0.43814432989690721</v>
       </c>
       <c r="U8">
         <f>SUM('3 Talie'!G28)</f>
-        <v>-125</v>
+        <v>-40</v>
       </c>
       <c r="W8">
         <f>SUM('4 Talie'!B28)</f>
@@ -1374,27 +1374,27 @@
       </c>
       <c r="P9">
         <f>SUM('3 Talie'!B29)</f>
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <f>SUM('3 Talie'!C29)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R9">
         <f>SUM('3 Talie'!D29)</f>
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="S9">
         <f>SUM('3 Talie'!E29)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T9">
         <f>SUM('3 Talie'!F29)</f>
-        <v>0.35652173913043478</v>
+        <v>0.41015625</v>
       </c>
       <c r="U9">
         <f>SUM('3 Talie'!G29)</f>
-        <v>-190</v>
+        <v>-150</v>
       </c>
       <c r="W9">
         <f>SUM('4 Talie'!B29)</f>
@@ -1475,27 +1475,27 @@
       </c>
       <c r="P10">
         <f>SUM('3 Talie'!B30)</f>
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <f>SUM('3 Talie'!C30)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <f>SUM('3 Talie'!D30)</f>
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="S10">
         <f>SUM('3 Talie'!E30)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T10">
         <f>SUM('3 Talie'!F30)</f>
-        <v>0.42857142857142855</v>
+        <v>0.42125984251968501</v>
       </c>
       <c r="U10">
         <f>SUM('3 Talie'!G30)</f>
-        <v>-45</v>
+        <v>-55</v>
       </c>
       <c r="W10">
         <f>SUM('4 Talie'!B30)</f>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="P11">
         <f>SUM('3 Talie'!B31)</f>
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="Q11">
         <f>SUM('3 Talie'!C31)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R11">
         <f>SUM('3 Talie'!D31)</f>
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="S11">
         <f>SUM('3 Talie'!E31)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T11">
         <f>SUM('3 Talie'!F31)</f>
-        <v>0.43529411764705883</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="U11">
         <f>SUM('3 Talie'!G31)</f>
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="W11">
         <f>SUM('4 Talie'!B31)</f>
@@ -1677,27 +1677,27 @@
       </c>
       <c r="P12">
         <f>SUM('3 Talie'!B32)</f>
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <f>SUM('3 Talie'!C32)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="R12">
         <f>SUM('3 Talie'!D32)</f>
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="S12">
         <f>SUM('3 Talie'!E32)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T12">
         <f>SUM('3 Talie'!F32)</f>
-        <v>0.36283185840707965</v>
+        <v>0.38314176245210729</v>
       </c>
       <c r="U12">
         <f>SUM('3 Talie'!G32)</f>
-        <v>-235</v>
+        <v>-335</v>
       </c>
       <c r="W12">
         <f>SUM('4 Talie'!B32)</f>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="P13">
         <f>SUM('3 Talie'!B33)</f>
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <f>SUM('3 Talie'!C33)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R13">
         <f>SUM('3 Talie'!D33)</f>
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="S13">
         <f>SUM('3 Talie'!E33)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T13">
         <f>SUM('3 Talie'!F33)</f>
-        <v>0.3359375</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="U13">
         <f>SUM('3 Talie'!G33)</f>
-        <v>-320</v>
+        <v>-425</v>
       </c>
       <c r="W13">
         <f>SUM('4 Talie'!B33)</f>
@@ -5386,10 +5386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6284,7 +6284,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -6304,356 +6304,1501 @@
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f>B2+H2+N2+T2</f>
-        <v>30</v>
+        <f>B2+H2+N2+T2+I22+P22+W22+P37+I37+B37</f>
+        <v>72</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:E33" si="4">C2+I2+O2+U2</f>
-        <v>6</v>
+        <f t="shared" ref="C22:E33" si="4">C2+I2+O2+U2+J22+Q22+X22+Q37+J37+C37</f>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.27522935779816515</v>
+        <v>0.29268292682926828</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-865</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f>(I22-K22+L22/2)*10</f>
+        <v>-90</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <f>(P22-R22+S22/2)*10</f>
+        <v>-135</v>
+      </c>
+      <c r="W22">
+        <v>9</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>19</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f>(W22-Y22+Z22/2)*10</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:B33" si="5">B3+H3+N3+T3</f>
-        <v>46</v>
+        <f t="shared" ref="B23:B33" si="5">B3+H3+N3+T3+I23+P23+W23+P38+I38+B38</f>
+        <v>112</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F34" si="6">B23/(SUM(B23:D23))</f>
-        <v>0.40707964601769914</v>
+        <f t="shared" ref="F23:F33" si="6">B23/(SUM(B23:D23))</f>
+        <v>0.44094488188976377</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G34" si="7">(B23-D23+E23/2)*10</f>
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G23:G33" si="7">(B23-D23+E23/2)*10</f>
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N34" si="8">(I23-K23+L23/2)*10</f>
+        <v>-30</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U34" si="9">(P23-R23+S23/2)*10</f>
+        <v>65</v>
+      </c>
+      <c r="W23">
+        <v>14</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>12</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" ref="AB23:AB34" si="10">(W23-Y23+Z23/2)*10</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="6"/>
-        <v>0.23966942148760331</v>
+        <v>0.28624535315985128</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="7"/>
-        <v>-525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-940</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>-75</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>19</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>-80</v>
+      </c>
+      <c r="W24">
+        <v>9</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>21</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="10"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.35074626865671643</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="7"/>
-        <v>-345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-545</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <v>13</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>17</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="10"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="6"/>
-        <v>0.42857142857142855</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="7"/>
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="P26">
+        <v>14</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>14</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="10"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>0.36290322580645162</v>
+        <v>0.3971119133574007</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="7"/>
-        <v>-185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-230</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>-25</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>16</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="10"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>0.39655172413793105</v>
+        <v>0.43814432989690721</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="7"/>
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-40</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="W28">
+        <v>14</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>14</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>0.35652173913043478</v>
+        <v>0.41015625</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="7"/>
-        <v>-190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-150</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>17</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>-55</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>16</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="10"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="6"/>
-        <v>0.42857142857142855</v>
+        <v>0.42125984251968501</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="7"/>
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-55</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>-65</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>11</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>14</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="10"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="6"/>
-        <v>0.43529411764705883</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="7"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-75</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="W31">
+        <v>11</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>16</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="10"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="6"/>
-        <v>0.36283185840707965</v>
+        <v>0.38314176245210729</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="7"/>
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-335</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>16</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="10"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="1">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="C33" s="8">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D33" s="8">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="E33" s="8">
+        <v>158</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="6"/>
-        <v>0.3359375</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="7"/>
-        <v>-320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>-425</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>14</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>15</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="W33">
+        <v>12</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>19</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="10"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>(B37-D37+E37/2)*10</f>
+        <v>-65</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f>(I37-K37+L37/2)*10</f>
+        <v>-65</v>
+      </c>
+      <c r="U37">
+        <f>(P37-R37+S37/2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G49" si="11">(B38-D38+E38/2)*10</f>
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N49" si="12">(I38-K38+L38/2)*10</f>
+        <v>-20</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U49" si="13">(P38-R38+S38/2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>22</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="12"/>
+        <v>-140</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="12"/>
+        <v>-130</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="12"/>
+        <v>-45</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>-45</v>
+      </c>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>13</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>13</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="12"/>
+        <v>-75</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>15</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="12"/>
+        <v>-25</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="I47">
+        <v>13</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="11"/>
+        <v>-115</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC/wyniki/bez idealnej/Wyniki.xlsx
+++ b/DOC/wyniki/bez idealnej/Wyniki.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918DDE69-1887-43EA-BD9C-A47031390A90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC62B0-59B8-4425-81A1-E09A9E25900B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ogólnie" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -246,6 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,15 +535,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -619,99 +632,99 @@
       </c>
       <c r="B2">
         <f>SUM('1 Talia'!B19)</f>
-        <v>30</v>
+        <v>2877565</v>
       </c>
       <c r="C2">
         <f>SUM('1 Talia'!C19)</f>
-        <v>2</v>
+        <v>516370</v>
       </c>
       <c r="D2">
         <f>SUM('1 Talia'!D19)</f>
-        <v>94</v>
+        <v>6361590</v>
       </c>
       <c r="E2">
         <f>SUM('1 Talia'!E19)</f>
-        <v>4</v>
+        <v>482380</v>
       </c>
       <c r="F2">
         <f>SUM('1 Talia'!F19)</f>
-        <v>0.23809523809523808</v>
+        <v>0.2949677234182681</v>
       </c>
       <c r="G2">
         <f>SUM('1 Talia'!G19)</f>
-        <v>-620</v>
+        <v>-32428350</v>
       </c>
       <c r="I2">
         <f>SUM('2 Talie'!B22)</f>
-        <v>51</v>
+        <v>3724778</v>
       </c>
       <c r="J2">
         <f>SUM('2 Talie'!C22)</f>
-        <v>10</v>
+        <v>646086</v>
       </c>
       <c r="K2">
         <f>SUM('2 Talie'!D22)</f>
-        <v>148</v>
+        <v>8200283</v>
       </c>
       <c r="L2">
         <f>SUM('2 Talie'!E22)</f>
-        <v>6</v>
+        <v>608656</v>
       </c>
       <c r="M2">
         <f>SUM('2 Talie'!F22)</f>
-        <v>0.24401913875598086</v>
+        <v>0.29629579544332746</v>
       </c>
       <c r="N2">
         <f>SUM('2 Talie'!G22)</f>
-        <v>-940</v>
+        <v>-41711770</v>
       </c>
       <c r="P2">
         <f>SUM('3 Talie'!B22)</f>
-        <v>72</v>
+        <v>4114191</v>
       </c>
       <c r="Q2">
         <f>SUM('3 Talie'!C22)</f>
-        <v>10</v>
+        <v>706169</v>
       </c>
       <c r="R2">
         <f>SUM('3 Talie'!D22)</f>
-        <v>164</v>
+        <v>9050288</v>
       </c>
       <c r="S2">
         <f>SUM('3 Talie'!E22)</f>
-        <v>11</v>
+        <v>665824</v>
       </c>
       <c r="T2">
         <f>SUM('3 Talie'!F22)</f>
-        <v>0.29268292682926828</v>
+        <v>0.29661130467733016</v>
       </c>
       <c r="U2">
         <f>SUM('3 Talie'!G22)</f>
-        <v>-865</v>
+        <v>-46031850</v>
       </c>
       <c r="W2">
         <f>SUM('4 Talie'!B22)</f>
-        <v>13</v>
+        <v>4251112</v>
       </c>
       <c r="X2">
         <f>SUM('4 Talie'!C22)</f>
-        <v>1</v>
+        <v>726387</v>
       </c>
       <c r="Y2">
         <f>SUM('4 Talie'!D22)</f>
-        <v>22</v>
+        <v>9356083</v>
       </c>
       <c r="Z2">
         <f>SUM('4 Talie'!E22)</f>
-        <v>2</v>
+        <v>686084</v>
       </c>
       <c r="AA2">
         <f>SUM('4 Talie'!F22)</f>
-        <v>0.3611111111111111</v>
+        <v>0.29658406391368186</v>
       </c>
       <c r="AB2">
         <f>SUM('4 Talie'!G22)</f>
-        <v>-80</v>
+        <v>-47619290</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -720,99 +733,99 @@
       </c>
       <c r="B3">
         <f>SUM('1 Talia'!B20)</f>
-        <v>54</v>
+        <v>4164141</v>
       </c>
       <c r="C3">
         <f>SUM('1 Talia'!C20)</f>
-        <v>12</v>
+        <v>977886</v>
       </c>
       <c r="D3">
         <f>SUM('1 Talia'!D20)</f>
-        <v>72</v>
+        <v>4967248</v>
       </c>
       <c r="E3">
         <f>SUM('1 Talia'!E20)</f>
-        <v>8</v>
+        <v>491340</v>
       </c>
       <c r="F3">
         <f>SUM('1 Talia'!F20)</f>
-        <v>0.39130434782608697</v>
+        <v>0.41191292154976494</v>
       </c>
       <c r="G3">
         <f>SUM('1 Talia'!G20)</f>
-        <v>-140</v>
+        <v>-5574370</v>
       </c>
       <c r="I3">
         <f>SUM('2 Talie'!B23)</f>
-        <v>90</v>
+        <v>5379473</v>
       </c>
       <c r="J3">
         <f>SUM('2 Talie'!C23)</f>
-        <v>25</v>
+        <v>1210992</v>
       </c>
       <c r="K3">
         <f>SUM('2 Talie'!D23)</f>
-        <v>105</v>
+        <v>6411153</v>
       </c>
       <c r="L3">
         <f>SUM('2 Talie'!E23)</f>
-        <v>7</v>
+        <v>624755</v>
       </c>
       <c r="M3">
         <f>SUM('2 Talie'!F23)</f>
-        <v>0.40909090909090912</v>
+        <v>0.41375411891043101</v>
       </c>
       <c r="N3">
         <f>SUM('2 Talie'!G23)</f>
-        <v>-115</v>
+        <v>-7193025</v>
       </c>
       <c r="P3">
         <f>SUM('3 Talie'!B23)</f>
-        <v>112</v>
+        <v>5934707</v>
       </c>
       <c r="Q3">
         <f>SUM('3 Talie'!C23)</f>
-        <v>26</v>
+        <v>1312673</v>
       </c>
       <c r="R3">
         <f>SUM('3 Talie'!D23)</f>
-        <v>116</v>
+        <v>7078488</v>
       </c>
       <c r="S3">
         <f>SUM('3 Talie'!E23)</f>
-        <v>16</v>
+        <v>685306</v>
       </c>
       <c r="T3">
         <f>SUM('3 Talie'!F23)</f>
-        <v>0.44094488188976377</v>
+        <v>0.41426509025491509</v>
       </c>
       <c r="U3">
         <f>SUM('3 Talie'!G23)</f>
-        <v>40</v>
+        <v>-8011280</v>
       </c>
       <c r="W3">
         <f>SUM('4 Talie'!B23)</f>
-        <v>22</v>
+        <v>6131527</v>
       </c>
       <c r="X3">
         <f>SUM('4 Talie'!C23)</f>
-        <v>1</v>
+        <v>1346699</v>
       </c>
       <c r="Y3">
         <f>SUM('4 Talie'!D23)</f>
-        <v>12</v>
+        <v>7316723</v>
       </c>
       <c r="Z3">
         <f>SUM('4 Talie'!E23)</f>
-        <v>1</v>
+        <v>705728</v>
       </c>
       <c r="AA3">
         <f>SUM('4 Talie'!F23)</f>
-        <v>0.62857142857142856</v>
+        <v>0.41443380440175903</v>
       </c>
       <c r="AB3">
         <f>SUM('4 Talie'!G23)</f>
-        <v>105</v>
+        <v>-8323320</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -821,99 +834,99 @@
       </c>
       <c r="B4">
         <f>SUM('1 Talia'!B21)</f>
-        <v>49</v>
+        <v>3391857</v>
       </c>
       <c r="C4">
         <f>SUM('1 Talia'!C21)</f>
-        <v>3</v>
+        <v>504917</v>
       </c>
       <c r="D4">
         <f>SUM('1 Talia'!D21)</f>
-        <v>97</v>
+        <v>6874074</v>
       </c>
       <c r="E4">
         <f>SUM('1 Talia'!E21)</f>
-        <v>7</v>
+        <v>525177</v>
       </c>
       <c r="F4">
         <f>SUM('1 Talia'!F21)</f>
-        <v>0.32885906040268459</v>
+        <v>0.31491085938637331</v>
       </c>
       <c r="G4">
         <f>SUM('1 Talia'!G21)</f>
-        <v>-445</v>
+        <v>-32196285</v>
       </c>
       <c r="I4">
         <f>SUM('2 Talie'!B24)</f>
-        <v>78</v>
+        <v>4286191</v>
       </c>
       <c r="J4">
         <f>SUM('2 Talie'!C24)</f>
-        <v>9</v>
+        <v>560445</v>
       </c>
       <c r="K4">
         <f>SUM('2 Talie'!D24)</f>
-        <v>146</v>
+        <v>8994475</v>
       </c>
       <c r="L4">
         <f>SUM('2 Talie'!E24)</f>
-        <v>10</v>
+        <v>668220</v>
       </c>
       <c r="M4">
         <f>SUM('2 Talie'!F24)</f>
-        <v>0.33476394849785407</v>
+        <v>0.30967102279578568</v>
       </c>
       <c r="N4">
         <f>SUM('2 Talie'!G24)</f>
-        <v>-630</v>
+        <v>-43741740</v>
       </c>
       <c r="P4">
         <f>SUM('3 Talie'!B24)</f>
-        <v>77</v>
+        <v>4684102</v>
       </c>
       <c r="Q4">
         <f>SUM('3 Talie'!C24)</f>
-        <v>11</v>
+        <v>580117</v>
       </c>
       <c r="R4">
         <f>SUM('3 Talie'!D24)</f>
-        <v>181</v>
+        <v>9993648</v>
       </c>
       <c r="S4">
         <f>SUM('3 Talie'!E24)</f>
-        <v>20</v>
+        <v>732967</v>
       </c>
       <c r="T4">
         <f>SUM('3 Talie'!F24)</f>
-        <v>0.28624535315985128</v>
+        <v>0.30699585990623723</v>
       </c>
       <c r="U4">
         <f>SUM('3 Talie'!G24)</f>
-        <v>-940</v>
+        <v>-49430625</v>
       </c>
       <c r="W4">
         <f>SUM('4 Talie'!B24)</f>
-        <v>11</v>
+        <v>4808669</v>
       </c>
       <c r="X4">
         <f>SUM('4 Talie'!C24)</f>
-        <v>3</v>
+        <v>578966</v>
       </c>
       <c r="Y4">
         <f>SUM('4 Talie'!D24)</f>
-        <v>27</v>
+        <v>10373437</v>
       </c>
       <c r="Z4">
         <f>SUM('4 Talie'!E24)</f>
-        <v>3</v>
+        <v>755316</v>
       </c>
       <c r="AA4">
         <f>SUM('4 Talie'!F24)</f>
-        <v>0.26829268292682928</v>
+        <v>0.30509783852265887</v>
       </c>
       <c r="AB4">
         <f>SUM('4 Talie'!G24)</f>
-        <v>-145</v>
+        <v>-51871100</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -922,99 +935,99 @@
       </c>
       <c r="B5">
         <f>SUM('1 Talia'!B22)</f>
-        <v>45</v>
+        <v>3415108</v>
       </c>
       <c r="C5">
         <f>SUM('1 Talia'!C22)</f>
-        <v>10</v>
+        <v>557392</v>
       </c>
       <c r="D5">
         <f>SUM('1 Talia'!D22)</f>
-        <v>90</v>
+        <v>6800618</v>
       </c>
       <c r="E5">
         <f>SUM('1 Talia'!E22)</f>
-        <v>6</v>
+        <v>523362</v>
       </c>
       <c r="F5">
         <f>SUM('1 Talia'!F22)</f>
-        <v>0.31034482758620691</v>
+        <v>0.31700274702272824</v>
       </c>
       <c r="G5">
         <f>SUM('1 Talia'!G22)</f>
-        <v>-420</v>
+        <v>-31238290</v>
       </c>
       <c r="I5">
         <f>SUM('2 Talie'!B25)</f>
-        <v>55</v>
+        <v>4400585</v>
       </c>
       <c r="J5">
         <f>SUM('2 Talie'!C25)</f>
-        <v>14</v>
+        <v>643513</v>
       </c>
       <c r="K5">
         <f>SUM('2 Talie'!D25)</f>
-        <v>163</v>
+        <v>8774431</v>
       </c>
       <c r="L5">
         <f>SUM('2 Talie'!E25)</f>
-        <v>12</v>
+        <v>663736</v>
       </c>
       <c r="M5">
         <f>SUM('2 Talie'!F25)</f>
-        <v>0.23706896551724138</v>
+        <v>0.31845538696629722</v>
       </c>
       <c r="N5">
         <f>SUM('2 Talie'!G25)</f>
-        <v>-1020</v>
+        <v>-40419780</v>
       </c>
       <c r="P5">
         <f>SUM('3 Talie'!B25)</f>
-        <v>94</v>
+        <v>4846824</v>
       </c>
       <c r="Q5">
         <f>SUM('3 Talie'!C25)</f>
-        <v>17</v>
+        <v>683658</v>
       </c>
       <c r="R5">
         <f>SUM('3 Talie'!D25)</f>
-        <v>157</v>
+        <v>9689745</v>
       </c>
       <c r="S5">
         <f>SUM('3 Talie'!E25)</f>
-        <v>17</v>
+        <v>725845</v>
       </c>
       <c r="T5">
         <f>SUM('3 Talie'!F25)</f>
-        <v>0.35074626865671643</v>
+        <v>0.31844623605153854</v>
       </c>
       <c r="U5">
         <f>SUM('3 Talie'!G25)</f>
-        <v>-545</v>
+        <v>-44799985</v>
       </c>
       <c r="W5">
         <f>SUM('4 Talie'!B25)</f>
-        <v>14</v>
+        <v>5010233</v>
       </c>
       <c r="X5">
         <f>SUM('4 Talie'!C25)</f>
-        <v>1</v>
+        <v>693821</v>
       </c>
       <c r="Y5">
         <f>SUM('4 Talie'!D25)</f>
-        <v>24</v>
+        <v>10009279</v>
       </c>
       <c r="Z5">
         <f>SUM('4 Talie'!E25)</f>
-        <v>0</v>
+        <v>748851</v>
       </c>
       <c r="AA5">
         <f>SUM('4 Talie'!F25)</f>
-        <v>0.35897435897435898</v>
+        <v>0.31885234023870046</v>
       </c>
       <c r="AB5">
         <f>SUM('4 Talie'!G25)</f>
-        <v>-100</v>
+        <v>-46246205</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1023,99 +1036,99 @@
       </c>
       <c r="B6">
         <f>SUM('1 Talia'!B23)</f>
-        <v>58</v>
+        <v>4137166</v>
       </c>
       <c r="C6">
         <f>SUM('1 Talia'!C23)</f>
-        <v>11</v>
+        <v>1071883</v>
       </c>
       <c r="D6">
         <f>SUM('1 Talia'!D23)</f>
-        <v>68</v>
+        <v>4960320</v>
       </c>
       <c r="E6">
         <f>SUM('1 Talia'!E23)</f>
-        <v>5</v>
+        <v>494613</v>
       </c>
       <c r="F6">
         <f>SUM('1 Talia'!F23)</f>
-        <v>0.42335766423357662</v>
+        <v>0.40682622491129983</v>
       </c>
       <c r="G6">
         <f>SUM('1 Talia'!G23)</f>
-        <v>-75</v>
+        <v>-5758475</v>
       </c>
       <c r="I6">
         <f>SUM('2 Talie'!B26)</f>
-        <v>86</v>
+        <v>5352662</v>
       </c>
       <c r="J6">
         <f>SUM('2 Talie'!C26)</f>
-        <v>28</v>
+        <v>1336705</v>
       </c>
       <c r="K6">
         <f>SUM('2 Talie'!D26)</f>
-        <v>108</v>
+        <v>6397908</v>
       </c>
       <c r="L6">
         <f>SUM('2 Talie'!E26)</f>
-        <v>6</v>
+        <v>629330</v>
       </c>
       <c r="M6">
         <f>SUM('2 Talie'!F26)</f>
-        <v>0.38738738738738737</v>
+        <v>0.40899744217188072</v>
       </c>
       <c r="N6">
         <f>SUM('2 Talie'!G26)</f>
-        <v>-190</v>
+        <v>-7305810</v>
       </c>
       <c r="P6">
         <f>SUM('3 Talie'!B26)</f>
-        <v>110</v>
+        <v>5910442</v>
       </c>
       <c r="Q6">
         <f>SUM('3 Talie'!C26)</f>
-        <v>28</v>
+        <v>1454481</v>
       </c>
       <c r="R6">
         <f>SUM('3 Talie'!D26)</f>
-        <v>115</v>
+        <v>7054833</v>
       </c>
       <c r="S6">
         <f>SUM('3 Talie'!E26)</f>
-        <v>12</v>
+        <v>689838</v>
       </c>
       <c r="T6">
         <f>SUM('3 Talie'!F26)</f>
-        <v>0.43478260869565216</v>
+        <v>0.40988502163282098</v>
       </c>
       <c r="U6">
         <f>SUM('3 Talie'!G26)</f>
-        <v>10</v>
+        <v>-7994720</v>
       </c>
       <c r="W6">
         <f>SUM('4 Talie'!B26)</f>
-        <v>15</v>
+        <v>6104735</v>
       </c>
       <c r="X6">
         <f>SUM('4 Talie'!C26)</f>
-        <v>3</v>
+        <v>1493296</v>
       </c>
       <c r="Y6">
         <f>SUM('4 Talie'!D26)</f>
-        <v>20</v>
+        <v>7293801</v>
       </c>
       <c r="Z6">
         <f>SUM('4 Talie'!E26)</f>
-        <v>3</v>
+        <v>710580</v>
       </c>
       <c r="AA6">
         <f>SUM('4 Talie'!F26)</f>
-        <v>0.39473684210526316</v>
+        <v>0.40993848171265967</v>
       </c>
       <c r="AB6">
         <f>SUM('4 Talie'!G26)</f>
-        <v>-35</v>
+        <v>-8337760</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1124,99 +1137,99 @@
       </c>
       <c r="B7">
         <f>SUM('1 Talia'!B24)</f>
-        <v>62</v>
+        <v>4443056</v>
       </c>
       <c r="C7">
         <f>SUM('1 Talia'!C24)</f>
-        <v>12</v>
+        <v>811052</v>
       </c>
       <c r="D7">
         <f>SUM('1 Talia'!D24)</f>
-        <v>79</v>
+        <v>5969655</v>
       </c>
       <c r="E7">
         <f>SUM('1 Talia'!E24)</f>
-        <v>6</v>
+        <v>537346</v>
       </c>
       <c r="F7">
         <f>SUM('1 Talia'!F24)</f>
-        <v>0.40522875816993464</v>
+        <v>0.39586153057579709</v>
       </c>
       <c r="G7">
         <f>SUM('1 Talia'!G24)</f>
-        <v>-140</v>
+        <v>-12579260</v>
       </c>
       <c r="I7">
         <f>SUM('2 Talie'!B27)</f>
-        <v>108</v>
+        <v>5729765</v>
       </c>
       <c r="J7">
         <f>SUM('2 Talie'!C27)</f>
-        <v>19</v>
+        <v>954690</v>
       </c>
       <c r="K7">
         <f>SUM('2 Talie'!D27)</f>
-        <v>114</v>
+        <v>7686098</v>
       </c>
       <c r="L7">
         <f>SUM('2 Talie'!E27)</f>
-        <v>15</v>
+        <v>686188</v>
       </c>
       <c r="M7">
         <f>SUM('2 Talie'!F27)</f>
-        <v>0.44813278008298757</v>
+        <v>0.39871569312607524</v>
       </c>
       <c r="N7">
         <f>SUM('2 Talie'!G27)</f>
-        <v>15</v>
+        <v>-16132390</v>
       </c>
       <c r="P7">
         <f>SUM('3 Talie'!B27)</f>
-        <v>110</v>
+        <v>6321121</v>
       </c>
       <c r="Q7">
         <f>SUM('3 Talie'!C27)</f>
-        <v>27</v>
+        <v>1016392</v>
       </c>
       <c r="R7">
         <f>SUM('3 Talie'!D27)</f>
-        <v>140</v>
+        <v>8473069</v>
       </c>
       <c r="S7">
         <f>SUM('3 Talie'!E27)</f>
-        <v>14</v>
+        <v>753627</v>
       </c>
       <c r="T7">
         <f>SUM('3 Talie'!F27)</f>
-        <v>0.3971119133574007</v>
+        <v>0.39980318245084212</v>
       </c>
       <c r="U7">
         <f>SUM('3 Talie'!G27)</f>
-        <v>-230</v>
+        <v>-17751345</v>
       </c>
       <c r="W7">
         <f>SUM('4 Talie'!B27)</f>
-        <v>17</v>
+        <v>6529131</v>
       </c>
       <c r="X7">
         <f>SUM('4 Talie'!C27)</f>
-        <v>4</v>
+        <v>1030584</v>
       </c>
       <c r="Y7">
         <f>SUM('4 Talie'!D27)</f>
-        <v>18</v>
+        <v>8754242</v>
       </c>
       <c r="Z7">
         <f>SUM('4 Talie'!E27)</f>
-        <v>1</v>
+        <v>773948</v>
       </c>
       <c r="AA7">
         <f>SUM('4 Talie'!F27)</f>
-        <v>0.4358974358974359</v>
+        <v>0.40021749475004748</v>
       </c>
       <c r="AB7">
         <f>SUM('4 Talie'!G27)</f>
-        <v>-5</v>
+        <v>-18381370</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1225,99 +1238,99 @@
       </c>
       <c r="B8">
         <f>SUM('1 Talia'!B25)</f>
-        <v>51</v>
+        <v>3709505</v>
       </c>
       <c r="C8">
         <f>SUM('1 Talia'!C25)</f>
-        <v>9</v>
+        <v>729179</v>
       </c>
       <c r="D8">
         <f>SUM('1 Talia'!D25)</f>
-        <v>67</v>
+        <v>4617773</v>
       </c>
       <c r="E8">
         <f>SUM('1 Talia'!E25)</f>
-        <v>6</v>
+        <v>459869</v>
       </c>
       <c r="F8">
         <f>SUM('1 Talia'!F25)</f>
-        <v>0.40157480314960631</v>
+        <v>0.40959781512792476</v>
       </c>
       <c r="G8">
         <f>SUM('1 Talia'!G25)</f>
-        <v>-130</v>
+        <v>-6783335</v>
       </c>
       <c r="I8">
         <f>SUM('2 Talie'!B28)</f>
-        <v>79</v>
+        <v>4201892</v>
       </c>
       <c r="J8">
         <f>SUM('2 Talie'!C28)</f>
-        <v>13</v>
+        <v>831972</v>
       </c>
       <c r="K8">
         <f>SUM('2 Talie'!D28)</f>
-        <v>84</v>
+        <v>5227199</v>
       </c>
       <c r="L8">
         <f>SUM('2 Talie'!E28)</f>
-        <v>11</v>
+        <v>512331</v>
       </c>
       <c r="M8">
         <f>SUM('2 Talie'!F28)</f>
-        <v>0.44886363636363635</v>
+        <v>0.40949870398417787</v>
       </c>
       <c r="N8">
         <f>SUM('2 Talie'!G28)</f>
-        <v>5</v>
+        <v>-7691415</v>
       </c>
       <c r="P8">
         <f>SUM('3 Talie'!B28)</f>
-        <v>85</v>
+        <v>4100456</v>
       </c>
       <c r="Q8">
         <f>SUM('3 Talie'!C28)</f>
-        <v>15</v>
+        <v>812693</v>
       </c>
       <c r="R8">
         <f>SUM('3 Talie'!D28)</f>
-        <v>94</v>
+        <v>5081081</v>
       </c>
       <c r="S8">
         <f>SUM('3 Talie'!E28)</f>
-        <v>10</v>
+        <v>494742</v>
       </c>
       <c r="T8">
         <f>SUM('3 Talie'!F28)</f>
-        <v>0.43814432989690721</v>
+        <v>0.41028233290608679</v>
       </c>
       <c r="U8">
         <f>SUM('3 Talie'!G28)</f>
-        <v>-40</v>
+        <v>-7332540</v>
       </c>
       <c r="W8">
         <f>SUM('4 Talie'!B28)</f>
-        <v>0</v>
+        <v>3776565</v>
       </c>
       <c r="X8">
         <f>SUM('4 Talie'!C28)</f>
-        <v>1</v>
+        <v>745186</v>
       </c>
       <c r="Y8">
         <f>SUM('4 Talie'!D28)</f>
-        <v>7</v>
+        <v>4658450</v>
       </c>
       <c r="Z8">
         <f>SUM('4 Talie'!E28)</f>
-        <v>0</v>
+        <v>452587</v>
       </c>
       <c r="AA8">
         <f>SUM('4 Talie'!F28)</f>
-        <v>0</v>
+        <v>0.41138151550276514</v>
       </c>
       <c r="AB8">
         <f>SUM('4 Talie'!G28)</f>
-        <v>-70</v>
+        <v>-6555915</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1326,99 +1339,99 @@
       </c>
       <c r="B9">
         <f>SUM('1 Talia'!B26)</f>
-        <v>65</v>
+        <v>4330730</v>
       </c>
       <c r="C9">
         <f>SUM('1 Talia'!C26)</f>
-        <v>12</v>
+        <v>999536</v>
       </c>
       <c r="D9">
         <f>SUM('1 Talia'!D26)</f>
-        <v>65</v>
+        <v>5156381</v>
       </c>
       <c r="E9">
         <f>SUM('1 Talia'!E26)</f>
-        <v>9</v>
+        <v>507644</v>
       </c>
       <c r="F9">
         <f>SUM('1 Talia'!F26)</f>
-        <v>0.45774647887323944</v>
+        <v>0.41297566324107221</v>
       </c>
       <c r="G9">
         <f>SUM('1 Talia'!G26)</f>
-        <v>45</v>
+        <v>-5718290</v>
       </c>
       <c r="I9">
         <f>SUM('2 Talie'!B29)</f>
-        <v>106</v>
+        <v>5589331</v>
       </c>
       <c r="J9">
         <f>SUM('2 Talie'!C29)</f>
-        <v>22</v>
+        <v>1197458</v>
       </c>
       <c r="K9">
         <f>SUM('2 Talie'!D29)</f>
-        <v>97</v>
+        <v>6653887</v>
       </c>
       <c r="L9">
         <f>SUM('2 Talie'!E29)</f>
-        <v>9</v>
+        <v>643515</v>
       </c>
       <c r="M9">
         <f>SUM('2 Talie'!F29)</f>
-        <v>0.47111111111111109</v>
+        <v>0.41585192590015563</v>
       </c>
       <c r="N9">
         <f>SUM('2 Talie'!G29)</f>
-        <v>135</v>
+        <v>-7427985</v>
       </c>
       <c r="P9">
         <f>SUM('3 Talie'!B29)</f>
-        <v>105</v>
+        <v>6165301</v>
       </c>
       <c r="Q9">
         <f>SUM('3 Talie'!C29)</f>
-        <v>24</v>
+        <v>1293010</v>
       </c>
       <c r="R9">
         <f>SUM('3 Talie'!D29)</f>
-        <v>127</v>
+        <v>7340353</v>
       </c>
       <c r="S9">
         <f>SUM('3 Talie'!E29)</f>
-        <v>14</v>
+        <v>706470</v>
       </c>
       <c r="T9">
         <f>SUM('3 Talie'!F29)</f>
-        <v>0.41015625</v>
+        <v>0.41661199956969086</v>
       </c>
       <c r="U9">
         <f>SUM('3 Talie'!G29)</f>
-        <v>-150</v>
+        <v>-8218170</v>
       </c>
       <c r="W9">
         <f>SUM('4 Talie'!B29)</f>
-        <v>19</v>
+        <v>6369533</v>
       </c>
       <c r="X9">
         <f>SUM('4 Talie'!C29)</f>
-        <v>5</v>
+        <v>1321334</v>
       </c>
       <c r="Y9">
         <f>SUM('4 Talie'!D29)</f>
-        <v>15</v>
+        <v>7584554</v>
       </c>
       <c r="Z9">
         <f>SUM('4 Talie'!E29)</f>
-        <v>2</v>
+        <v>727788</v>
       </c>
       <c r="AA9">
         <f>SUM('4 Talie'!F29)</f>
-        <v>0.48717948717948717</v>
+        <v>0.41697921124399778</v>
       </c>
       <c r="AB9">
         <f>SUM('4 Talie'!G29)</f>
-        <v>50</v>
+        <v>-8511270</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1427,99 +1440,99 @@
       </c>
       <c r="B10">
         <f>SUM('1 Talia'!B27)</f>
-        <v>61</v>
+        <v>4160909</v>
       </c>
       <c r="C10">
         <f>SUM('1 Talia'!C27)</f>
-        <v>11</v>
+        <v>1064969</v>
       </c>
       <c r="D10">
         <f>SUM('1 Talia'!D27)</f>
-        <v>66</v>
+        <v>4998382</v>
       </c>
       <c r="E10">
         <f>SUM('1 Talia'!E27)</f>
-        <v>5</v>
+        <v>496760</v>
       </c>
       <c r="F10">
         <f>SUM('1 Talia'!F27)</f>
-        <v>0.4420289855072464</v>
+        <v>0.40696431820004575</v>
       </c>
       <c r="G10">
         <f>SUM('1 Talia'!G27)</f>
-        <v>-25</v>
+        <v>-5890930</v>
       </c>
       <c r="I10">
         <f>SUM('2 Talie'!B30)</f>
-        <v>89</v>
+        <v>5390724</v>
       </c>
       <c r="J10">
         <f>SUM('2 Talie'!C30)</f>
-        <v>29</v>
+        <v>1313194</v>
       </c>
       <c r="K10">
         <f>SUM('2 Talie'!D30)</f>
-        <v>106</v>
+        <v>6460938</v>
       </c>
       <c r="L10">
         <f>SUM('2 Talie'!E30)</f>
-        <v>6</v>
+        <v>632512</v>
       </c>
       <c r="M10">
         <f>SUM('2 Talie'!F30)</f>
-        <v>0.39732142857142855</v>
+        <v>0.40947838700248601</v>
       </c>
       <c r="N10">
         <f>SUM('2 Talie'!G30)</f>
-        <v>-140</v>
+        <v>-7539580</v>
       </c>
       <c r="P10">
         <f>SUM('3 Talie'!B30)</f>
-        <v>107</v>
+        <v>5955598</v>
       </c>
       <c r="Q10">
         <f>SUM('3 Talie'!C30)</f>
-        <v>28</v>
+        <v>1425101</v>
       </c>
       <c r="R10">
         <f>SUM('3 Talie'!D30)</f>
-        <v>119</v>
+        <v>7128855</v>
       </c>
       <c r="S10">
         <f>SUM('3 Talie'!E30)</f>
-        <v>13</v>
+        <v>694714</v>
       </c>
       <c r="T10">
         <f>SUM('3 Talie'!F30)</f>
-        <v>0.42125984251968501</v>
+        <v>0.41046044557951267</v>
       </c>
       <c r="U10">
         <f>SUM('3 Talie'!G30)</f>
-        <v>-55</v>
+        <v>-8259000</v>
       </c>
       <c r="W10">
         <f>SUM('4 Talie'!B30)</f>
-        <v>18</v>
+        <v>6150249</v>
       </c>
       <c r="X10">
         <f>SUM('4 Talie'!C30)</f>
-        <v>3</v>
+        <v>1458912</v>
       </c>
       <c r="Y10">
         <f>SUM('4 Talie'!D30)</f>
-        <v>15</v>
+        <v>7377031</v>
       </c>
       <c r="Z10">
         <f>SUM('4 Talie'!E30)</f>
-        <v>0</v>
+        <v>714348</v>
       </c>
       <c r="AA10">
         <f>SUM('4 Talie'!F30)</f>
-        <v>0.5</v>
+        <v>0.4103943817081751</v>
       </c>
       <c r="AB10">
         <f>SUM('4 Talie'!G30)</f>
-        <v>30</v>
+        <v>-8696080</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1528,99 +1541,99 @@
       </c>
       <c r="B11">
         <f>SUM('1 Talia'!B28)</f>
-        <v>61</v>
+        <v>4158446</v>
       </c>
       <c r="C11">
         <f>SUM('1 Talia'!C28)</f>
-        <v>11</v>
+        <v>908384</v>
       </c>
       <c r="D11">
         <f>SUM('1 Talia'!D28)</f>
-        <v>68</v>
+        <v>5080551</v>
       </c>
       <c r="E11">
         <f>SUM('1 Talia'!E28)</f>
-        <v>7</v>
+        <v>496877</v>
       </c>
       <c r="F11">
         <f>SUM('1 Talia'!F28)</f>
-        <v>0.43571428571428572</v>
+        <v>0.4098048550655583</v>
       </c>
       <c r="G11">
         <f>SUM('1 Talia'!G28)</f>
-        <v>-35</v>
+        <v>-6736665</v>
       </c>
       <c r="I11">
         <f>SUM('2 Talie'!B31)</f>
-        <v>78</v>
+        <v>4775122</v>
       </c>
       <c r="J11">
         <f>SUM('2 Talie'!C31)</f>
-        <v>17</v>
+        <v>968201</v>
       </c>
       <c r="K11">
         <f>SUM('2 Talie'!D31)</f>
-        <v>105</v>
+        <v>5995947</v>
       </c>
       <c r="L11">
         <f>SUM('2 Talie'!E31)</f>
-        <v>12</v>
+        <v>572934</v>
       </c>
       <c r="M11">
         <f>SUM('2 Talie'!F31)</f>
-        <v>0.39</v>
+        <v>0.40676481587015206</v>
       </c>
       <c r="N11">
         <f>SUM('2 Talie'!G31)</f>
-        <v>-210</v>
+        <v>-9343580</v>
       </c>
       <c r="P11">
         <f>SUM('3 Talie'!B31)</f>
-        <v>96</v>
+        <v>4723799</v>
       </c>
       <c r="Q11">
         <f>SUM('3 Talie'!C31)</f>
-        <v>19</v>
+        <v>940215</v>
       </c>
       <c r="R11">
         <f>SUM('3 Talie'!D31)</f>
-        <v>110</v>
+        <v>6034841</v>
       </c>
       <c r="S11">
         <f>SUM('3 Talie'!E31)</f>
-        <v>13</v>
+        <v>568640</v>
       </c>
       <c r="T11">
         <f>SUM('3 Talie'!F31)</f>
-        <v>0.42666666666666669</v>
+        <v>0.40378301979125308</v>
       </c>
       <c r="U11">
         <f>SUM('3 Talie'!G31)</f>
-        <v>-75</v>
+        <v>-10267220</v>
       </c>
       <c r="W11">
         <f>SUM('4 Talie'!B31)</f>
-        <v>18</v>
+        <v>4433485</v>
       </c>
       <c r="X11">
         <f>SUM('4 Talie'!C31)</f>
-        <v>3</v>
+        <v>874976</v>
       </c>
       <c r="Y11">
         <f>SUM('4 Talie'!D31)</f>
-        <v>16</v>
+        <v>5718417</v>
       </c>
       <c r="Z11">
         <f>SUM('4 Talie'!E31)</f>
-        <v>2</v>
+        <v>534474</v>
       </c>
       <c r="AA11">
         <f>SUM('4 Talie'!F31)</f>
-        <v>0.48648648648648651</v>
+        <v>0.40206167149033478</v>
       </c>
       <c r="AB11">
         <f>SUM('4 Talie'!G31)</f>
-        <v>30</v>
+        <v>-10176950</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1629,99 +1642,99 @@
       </c>
       <c r="B12">
         <f>SUM('1 Talia'!B29)</f>
-        <v>59</v>
+        <v>4384065</v>
       </c>
       <c r="C12">
         <f>SUM('1 Talia'!C29)</f>
-        <v>12</v>
+        <v>934878</v>
       </c>
       <c r="D12">
         <f>SUM('1 Talia'!D29)</f>
-        <v>64</v>
+        <v>5075531</v>
       </c>
       <c r="E12">
         <f>SUM('1 Talia'!E29)</f>
-        <v>6</v>
+        <v>524074</v>
       </c>
       <c r="F12">
         <f>SUM('1 Talia'!F29)</f>
-        <v>0.43703703703703706</v>
+        <v>0.42176881677706829</v>
       </c>
       <c r="G12">
         <f>SUM('1 Talia'!G29)</f>
-        <v>-20</v>
+        <v>-4294290</v>
       </c>
       <c r="I12">
         <f>SUM('2 Talie'!B32)</f>
-        <v>113</v>
+        <v>5491006</v>
       </c>
       <c r="J12">
         <f>SUM('2 Talie'!C32)</f>
-        <v>19</v>
+        <v>1067250</v>
       </c>
       <c r="K12">
         <f>SUM('2 Talie'!D32)</f>
-        <v>102</v>
+        <v>6372221</v>
       </c>
       <c r="L12">
         <f>SUM('2 Talie'!E32)</f>
-        <v>13</v>
+        <v>647921</v>
       </c>
       <c r="M12">
         <f>SUM('2 Talie'!F32)</f>
-        <v>0.48290598290598291</v>
+        <v>0.4246561051073367</v>
       </c>
       <c r="N12">
         <f>SUM('2 Talie'!G32)</f>
-        <v>175</v>
+        <v>-5572545</v>
       </c>
       <c r="P12">
         <f>SUM('3 Talie'!B32)</f>
-        <v>100</v>
+        <v>5873009</v>
       </c>
       <c r="Q12">
         <f>SUM('3 Talie'!C32)</f>
-        <v>21</v>
+        <v>1112751</v>
       </c>
       <c r="R12">
         <f>SUM('3 Talie'!D32)</f>
-        <v>140</v>
+        <v>6822227</v>
       </c>
       <c r="S12">
         <f>SUM('3 Talie'!E32)</f>
-        <v>13</v>
+        <v>688934</v>
       </c>
       <c r="T12">
         <f>SUM('3 Talie'!F32)</f>
-        <v>0.38314176245210729</v>
+        <v>0.42533419244963078</v>
       </c>
       <c r="U12">
         <f>SUM('3 Talie'!G32)</f>
-        <v>-335</v>
+        <v>-6047510</v>
       </c>
       <c r="W12">
         <f>SUM('4 Talie'!B32)</f>
-        <v>21</v>
+        <v>5881835</v>
       </c>
       <c r="X12">
         <f>SUM('4 Talie'!C32)</f>
-        <v>1</v>
+        <v>1100759</v>
       </c>
       <c r="Y12">
         <f>SUM('4 Talie'!D32)</f>
-        <v>17</v>
+        <v>6836550</v>
       </c>
       <c r="Z12">
         <f>SUM('4 Talie'!E32)</f>
-        <v>2</v>
+        <v>688535</v>
       </c>
       <c r="AA12">
         <f>SUM('4 Talie'!F32)</f>
-        <v>0.53846153846153844</v>
+        <v>0.42562947458974304</v>
       </c>
       <c r="AB12">
         <f>SUM('4 Talie'!G32)</f>
-        <v>50</v>
+        <v>-6104475</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1730,99 +1743,99 @@
       </c>
       <c r="B13">
         <f>SUM('1 Talia'!B30)</f>
-        <v>60</v>
+        <v>4404724</v>
       </c>
       <c r="C13">
         <f>SUM('1 Talia'!C30)</f>
-        <v>12</v>
+        <v>729945</v>
       </c>
       <c r="D13">
         <f>SUM('1 Talia'!D30)</f>
-        <v>85</v>
+        <v>6542626</v>
       </c>
       <c r="E13">
         <f>SUM('1 Talia'!E30)</f>
-        <v>5</v>
+        <v>558990</v>
       </c>
       <c r="F13">
         <f>SUM('1 Talia'!F30)</f>
-        <v>0.38216560509554143</v>
+        <v>0.37720413845843581</v>
       </c>
       <c r="G13">
         <f>SUM('1 Talia'!G30)</f>
-        <v>-225</v>
+        <v>-18584070</v>
       </c>
       <c r="I13">
         <f>SUM('2 Talie'!B33)</f>
-        <v>103</v>
+        <v>5685336</v>
       </c>
       <c r="J13">
         <f>SUM('2 Talie'!C33)</f>
-        <v>13</v>
+        <v>822109</v>
       </c>
       <c r="K13">
         <f>SUM('2 Talie'!D33)</f>
-        <v>136</v>
+        <v>8410116</v>
       </c>
       <c r="L13">
         <f>SUM('2 Talie'!E33)</f>
-        <v>11</v>
+        <v>711016</v>
       </c>
       <c r="M13">
         <f>SUM('2 Talie'!F33)</f>
-        <v>0.40873015873015872</v>
+        <v>0.38111699358896539</v>
       </c>
       <c r="N13">
         <f>SUM('2 Talie'!G33)</f>
-        <v>-275</v>
+        <v>-23692720</v>
       </c>
       <c r="P13">
         <f>SUM('3 Talie'!B33)</f>
-        <v>110</v>
+        <v>6271367</v>
       </c>
       <c r="Q13">
         <f>SUM('3 Talie'!C33)</f>
-        <v>18</v>
+        <v>869614</v>
       </c>
       <c r="R13">
         <f>SUM('3 Talie'!D33)</f>
-        <v>158</v>
+        <v>9267980</v>
       </c>
       <c r="S13">
         <f>SUM('3 Talie'!E33)</f>
-        <v>11</v>
+        <v>780861</v>
       </c>
       <c r="T13">
         <f>SUM('3 Talie'!F33)</f>
-        <v>0.38461538461538464</v>
+        <v>0.38219159640881589</v>
       </c>
       <c r="U13">
         <f>SUM('3 Talie'!G33)</f>
-        <v>-425</v>
+        <v>-26061825</v>
       </c>
       <c r="W13">
         <f>SUM('4 Talie'!B33)</f>
-        <v>18</v>
+        <v>6477436</v>
       </c>
       <c r="X13">
         <f>SUM('4 Talie'!C33)</f>
-        <v>4</v>
+        <v>879113</v>
       </c>
       <c r="Y13">
         <f>SUM('4 Talie'!D33)</f>
-        <v>18</v>
+        <v>9574127</v>
       </c>
       <c r="Z13">
         <f>SUM('4 Talie'!E33)</f>
-        <v>0</v>
+        <v>803316</v>
       </c>
       <c r="AA13">
         <f>SUM('4 Talie'!F33)</f>
-        <v>0.45</v>
+        <v>0.38258578688765882</v>
       </c>
       <c r="AB13">
         <f>SUM('4 Talie'!G33)</f>
-        <v>0</v>
+        <v>-26950330</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -1876,39 +1889,39 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B32" si="0">B2+I2</f>
-        <v>81</v>
+        <v>6602343</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ref="C21:C32" si="1">C2+J2</f>
-        <v>12</v>
+        <v>1162456</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:D32" si="2">D2+K2</f>
-        <v>242</v>
+        <v>14561873</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ref="E21:E32" si="3">E2+L2</f>
-        <v>10</v>
+        <v>1091036</v>
       </c>
       <c r="F21" s="1">
         <f>B21/(B21+C21+D21)</f>
-        <v>0.2417910447761194</v>
+        <v>0.29571550117276774</v>
       </c>
       <c r="G21" s="1">
         <f>(B21-D21+0.5*E21)*10</f>
-        <v>-1560</v>
+        <v>-74140120</v>
       </c>
       <c r="H21" s="1">
         <f>B21+C21+D21</f>
-        <v>335</v>
+        <v>22326672</v>
       </c>
       <c r="I21" s="1">
         <f>D21/H21</f>
-        <v>0.72238805970149256</v>
+        <v>0.65221870057481024</v>
       </c>
       <c r="J21" s="2">
         <f>B21/D21</f>
-        <v>0.33471074380165289</v>
+        <v>0.45339929829081738</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1917,39 +1930,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>9543614</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>2188878</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>11378401</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>1116095</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F32" si="4">B22/(B22+C22+D22)</f>
-        <v>0.4022346368715084</v>
+        <v>0.41294873374213625</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ref="G22:G32" si="5">(B22-D22+0.5*E22)*10</f>
-        <v>-255</v>
+        <v>-12767395</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ref="H22:H32" si="6">B22+C22+D22</f>
-        <v>358</v>
+        <v>23110893</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:I32" si="7">D22/H22</f>
-        <v>0.49441340782122906</v>
+        <v>0.49233930510603807</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ref="J22:J32" si="8">B22/D22</f>
-        <v>0.81355932203389836</v>
+        <v>0.83874825645536666</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,39 +1971,39 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>7678048</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1065362</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>243</v>
-      </c>
-      <c r="E23" s="1">
+        <v>15868549</v>
+      </c>
+      <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>1193397</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>0.33246073298429318</v>
+        <v>0.31196411468099716</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="5"/>
-        <v>-1075</v>
+        <v>-75938025</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="6"/>
-        <v>382</v>
+        <v>24611959</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
-        <v>0.63612565445026181</v>
+        <v>0.6447495300963243</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
-        <v>0.52263374485596703</v>
+        <v>0.48385318657679416</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,39 +2012,39 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>7815693</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>1200905</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
-      </c>
-      <c r="E24" s="1">
+        <v>15575049</v>
+      </c>
+      <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>1187098</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
-        <v>0.26525198938992045</v>
+        <v>0.31781901391151229</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="5"/>
-        <v>-1440</v>
+        <v>-71658070</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="6"/>
-        <v>377</v>
+        <v>24591647</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
-        <v>0.67108753315649872</v>
+        <v>0.63334712799024806</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="8"/>
-        <v>0.39525691699604742</v>
+        <v>0.5018085657387017</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2040,39 +2053,39 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>9489828</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>2408588</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>11358228</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>1123943</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
-        <v>0.4011142061281337</v>
+        <v>0.40804803994935812</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="5"/>
-        <v>-265</v>
+        <v>-13064285</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="6"/>
-        <v>359</v>
+        <v>23256644</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
-        <v>0.49025069637883006</v>
+        <v>0.48838637251359224</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="8"/>
-        <v>0.81818181818181823</v>
+        <v>0.83550250972246731</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2081,39 +2094,39 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>10172821</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>1765742</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>193</v>
+        <v>13655753</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1223534</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
-        <v>0.43147208121827413</v>
+        <v>0.3974640697567382</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="5"/>
-        <v>-125</v>
+        <v>-28711650</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="6"/>
-        <v>394</v>
+        <v>25594316</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
-        <v>0.48984771573604063</v>
+        <v>0.53354631551786735</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="8"/>
-        <v>0.88082901554404147</v>
+        <v>0.74494764221350518</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2122,39 +2135,39 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>7911397</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1561151</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="E27" s="1">
+        <v>9844972</v>
+      </c>
+      <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>972200</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
-        <v>0.42904290429042902</v>
+        <v>0.40954516935921381</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="5"/>
-        <v>-125</v>
+        <v>-14474750</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
-        <v>303</v>
+        <v>19317520</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
-        <v>0.49834983498349833</v>
+        <v>0.50963953965105246</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="8"/>
-        <v>0.86092715231788075</v>
+        <v>0.80359771465068663</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,39 +2176,39 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>9920061</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>2196994</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>11810268</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>1151159</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
-        <v>0.4659400544959128</v>
+        <v>0.41459134396271574</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>-13146275</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="6"/>
-        <v>367</v>
+        <v>23927323</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
-        <v>0.44141689373297005</v>
+        <v>0.49358919090113007</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="8"/>
-        <v>1.0555555555555556</v>
+        <v>0.83995223478417258</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2204,39 +2217,39 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>9551633</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>2378163</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>11459320</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>1129272</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="4"/>
-        <v>0.4143646408839779</v>
+        <v>0.40837939321862354</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="5"/>
-        <v>-165</v>
+        <v>-13430510</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="6"/>
-        <v>362</v>
+        <v>23389116</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
-        <v>0.47513812154696133</v>
+        <v>0.4899424159510774</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="8"/>
-        <v>0.87209302325581395</v>
+        <v>0.83352528771340706</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2245,39 +2258,39 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>8933568</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>1876585</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>11076498</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>1069811</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="4"/>
-        <v>0.4088235294117647</v>
+        <v>0.40817427938152806</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="5"/>
-        <v>-245</v>
+        <v>-16080245</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="6"/>
-        <v>340</v>
+        <v>21886651</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="7"/>
-        <v>0.50882352941176467</v>
+        <v>0.5060846449280888</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="8"/>
-        <v>0.80346820809248554</v>
+        <v>0.80653361739423413</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2286,39 +2299,39 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>9875071</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>2002128</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>11447752</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>1171995</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>0.46612466124661245</v>
+        <v>0.42336942101185981</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>-9866835</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="6"/>
-        <v>369</v>
+        <v>23324951</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="7"/>
-        <v>0.44986449864498645</v>
+        <v>0.4907942571883645</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="8"/>
-        <v>1.036144578313253</v>
+        <v>0.86262097571645502</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,39 +2340,39 @@
       </c>
       <c r="B32" s="8">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>10090060</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>1552054</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>14952742</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>1270006</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="4"/>
-        <v>0.39853300733496333</v>
+        <v>0.37939893338771979</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="5"/>
-        <v>-500</v>
+        <v>-42276790</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="6"/>
-        <v>409</v>
+        <v>26594856</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="7"/>
-        <v>0.54034229828850855</v>
+        <v>0.56224188617528137</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="8"/>
-        <v>0.73755656108597289</v>
+        <v>0.67479663596148454</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2395,11 +2408,11 @@
       </c>
       <c r="B39">
         <f>SUM(B21:B33)</f>
-        <v>1691</v>
+        <v>107584137</v>
       </c>
       <c r="C39">
         <f>SUM(E21:E33)</f>
-        <v>192</v>
+        <v>13699546</v>
       </c>
       <c r="E39">
         <f>84/18</f>
@@ -2412,11 +2425,11 @@
       </c>
       <c r="B40">
         <f>SUM(B21:B32)</f>
-        <v>1691</v>
+        <v>107584137</v>
       </c>
       <c r="C40">
         <f>SUM(E21:E32)</f>
-        <v>192</v>
+        <v>13699546</v>
       </c>
     </row>
   </sheetData>
@@ -2429,12 +2442,14 @@
   <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -2519,68 +2534,44 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>475954</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>85375</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1051054</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>79619</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F13" si="0">(B2-D2+E2/2)*10</f>
-        <v>-45</v>
+        <v>-5352905</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>2401611</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>430995</v>
       </c>
       <c r="J2">
-        <v>60</v>
+        <v>5310536</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>402761</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L13" si="1">(H2-J2+K2/2)*10</f>
-        <v>-365</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>8</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
+        <v>-27075445</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R13" si="2">(N2-P2+Q2/2)*10</f>
-        <v>-80</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>6</v>
-      </c>
-      <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X13" si="3">(T2-V2+W2/2)*10</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD13" si="4">(Z2-AB2+AC2/2)*10</f>
@@ -2592,68 +2583,44 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>688760</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>161531</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>820258</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>81111</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-909425</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>3475381</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>816355</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>4146990</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>410229</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-60</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
+        <v>-4664945</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>8</v>
-      </c>
-      <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" si="3"/>
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" si="4"/>
@@ -2665,68 +2632,44 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>560758</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>83474</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1136120</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>86714</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-5320050</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>2831099</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>421443</v>
       </c>
       <c r="J4">
-        <v>64</v>
+        <v>5737954</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>438463</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>-280</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
+        <v>-26876235</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
         <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <f t="shared" si="4"/>
@@ -2738,68 +2681,44 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>564805</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>92368</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1123585</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>86787</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-5153865</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>2850303</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>465024</v>
       </c>
       <c r="J5">
-        <v>57</v>
+        <v>5677033</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>436575</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-210</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
+        <v>-26084425</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>9</v>
-      </c>
-      <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
         <f t="shared" si="3"/>
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <f t="shared" si="4"/>
@@ -2811,68 +2730,44 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>683698</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>177107</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>819614</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>81531</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-951505</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>3453468</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>894776</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>4140706</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>413082</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
+        <v>-4806970</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>8</v>
-      </c>
-      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" si="3"/>
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" si="4"/>
@@ -2884,68 +2779,44 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>734883</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>134356</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>985611</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>88880</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-2062880</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>3708173</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>676696</v>
       </c>
       <c r="J7">
-        <v>52</v>
+        <v>4984044</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>448466</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>-85</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
+        <v>-10516380</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <f t="shared" si="4"/>
@@ -2957,68 +2828,44 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>613351</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>120510</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>762885</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>75882</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-1115930</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>3096154</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>608669</v>
       </c>
       <c r="J8">
-        <v>41</v>
+        <v>3854888</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>383987</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>-75</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
+        <v>-5667405</v>
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>6</v>
-      </c>
-      <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <f t="shared" si="4"/>
@@ -3030,68 +2877,44 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>716554</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>165442</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>850954</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>83815</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-924925</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>3614176</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>834094</v>
       </c>
       <c r="J9">
-        <v>41</v>
+        <v>4305427</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>423829</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
+        <v>-4793365</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" si="3"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <f t="shared" si="4"/>
@@ -3103,68 +2926,44 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>687750</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>175919</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>825855</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>81981</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-971145</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>3473159</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>889050</v>
       </c>
       <c r="J10">
-        <v>39</v>
+        <v>4172527</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>414779</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
+        <v>-4919785</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <f t="shared" si="4"/>
@@ -3176,68 +2975,44 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>688153</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>150448</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>837960</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>81979</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-1088175</v>
       </c>
       <c r="H11">
-        <v>41</v>
+        <v>3470293</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>757936</v>
       </c>
       <c r="J11">
-        <v>42</v>
+        <v>4242591</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>414898</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
+        <v>-5648490</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <f t="shared" si="4"/>
@@ -3249,68 +3024,44 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>724528</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>154577</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>838653</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>86510</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-708700</v>
       </c>
       <c r="H12">
-        <v>39</v>
+        <v>3659537</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>780301</v>
       </c>
       <c r="J12">
-        <v>38</v>
+        <v>4236878</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>437564</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
+        <v>-3585590</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <f t="shared" si="4"/>
@@ -3322,63 +3073,39 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>728005</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>120672</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1081181</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>92819</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-3067665</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>3676719</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>609273</v>
       </c>
       <c r="J13">
-        <v>60</v>
+        <v>5461445</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>466171</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>-195</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
+        <v>-15516405</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
@@ -3475,63 +3202,39 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ref="B19:B30" si="5">B2+H2+N2+T2+Z2+V19+J19+P19</f>
-        <v>30</v>
+        <v>2877565</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C30" si="6">C2+I2+O2+U2+AA2+W19+K19+Q19</f>
-        <v>2</v>
+        <v>516370</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:D30" si="7">D2+J2+P2+V2+AB2+X19+L19+R19</f>
-        <v>94</v>
+        <v>6361590</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ref="E19:E30" si="8">E2+K2+Q2+W2+AC2+Y19+M19+S19</f>
-        <v>4</v>
+        <v>482380</v>
       </c>
       <c r="F19" s="1">
         <f>B19/(SUM(B19:D19))</f>
-        <v>0.23809523809523808</v>
+        <v>0.2949677234182681</v>
       </c>
       <c r="G19" s="1">
         <f>(B19-D19+E19/2)*10</f>
-        <v>-620</v>
+        <v>-32428350</v>
       </c>
       <c r="H19" s="1">
         <f>B19/D19</f>
-        <v>0.31914893617021278</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>0.45233424348315437</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19:N30" si="9">(J19-L19+M19/2)*10</f>
-        <v>-80</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19:T30" si="10">(P19-R19+S19/2)*10</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <f>(V19-X19+Y19/2)*10</f>
@@ -3544,63 +3247,39 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>4164141</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>977886</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>4967248</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>491340</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ref="F20:F30" si="11">B20/(SUM(B20:D20))</f>
-        <v>0.39130434782608697</v>
+        <v>0.41191292154976494</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:G30" si="12">(B20-D20+E20/2)*10</f>
-        <v>-140</v>
+        <v>-5574370</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ref="H20:H30" si="13">B20/D20</f>
-        <v>0.75</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>0.83831952823776867</v>
       </c>
       <c r="N20">
         <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="P20">
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>5</v>
-      </c>
-      <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <f t="shared" ref="Z20:Z30" si="14">(V20-X20+Y20/2)*10</f>
@@ -3613,63 +3292,39 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>3391857</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>504917</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>6874074</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>525177</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="11"/>
-        <v>0.32885906040268459</v>
+        <v>0.31491085938637331</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="12"/>
-        <v>-445</v>
+        <v>-32196285</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="13"/>
-        <v>0.50515463917525771</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>0.49342747837745127</v>
       </c>
       <c r="N21">
         <f t="shared" si="9"/>
-        <v>-40</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>8</v>
-      </c>
-      <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
         <f t="shared" si="10"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <f t="shared" si="14"/>
@@ -3682,63 +3337,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>3415108</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>557392</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>6800618</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>523362</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="11"/>
-        <v>0.31034482758620691</v>
+        <v>0.31700274702272824</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="12"/>
-        <v>-420</v>
+        <v>-31238290</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>0.50217612575798254</v>
       </c>
       <c r="N22">
         <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <v>8</v>
-      </c>
-      <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
         <f t="shared" si="10"/>
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <f t="shared" si="14"/>
@@ -3751,63 +3382,39 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>4137166</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>1071883</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>4960320</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>494613</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="11"/>
-        <v>0.42335766423357662</v>
+        <v>0.40682622491129983</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="12"/>
-        <v>-75</v>
+        <v>-5758475</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="13"/>
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>0.8340522385652539</v>
       </c>
       <c r="N23">
         <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="P23">
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>5</v>
-      </c>
-      <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <f t="shared" si="14"/>
@@ -3820,63 +3427,39 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>4443056</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>811052</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>5969655</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>537346</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="11"/>
-        <v>0.40522875816993464</v>
+        <v>0.39586153057579709</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="12"/>
-        <v>-140</v>
+        <v>-12579260</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="13"/>
-        <v>0.78481012658227844</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>0.74427349654209496</v>
       </c>
       <c r="N24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>8</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
         <f t="shared" si="10"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <f t="shared" si="14"/>
@@ -3889,63 +3472,39 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>3709505</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>729179</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>4617773</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>459869</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="11"/>
-        <v>0.40157480314960631</v>
+        <v>0.40959781512792476</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="12"/>
-        <v>-130</v>
+        <v>-6783335</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="13"/>
-        <v>0.76119402985074625</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>0.80331038359832763</v>
       </c>
       <c r="N25">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>8</v>
-      </c>
-      <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
         <f t="shared" si="10"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <f t="shared" si="14"/>
@@ -3958,63 +3517,39 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>4330730</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>999536</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>5156381</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>507644</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="11"/>
-        <v>0.45774647887323944</v>
+        <v>0.41297566324107221</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="12"/>
-        <v>45</v>
+        <v>-5718290</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
+        <v>0.83987781352851931</v>
       </c>
       <c r="N26">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="P26">
-        <v>6</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>3</v>
-      </c>
-      <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <f t="shared" si="14"/>
@@ -4027,63 +3562,39 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>4160909</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>1064969</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>4998382</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>496760</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="11"/>
-        <v>0.4420289855072464</v>
+        <v>0.40696431820004575</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="12"/>
-        <v>-25</v>
+        <v>-5890930</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="13"/>
-        <v>0.9242424242424242</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+        <v>0.83245118120223704</v>
       </c>
       <c r="N27">
         <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>5</v>
-      </c>
-      <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <f t="shared" si="14"/>
@@ -4096,63 +3607,39 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>4158446</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>908384</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>5080551</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>496877</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="11"/>
-        <v>0.43571428571428572</v>
+        <v>0.4098048550655583</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="12"/>
-        <v>-35</v>
+        <v>-6736665</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="13"/>
-        <v>0.8970588235294118</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
+        <v>0.81850295371505966</v>
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="P28">
-        <v>5</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>4</v>
-      </c>
-      <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <f t="shared" si="14"/>
@@ -4165,63 +3652,39 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>4384065</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>934878</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>5075531</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>524074</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="11"/>
-        <v>0.43703703703703706</v>
+        <v>0.42176881677706829</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="12"/>
-        <v>-20</v>
+        <v>-4294290</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="13"/>
-        <v>0.921875</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
+        <v>0.86376479623511315</v>
       </c>
       <c r="N29">
         <f t="shared" si="9"/>
-        <v>-20</v>
-      </c>
-      <c r="P29">
-        <v>5</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <f t="shared" si="14"/>
@@ -4234,79 +3697,46 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>4404724</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>729945</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>6542626</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>558990</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="11"/>
-        <v>0.38216560509554143</v>
+        <v>0.37720413845843581</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="12"/>
-        <v>-225</v>
+        <v>-18584070</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="13"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="J30">
-        <v>6</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
+        <v>0.67323487541546778</v>
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-      <c r="R30">
-        <v>7</v>
-      </c>
-      <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
         <f t="shared" si="10"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
+    <row r="31" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4317,13 +3747,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB2AC3-9D80-4096-9D36-672416D3269F}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -4378,36 +3810,36 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>620696</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>107314</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>1369925</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>101918</v>
       </c>
       <c r="G2">
         <f>(B2-D2+E2/2)*10</f>
-        <v>-85</v>
+        <v>-6982700</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3104039</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>538762</v>
       </c>
       <c r="K2">
-        <v>13</v>
+        <v>6830236</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>506734</v>
       </c>
       <c r="N2">
         <f>(I2-K2+L2/2)*10</f>
-        <v>-85</v>
+        <v>-34728300</v>
       </c>
       <c r="P2">
         <v>43</v>
@@ -4431,36 +3863,36 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>897083</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>201752</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>1070825</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>104456</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="0">(B3-D3+E3/2)*10</f>
-        <v>-40</v>
+        <v>-1215140</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4482310</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1009223</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>5340241</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>520292</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N13" si="1">(I3-K3+L3/2)*10</f>
-        <v>-40</v>
+        <v>-5977850</v>
       </c>
       <c r="P3">
         <v>80</v>
@@ -4484,36 +3916,36 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>714542</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>93396</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1502028</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>111360</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>-7318060</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>3571583</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>467042</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>7492325</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>556850</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>-60</v>
+        <v>-36423170</v>
       </c>
       <c r="P4">
         <v>66</v>
@@ -4537,36 +3969,36 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>733799</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>107479</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>1465206</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>110968</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-85</v>
+        <v>-6759230</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3666739</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>536024</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>7309088</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>552758</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>-85</v>
+        <v>-33659700</v>
       </c>
       <c r="P5">
         <v>47</v>
@@ -4590,36 +4022,36 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>892042</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>222993</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1069244</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>105702</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-1243510</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>4460548</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>1113692</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>5328572</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>523622</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-6062130</v>
       </c>
       <c r="P6">
         <v>72</v>
@@ -4643,36 +4075,36 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>955531</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>159343</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>1283446</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>114249</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>-2707905</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>4774150</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>795332</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>6402552</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>571928</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>-13424380</v>
       </c>
       <c r="P7">
         <v>84</v>
@@ -4696,36 +4128,36 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>701252</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>138901</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>873469</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>85516</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>-1294590</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>3500577</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>693060</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4353656</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>426806</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>-6396760</v>
       </c>
       <c r="P8">
         <v>63</v>
@@ -4749,36 +4181,36 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>932300</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>199423</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1111600</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>107434</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>-1255830</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>4656947</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>998019</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>5542198</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>536074</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>-6172140</v>
       </c>
       <c r="P9">
         <v>84</v>
@@ -4802,36 +4234,36 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>898633</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>218760</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>1079858</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>106151</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-1281495</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>4492016</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>1094413</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>5380990</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>526355</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-6257965</v>
       </c>
       <c r="P10">
         <v>75</v>
@@ -4855,36 +4287,36 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>796274</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>161575</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1001133</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>95828</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-1569450</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>3978786</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>806615</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>4994723</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>477098</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>-7773880</v>
       </c>
       <c r="P11">
         <v>62</v>
@@ -4908,36 +4340,36 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>915616</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>177536</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>1064742</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>108150</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>-950510</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>4575299</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>889699</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>5307389</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>539760</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>-4622100</v>
       </c>
       <c r="P12">
         <v>91</v>
@@ -4961,36 +4393,36 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>948971</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>137814</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>1402728</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>118508</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3945030</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>4736282</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>684284</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>7007274</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>592499</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-19747425</v>
       </c>
       <c r="P13">
         <v>83</v>
@@ -5036,27 +4468,27 @@
       </c>
       <c r="B22" s="1">
         <f>B2+I2+P2</f>
-        <v>51</v>
+        <v>3724778</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:E22" si="3">C2+J2+Q2</f>
-        <v>10</v>
+        <v>646086</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>8200283</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>608656</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.24401913875598086</v>
+        <v>0.29629579544332746</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-940</v>
+        <v>-41711770</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5065,27 +4497,27 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23:B33" si="4">B3+I3+P3</f>
-        <v>90</v>
+        <v>5379473</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C33" si="5">C3+J3+Q3</f>
-        <v>25</v>
+        <v>1210992</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D33" si="6">D3+K3+R3</f>
-        <v>105</v>
+        <v>6411153</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ref="E23:E33" si="7">E3+L3+S3</f>
-        <v>7</v>
+        <v>624755</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="8">B23/(SUM(B23:D23))</f>
-        <v>0.40909090909090912</v>
+        <v>0.41375411891043101</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="9">(B23-D23+E23/2)*10</f>
-        <v>-115</v>
+        <v>-7193025</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5094,27 +4526,27 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>4286191</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>560445</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="6"/>
-        <v>146</v>
+        <v>8994475</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>668220</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="8"/>
-        <v>0.33476394849785407</v>
+        <v>0.30967102279578568</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>-630</v>
+        <v>-43741740</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,27 +4555,27 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>4400585</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>643513</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>163</v>
+        <v>8774431</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>663736</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="8"/>
-        <v>0.23706896551724138</v>
+        <v>0.31845538696629722</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="9"/>
-        <v>-1020</v>
+        <v>-40419780</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5152,27 +4584,27 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>5352662</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>1336705</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>6397908</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>629330</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="8"/>
-        <v>0.38738738738738737</v>
+        <v>0.40899744217188072</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="9"/>
-        <v>-190</v>
+        <v>-7305810</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5181,27 +4613,27 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>5729765</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>954690</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>7686098</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>686188</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="8"/>
-        <v>0.44813278008298757</v>
+        <v>0.39871569312607524</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-16132390</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5210,27 +4642,27 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>4201892</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>831972</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>5227199</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>512331</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="8"/>
-        <v>0.44886363636363635</v>
+        <v>0.40949870398417787</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>-7691415</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5239,27 +4671,27 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>5589331</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>1197458</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>97</v>
+        <v>6653887</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>643515</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>0.47111111111111109</v>
+        <v>0.41585192590015563</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="9"/>
-        <v>135</v>
+        <v>-7427985</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5268,27 +4700,27 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>5390724</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>1313194</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>106</v>
+        <v>6460938</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>632512</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="8"/>
-        <v>0.39732142857142855</v>
+        <v>0.40947838700248601</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="9"/>
-        <v>-140</v>
+        <v>-7539580</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5297,27 +4729,27 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>4775122</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>968201</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>5995947</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>572934</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="8"/>
-        <v>0.39</v>
+        <v>0.40676481587015206</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="9"/>
-        <v>-210</v>
+        <v>-9343580</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5326,27 +4758,27 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>5491006</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>1067250</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>6372221</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>647921</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="8"/>
-        <v>0.48290598290598291</v>
+        <v>0.4246561051073367</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="9"/>
-        <v>175</v>
+        <v>-5572545</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5355,27 +4787,27 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>5685336</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>822109</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>8410116</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>711016</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="8"/>
-        <v>0.40873015873015872</v>
+        <v>0.38111699358896539</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="9"/>
-        <v>-275</v>
+        <v>-23692720</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5388,11 +4820,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -6356,75 +5792,51 @@
       </c>
       <c r="B22" s="1">
         <f>B2+H2+N2+T2+I22+P22+W22+P37+I37+B37</f>
-        <v>72</v>
+        <v>4114191</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:E33" si="4">C2+I2+O2+U2+J22+Q22+X22+Q37+J37+C37</f>
-        <v>10</v>
+        <f t="shared" ref="C22:E22" si="4">C2+I2+O2+U2+J22+Q22+X22+Q37+J37+C37</f>
+        <v>706169</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>9050288</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>665824</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.29268292682926828</v>
+        <v>0.29661130467733016</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-865</v>
+        <v>-46031850</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <f>(I22-K22+L22/2)*10</f>
-        <v>-90</v>
-      </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>21</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
+        <v>-1160</v>
       </c>
       <c r="U22">
         <f>(P22-R22+S22/2)*10</f>
-        <v>-135</v>
-      </c>
-      <c r="W22">
-        <v>9</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>19</v>
-      </c>
-      <c r="Z22">
         <v>0</v>
       </c>
       <c r="AB22">
         <f>(W22-Y22+Z22/2)*10</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -6433,75 +5845,51 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23:B33" si="5">B3+H3+N3+T3+I23+P23+W23+P38+I38+B38</f>
-        <v>112</v>
+        <v>5934707</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" ref="C23:C33" si="6">C3+I3+O3+U3+J23+Q23+X23+Q38+J38+C38</f>
+        <v>1312673</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
-        <v>116</v>
+        <f t="shared" ref="D23:D33" si="7">D3+J3+P3+V3+K23+R23+Y23+R38+K38+D38</f>
+        <v>7078488</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" ref="E23:E33" si="8">E3+K3+Q3+W3+L23+S23+Z23+S38+L38+E38</f>
+        <v>685306</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F33" si="6">B23/(SUM(B23:D23))</f>
-        <v>0.44094488188976377</v>
+        <f t="shared" ref="F23:F33" si="9">B23/(SUM(B23:D23))</f>
+        <v>0.41426509025491509</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G33" si="7">(B23-D23+E23/2)*10</f>
-        <v>40</v>
+        <f t="shared" ref="G23:G33" si="10">(B23-D23+E23/2)*10</f>
+        <v>-8011280</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N34" si="8">(I23-K23+L23/2)*10</f>
-        <v>-30</v>
-      </c>
-      <c r="P23">
-        <v>14</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23">
-        <v>10</v>
-      </c>
-      <c r="S23">
-        <v>5</v>
+        <f t="shared" ref="N23:N33" si="11">(I23-K23+L23/2)*10</f>
+        <v>120</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U34" si="9">(P23-R23+S23/2)*10</f>
-        <v>65</v>
-      </c>
-      <c r="W23">
-        <v>14</v>
-      </c>
-      <c r="X23">
-        <v>3</v>
-      </c>
-      <c r="Y23">
-        <v>12</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
+        <f t="shared" ref="U23:U33" si="12">(P23-R23+S23/2)*10</f>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" ref="AB23:AB34" si="10">(W23-Y23+Z23/2)*10</f>
-        <v>25</v>
+        <f t="shared" ref="AB23:AB33" si="13">(W23-Y23+Z23/2)*10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -6510,75 +5898,51 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>4684102</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>580117</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
-        <v>181</v>
+        <f t="shared" si="7"/>
+        <v>9993648</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>732967</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="6"/>
-        <v>0.28624535315985128</v>
+        <f t="shared" si="9"/>
+        <v>0.30699585990623723</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="7"/>
-        <v>-940</v>
+        <f t="shared" si="10"/>
+        <v>-49430625</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N24">
-        <f t="shared" si="8"/>
-        <v>-75</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>19</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>-415</v>
       </c>
       <c r="U24">
-        <f t="shared" si="9"/>
-        <v>-80</v>
-      </c>
-      <c r="W24">
-        <v>9</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>21</v>
-      </c>
-      <c r="Z24">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="10"/>
-        <v>-110</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -6587,75 +5951,51 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>4846824</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>683658</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
-        <v>157</v>
+        <f t="shared" si="7"/>
+        <v>9689745</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>725845</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="6"/>
-        <v>0.35074626865671643</v>
+        <f t="shared" si="9"/>
+        <v>0.31844623605153854</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="7"/>
-        <v>-545</v>
+        <f t="shared" si="10"/>
+        <v>-44799985</v>
       </c>
       <c r="I25">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N25">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="P25">
-        <v>13</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>16</v>
-      </c>
-      <c r="S25">
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>-200</v>
       </c>
       <c r="U25">
-        <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="W25">
-        <v>12</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>17</v>
-      </c>
-      <c r="Z25">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="10"/>
-        <v>-50</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -6664,75 +6004,51 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>5910442</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>1454481</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
-        <v>115</v>
+        <f t="shared" si="7"/>
+        <v>7054833</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>689838</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="6"/>
-        <v>0.43478260869565216</v>
+        <f t="shared" si="9"/>
+        <v>0.40988502163282098</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>-7994720</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K26">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N26">
-        <f t="shared" si="8"/>
-        <v>-30</v>
-      </c>
-      <c r="P26">
-        <v>14</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-      <c r="R26">
-        <v>11</v>
-      </c>
-      <c r="S26">
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>55</v>
       </c>
       <c r="U26">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="W26">
-        <v>11</v>
-      </c>
-      <c r="X26">
-        <v>4</v>
-      </c>
-      <c r="Y26">
-        <v>14</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="10"/>
-        <v>-25</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -6741,75 +6057,51 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>6321121</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>1016392</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="7"/>
+        <v>8473069</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>753627</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="6"/>
-        <v>0.3971119133574007</v>
+        <f t="shared" si="9"/>
+        <v>0.39980318245084212</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="7"/>
-        <v>-230</v>
+        <f t="shared" si="10"/>
+        <v>-17751345</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N27">
-        <f t="shared" si="8"/>
-        <v>-25</v>
-      </c>
-      <c r="P27">
-        <v>12</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <v>15</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-45</v>
       </c>
       <c r="U27">
-        <f t="shared" si="9"/>
-        <v>-30</v>
-      </c>
-      <c r="W27">
-        <v>13</v>
-      </c>
-      <c r="X27">
-        <v>2</v>
-      </c>
-      <c r="Y27">
-        <v>16</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="10"/>
-        <v>-25</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -6818,75 +6110,51 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
+        <v>4100456</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>812693</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>5081081</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="8"/>
+        <v>494742</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.41028233290608679</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="10"/>
+        <v>-7332540</v>
+      </c>
+      <c r="I28">
+        <v>39</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>34</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="6"/>
-        <v>0.43814432989690721</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="7"/>
-        <v>-40</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
       <c r="U28">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="W28">
-        <v>14</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>14</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -6895,75 +6163,51 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>6165301</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="6"/>
+        <v>1293010</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
-        <v>127</v>
+        <f t="shared" si="7"/>
+        <v>7340353</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>706470</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>0.41015625</v>
+        <f t="shared" si="9"/>
+        <v>0.41661199956969086</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="7"/>
-        <v>-150</v>
+        <f t="shared" si="10"/>
+        <v>-8218170</v>
       </c>
       <c r="I29">
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>65</v>
+      </c>
+      <c r="L29">
         <v>10</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>17</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
       <c r="N29">
-        <f t="shared" si="8"/>
-        <v>-55</v>
-      </c>
-      <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-      <c r="R29">
-        <v>11</v>
-      </c>
-      <c r="S29">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="U29">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="W29">
-        <v>10</v>
-      </c>
-      <c r="X29">
-        <v>3</v>
-      </c>
-      <c r="Y29">
-        <v>16</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="10"/>
-        <v>-55</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -6972,75 +6216,51 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>5955598</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>1425101</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="7"/>
+        <v>7128855</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>694714</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="6"/>
-        <v>0.42125984251968501</v>
+        <f t="shared" si="9"/>
+        <v>0.41046044557951267</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="7"/>
-        <v>-55</v>
+        <f t="shared" si="10"/>
+        <v>-8259000</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K30">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N30">
-        <f t="shared" si="8"/>
-        <v>-65</v>
-      </c>
-      <c r="P30">
-        <v>14</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-      <c r="R30">
-        <v>11</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>-10</v>
       </c>
       <c r="U30">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="W30">
-        <v>11</v>
-      </c>
-      <c r="X30">
-        <v>4</v>
-      </c>
-      <c r="Y30">
-        <v>14</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="10"/>
-        <v>-25</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -7049,75 +6269,51 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>4723799</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>940215</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>6034841</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>568640</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="6"/>
-        <v>0.42666666666666669</v>
+        <f t="shared" si="9"/>
+        <v>0.40378301979125308</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="7"/>
-        <v>-75</v>
+        <f t="shared" si="10"/>
+        <v>-10267220</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K31">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N31">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>12</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31">
-        <v>11</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>-25</v>
       </c>
       <c r="U31">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="W31">
-        <v>11</v>
-      </c>
-      <c r="X31">
-        <v>2</v>
-      </c>
-      <c r="Y31">
-        <v>16</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="10"/>
-        <v>-45</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -7126,75 +6322,51 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>5873009</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>1112751</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="7"/>
+        <v>6822227</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>688934</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="6"/>
-        <v>0.38314176245210729</v>
+        <f t="shared" si="9"/>
+        <v>0.42533419244963078</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="7"/>
-        <v>-335</v>
+        <f t="shared" si="10"/>
+        <v>-6047510</v>
       </c>
       <c r="I32">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K32">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <f t="shared" si="8"/>
-        <v>-30</v>
-      </c>
-      <c r="P32">
-        <v>11</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="R32">
-        <v>15</v>
-      </c>
-      <c r="S32">
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="U32">
-        <f t="shared" si="9"/>
-        <v>-20</v>
-      </c>
-      <c r="W32">
-        <v>10</v>
-      </c>
-      <c r="X32">
-        <v>4</v>
-      </c>
-      <c r="Y32">
-        <v>16</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="10"/>
-        <v>-55</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -7203,75 +6375,51 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>6271367</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>869614</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
-        <v>158</v>
+        <f t="shared" si="7"/>
+        <v>9267980</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>780861</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="6"/>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="9"/>
+        <v>0.38219159640881589</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="7"/>
-        <v>-425</v>
+        <f t="shared" si="10"/>
+        <v>-26061825</v>
       </c>
       <c r="I33">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="P33">
-        <v>14</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33">
-        <v>15</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>-105</v>
       </c>
       <c r="U33">
-        <f t="shared" si="9"/>
-        <v>-5</v>
-      </c>
-      <c r="W33">
-        <v>12</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <v>19</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="10"/>
-        <v>-60</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7345,458 +6493,458 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>9</v>
+        <v>3427623</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>587691</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>7538178</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>554603</v>
       </c>
       <c r="G37">
         <f>(B37-D37+E37/2)*10</f>
-        <v>-65</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>17</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
+        <v>-38332535</v>
       </c>
       <c r="N37">
         <f>(I37-K37+L37/2)*10</f>
-        <v>-65</v>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>686496</v>
+      </c>
+      <c r="Q37">
+        <v>118465</v>
+      </c>
+      <c r="R37">
+        <v>1511873</v>
+      </c>
+      <c r="S37">
+        <v>111205</v>
       </c>
       <c r="U37">
         <f>(P37-R37+S37/2)*10</f>
-        <v>0</v>
+        <v>-7697745</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>16</v>
+        <v>4942898</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1093761</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>5896071</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>570667</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G49" si="11">(B38-D38+E38/2)*10</f>
-        <v>80</v>
-      </c>
-      <c r="I38">
-        <v>11</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
-        <v>14</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
+        <f t="shared" ref="G38:G48" si="14">(B38-D38+E38/2)*10</f>
+        <v>-6678395</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N49" si="12">(I38-K38+L38/2)*10</f>
-        <v>-20</v>
+        <f t="shared" ref="N38:N48" si="15">(I38-K38+L38/2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>991697</v>
+      </c>
+      <c r="Q38">
+        <v>218886</v>
+      </c>
+      <c r="R38">
+        <v>1182301</v>
+      </c>
+      <c r="S38">
+        <v>114623</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38:U49" si="13">(P38-R38+S38/2)*10</f>
-        <v>0</v>
+        <f t="shared" ref="U38:U48" si="16">(P38-R38+S38/2)*10</f>
+        <v>-1332925</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>13</v>
+        <v>3901850</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>483317</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>8324201</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>610276</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-      <c r="I39">
-        <v>7</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>-41172130</v>
       </c>
       <c r="N39">
-        <f t="shared" si="12"/>
-        <v>-140</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>782175</v>
+      </c>
+      <c r="Q39">
+        <v>96789</v>
+      </c>
+      <c r="R39">
+        <v>1669266</v>
+      </c>
+      <c r="S39">
+        <v>122671</v>
       </c>
       <c r="U39">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-8257555</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>12</v>
+        <v>4037219</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>569712</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>8071143</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>604262</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
-        <v>-30</v>
-      </c>
-      <c r="I40">
-        <v>7</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40">
-        <v>20</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-37317930</v>
       </c>
       <c r="N40">
-        <f t="shared" si="12"/>
-        <v>-130</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>809511</v>
+      </c>
+      <c r="Q40">
+        <v>113929</v>
+      </c>
+      <c r="R40">
+        <v>1618445</v>
+      </c>
+      <c r="S40">
+        <v>121566</v>
       </c>
       <c r="U40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-7481510</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>17</v>
+        <v>4923224</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1211652</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>5876018</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>574546</v>
       </c>
       <c r="G41">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41">
-        <v>15</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>-6655210</v>
       </c>
       <c r="N41">
-        <f t="shared" si="12"/>
-        <v>-45</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>987108</v>
+      </c>
+      <c r="Q41">
+        <v>242801</v>
+      </c>
+      <c r="R41">
+        <v>1178700</v>
+      </c>
+      <c r="S41">
+        <v>115280</v>
       </c>
       <c r="U41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1339520</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>15</v>
+        <v>5266036</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>846736</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>7056643</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>627647</v>
       </c>
       <c r="G42">
-        <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="I42">
-        <v>13</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42">
-        <v>14</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-14767835</v>
       </c>
       <c r="N42">
-        <f t="shared" si="12"/>
-        <v>-10</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1054975</v>
+      </c>
+      <c r="Q42">
+        <v>169629</v>
+      </c>
+      <c r="R42">
+        <v>1416286</v>
+      </c>
+      <c r="S42">
+        <v>125966</v>
       </c>
       <c r="U42">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-2983280</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>3</v>
+        <v>3414353</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>677008</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>4231338</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>411971</v>
       </c>
       <c r="G43">
-        <f t="shared" si="11"/>
-        <v>-45</v>
-      </c>
-      <c r="I43">
-        <v>16</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43">
-        <v>12</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>-6109995</v>
       </c>
       <c r="N43">
-        <f t="shared" si="12"/>
-        <v>55</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>686018</v>
+      </c>
+      <c r="Q43">
+        <v>135670</v>
+      </c>
+      <c r="R43">
+        <v>849649</v>
+      </c>
+      <c r="S43">
+        <v>82761</v>
       </c>
       <c r="U43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1222505</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>17</v>
+        <v>5135229</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1076865</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>6114586</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>588282</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="I44">
-        <v>13</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44">
-        <v>13</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>-6852160</v>
       </c>
       <c r="N44">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1029967</v>
+      </c>
+      <c r="Q44">
+        <v>216121</v>
+      </c>
+      <c r="R44">
+        <v>1225640</v>
+      </c>
+      <c r="S44">
+        <v>118174</v>
       </c>
       <c r="U44">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1365860</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>17</v>
+        <v>4960858</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1187235</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>5937491</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>578685</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="I45">
-        <v>9</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>17</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>-6872905</v>
       </c>
       <c r="N45">
-        <f t="shared" si="12"/>
-        <v>-75</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>994633</v>
+      </c>
+      <c r="Q45">
+        <v>237838</v>
+      </c>
+      <c r="R45">
+        <v>1191245</v>
+      </c>
+      <c r="S45">
+        <v>116016</v>
       </c>
       <c r="U45">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1386040</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>12</v>
+        <v>3935183</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>783149</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>5026272</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>473433</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="I46">
-        <v>11</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>15</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>-8543725</v>
       </c>
       <c r="N46">
-        <f t="shared" si="12"/>
-        <v>-25</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>788520</v>
+      </c>
+      <c r="Q46">
+        <v>157047</v>
+      </c>
+      <c r="R46">
+        <v>1008459</v>
+      </c>
+      <c r="S46">
+        <v>95194</v>
       </c>
       <c r="U46">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1723420</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>13</v>
+        <v>4891913</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>926728</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>5681257</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>573981</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-      <c r="I47">
-        <v>13</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>13</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>-5023535</v>
       </c>
       <c r="N47">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>980996</v>
+      </c>
+      <c r="Q47">
+        <v>186002</v>
+      </c>
+      <c r="R47">
+        <v>1140830</v>
+      </c>
+      <c r="S47">
+        <v>114940</v>
       </c>
       <c r="U47">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1023640</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>8</v>
+        <v>5223734</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>724150</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>7719823</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>650582</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
-        <v>-115</v>
-      </c>
-      <c r="I48">
-        <v>16</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48">
-        <v>14</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>-21707980</v>
       </c>
       <c r="N48">
-        <f t="shared" si="12"/>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>1047523</v>
+      </c>
+      <c r="Q48">
+        <v>145446</v>
+      </c>
+      <c r="R48">
+        <v>1547999</v>
+      </c>
+      <c r="S48">
+        <v>130268</v>
       </c>
       <c r="U48">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-4353420</v>
       </c>
     </row>
   </sheetData>
@@ -7808,13 +6956,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC024D11-A05D-4D78-AF56-9F7AC3169C89}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7885,36 +7035,36 @@
         <v>-80</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>721548</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>123163</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1586612</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>116540</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L13" si="1">(H2-J2+K2/2)*10</f>
-        <v>0</v>
+        <v>-8067940</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3529551</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>603223</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7769449</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>569542</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R13" si="2">(N2-P2+Q2/2)*10</f>
-        <v>0</v>
+        <v>-39551270</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7938,36 +7088,36 @@
         <v>105</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1039541</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>228184</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1241406</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>119940</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1418950</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5091964</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1118514</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6075305</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>585787</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6904475</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -7991,36 +7141,36 @@
         <v>-145</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>813876</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>98013</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1761570</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>128256</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8835660</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3994782</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>480950</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8611840</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>627057</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-43035295</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -8044,36 +7194,36 @@
         <v>-100</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>850885</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>117547</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1696443</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>127173</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-7819715</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4159334</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>576273</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8312812</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>621678</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-38426390</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -8097,36 +7247,36 @@
         <v>-35</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1035599</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>252744</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1237434</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>120826</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1414220</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5069121</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1240549</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6056347</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>589751</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6923505</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -8150,36 +7300,36 @@
         <v>-5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1107454</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>174656</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1484885</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>131695</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3115835</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5421660</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>855924</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7269339</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>642252</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-15265530</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -8203,36 +7353,36 @@
         <v>-70</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>639442</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>126467</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>790972</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>76746</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1131570</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>3137123</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>618718</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3867471</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>375841</v>
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5424275</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -8256,36 +7406,36 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1079229</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>223497</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1287666</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>122967</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1469535</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5290285</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1097832</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6296873</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>604819</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7041785</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -8309,36 +7459,36 @@
         <v>30</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1042775</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>246991</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1252169</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>121419</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1486845</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5107456</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1211918</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6124847</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>592929</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7209265</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -8362,36 +7512,36 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>751004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>148005</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>969859</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>90969</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1733705</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3682463</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>726968</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>4748542</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>443503</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8443275</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -8415,36 +7565,36 @@
         <v>50</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>997508</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>187011</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1160641</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>117112</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1045770</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4884306</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>913747</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5675892</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>571421</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5058755</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -8468,36 +7618,36 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1098494</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>148901</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1624049</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>136393</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4573585</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5378924</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>730208</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7950060</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>666923</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-22376745</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8527,27 +7677,27 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22:B33" si="3">B2+H2+N2</f>
-        <v>13</v>
+        <v>4251112</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:C33" si="4">C2+I2+O2</f>
-        <v>1</v>
+        <v>726387</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22:D33" si="5">D2+J2+P2</f>
-        <v>22</v>
+        <v>9356083</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ref="E22:E33" si="6">E2+K2+Q2</f>
-        <v>2</v>
+        <v>686084</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.3611111111111111</v>
+        <v>0.29658406391368186</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-80</v>
+        <v>-47619290</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8556,27 +7706,27 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>6131527</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1346699</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>7316723</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>705728</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="7">B23/(SUM(B23:D23))</f>
-        <v>0.62857142857142856</v>
+        <v>0.41443380440175903</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="8">(B23-D23+E23/2)*10</f>
-        <v>105</v>
+        <v>-8323320</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8585,27 +7735,27 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>4808669</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>578966</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>10373437</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>755316</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="7"/>
-        <v>0.26829268292682928</v>
+        <v>0.30509783852265887</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="8"/>
-        <v>-145</v>
+        <v>-51871100</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8614,27 +7764,27 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>5010233</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>693821</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>10009279</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>748851</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="7"/>
-        <v>0.35897435897435898</v>
+        <v>0.31885234023870046</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="8"/>
-        <v>-100</v>
+        <v>-46246205</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8643,27 +7793,27 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>6104735</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1493296</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>7293801</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>710580</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="7"/>
-        <v>0.39473684210526316</v>
+        <v>0.40993848171265967</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="8"/>
-        <v>-35</v>
+        <v>-8337760</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8672,27 +7822,27 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>6529131</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1030584</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>8754242</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>773948</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="7"/>
-        <v>0.4358974358974359</v>
+        <v>0.40021749475004748</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="8"/>
-        <v>-5</v>
+        <v>-18381370</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,27 +7851,27 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3776565</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>745186</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4658450</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>452587</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.41138151550276514</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="8"/>
-        <v>-70</v>
+        <v>-6555915</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8730,27 +7880,27 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>6369533</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1321334</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>7584554</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>727788</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="7"/>
-        <v>0.48717948717948717</v>
+        <v>0.41697921124399778</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>-8511270</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8759,27 +7909,27 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>6150249</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1458912</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>7377031</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>714348</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4103943817081751</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>-8696080</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8788,27 +7938,27 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>4433485</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>874976</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>5718417</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>534474</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="7"/>
-        <v>0.48648648648648651</v>
+        <v>0.40206167149033478</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>-10176950</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8817,27 +7967,27 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>5881835</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1100759</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>6836550</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>688535</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="7"/>
-        <v>0.53846153846153844</v>
+        <v>0.42562947458974304</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>-6104475</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8846,27 +7996,27 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>6477436</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>879113</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>9574127</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>803316</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="7"/>
-        <v>0.45</v>
+        <v>0.38258578688765882</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-26950330</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/DOC/wyniki/bez idealnej/Wyniki.xlsx
+++ b/DOC/wyniki/bez idealnej/Wyniki.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC62B0-59B8-4425-81A1-E09A9E25900B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF711160-7D67-406F-BE5D-1409A4CAC0A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="34">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -252,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +529,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +537,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -632,99 +625,99 @@
       </c>
       <c r="B2">
         <f>SUM('1 Talia'!B19)</f>
-        <v>2877565</v>
+        <v>4759156</v>
       </c>
       <c r="C2">
         <f>SUM('1 Talia'!C19)</f>
-        <v>516370</v>
+        <v>839857</v>
       </c>
       <c r="D2">
         <f>SUM('1 Talia'!D19)</f>
-        <v>6361590</v>
+        <v>10490852</v>
       </c>
       <c r="E2">
         <f>SUM('1 Talia'!E19)</f>
-        <v>482380</v>
+        <v>795917</v>
       </c>
       <c r="F2">
         <f>SUM('1 Talia'!F19)</f>
-        <v>0.2949677234182681</v>
+        <v>0.29578594972673794</v>
       </c>
       <c r="G2">
         <f>SUM('1 Talia'!G19)</f>
-        <v>-32428350</v>
+        <v>-53337375</v>
       </c>
       <c r="I2">
         <f>SUM('2 Talie'!B22)</f>
-        <v>3724778</v>
+        <v>6156851</v>
       </c>
       <c r="J2">
         <f>SUM('2 Talie'!C22)</f>
-        <v>646086</v>
+        <v>1047283</v>
       </c>
       <c r="K2">
         <f>SUM('2 Talie'!D22)</f>
-        <v>8200283</v>
+        <v>13516909</v>
       </c>
       <c r="L2">
         <f>SUM('2 Talie'!E22)</f>
-        <v>608656</v>
+        <v>1003036</v>
       </c>
       <c r="M2">
         <f>SUM('2 Talie'!F22)</f>
-        <v>0.29629579544332746</v>
+        <v>0.29713036163285794</v>
       </c>
       <c r="N2">
         <f>SUM('2 Talie'!G22)</f>
-        <v>-41711770</v>
+        <v>-68585400</v>
       </c>
       <c r="P2">
         <f>SUM('3 Talie'!B22)</f>
-        <v>4114191</v>
+        <v>6892636</v>
       </c>
       <c r="Q2">
         <f>SUM('3 Talie'!C22)</f>
-        <v>706169</v>
+        <v>1159225</v>
       </c>
       <c r="R2">
         <f>SUM('3 Talie'!D22)</f>
-        <v>9050288</v>
+        <v>15113495</v>
       </c>
       <c r="S2">
         <f>SUM('3 Talie'!E22)</f>
-        <v>665824</v>
+        <v>1111478</v>
       </c>
       <c r="T2">
         <f>SUM('3 Talie'!F22)</f>
-        <v>0.29661130467733016</v>
+        <v>0.29754068964016783</v>
       </c>
       <c r="U2">
         <f>SUM('3 Talie'!G22)</f>
-        <v>-46031850</v>
+        <v>-76651200</v>
       </c>
       <c r="W2">
         <f>SUM('4 Talie'!B22)</f>
-        <v>4251112</v>
+        <v>7018547</v>
       </c>
       <c r="X2">
         <f>SUM('4 Talie'!C22)</f>
-        <v>726387</v>
+        <v>1174411</v>
       </c>
       <c r="Y2">
         <f>SUM('4 Talie'!D22)</f>
-        <v>9356083</v>
+        <v>15400629</v>
       </c>
       <c r="Z2">
         <f>SUM('4 Talie'!E22)</f>
-        <v>686084</v>
+        <v>1129355</v>
       </c>
       <c r="AA2">
         <f>SUM('4 Talie'!F22)</f>
-        <v>0.29658406391368186</v>
+        <v>0.2974768948867334</v>
       </c>
       <c r="AB2">
         <f>SUM('4 Talie'!G22)</f>
-        <v>-47619290</v>
+        <v>-78174045</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -733,99 +726,99 @@
       </c>
       <c r="B3">
         <f>SUM('1 Talia'!B20)</f>
-        <v>4164141</v>
+        <v>6880635</v>
       </c>
       <c r="C3">
         <f>SUM('1 Talia'!C20)</f>
-        <v>977886</v>
+        <v>1600736</v>
       </c>
       <c r="D3">
         <f>SUM('1 Talia'!D20)</f>
-        <v>4967248</v>
+        <v>8192486</v>
       </c>
       <c r="E3">
         <f>SUM('1 Talia'!E20)</f>
-        <v>491340</v>
+        <v>811548</v>
       </c>
       <c r="F3">
         <f>SUM('1 Talia'!F20)</f>
-        <v>0.41191292154976494</v>
+        <v>0.41266007019251755</v>
       </c>
       <c r="G3">
         <f>SUM('1 Talia'!G20)</f>
-        <v>-5574370</v>
+        <v>-9060770</v>
       </c>
       <c r="I3">
         <f>SUM('2 Talie'!B23)</f>
-        <v>5379473</v>
+        <v>8883776</v>
       </c>
       <c r="J3">
         <f>SUM('2 Talie'!C23)</f>
-        <v>1210992</v>
+        <v>1977883</v>
       </c>
       <c r="K3">
         <f>SUM('2 Talie'!D23)</f>
-        <v>6411153</v>
+        <v>10568929</v>
       </c>
       <c r="L3">
         <f>SUM('2 Talie'!E23)</f>
-        <v>624755</v>
+        <v>1029095</v>
       </c>
       <c r="M3">
         <f>SUM('2 Talie'!F23)</f>
-        <v>0.41375411891043101</v>
+        <v>0.41453720261898552</v>
       </c>
       <c r="N3">
         <f>SUM('2 Talie'!G23)</f>
-        <v>-7193025</v>
+        <v>-11706055</v>
       </c>
       <c r="P3">
         <f>SUM('3 Talie'!B23)</f>
-        <v>5934707</v>
+        <v>9932278</v>
       </c>
       <c r="Q3">
         <f>SUM('3 Talie'!C23)</f>
-        <v>1312673</v>
+        <v>2172141</v>
       </c>
       <c r="R3">
         <f>SUM('3 Talie'!D23)</f>
-        <v>7078488</v>
+        <v>11822048</v>
       </c>
       <c r="S3">
         <f>SUM('3 Talie'!E23)</f>
-        <v>685306</v>
+        <v>1144014</v>
       </c>
       <c r="T3">
         <f>SUM('3 Talie'!F23)</f>
-        <v>0.41426509025491509</v>
+        <v>0.41511678259895202</v>
       </c>
       <c r="U3">
         <f>SUM('3 Talie'!G23)</f>
-        <v>-8011280</v>
+        <v>-13177630</v>
       </c>
       <c r="W3">
         <f>SUM('4 Talie'!B23)</f>
-        <v>6131527</v>
+        <v>10115023</v>
       </c>
       <c r="X3">
         <f>SUM('4 Talie'!C23)</f>
-        <v>1346699</v>
+        <v>2196057</v>
       </c>
       <c r="Y3">
         <f>SUM('4 Talie'!D23)</f>
-        <v>7316723</v>
+        <v>12041054</v>
       </c>
       <c r="Z3">
         <f>SUM('4 Talie'!E23)</f>
-        <v>705728</v>
+        <v>1161803</v>
       </c>
       <c r="AA3">
         <f>SUM('4 Talie'!F23)</f>
-        <v>0.41443380440175903</v>
+        <v>0.4153649532316141</v>
       </c>
       <c r="AB3">
         <f>SUM('4 Talie'!G23)</f>
-        <v>-8323320</v>
+        <v>-13451295</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -834,99 +827,99 @@
       </c>
       <c r="B4">
         <f>SUM('1 Talia'!B21)</f>
-        <v>3391857</v>
+        <v>5610584</v>
       </c>
       <c r="C4">
         <f>SUM('1 Talia'!C21)</f>
-        <v>504917</v>
+        <v>820275</v>
       </c>
       <c r="D4">
         <f>SUM('1 Talia'!D21)</f>
-        <v>6874074</v>
+        <v>11335286</v>
       </c>
       <c r="E4">
         <f>SUM('1 Talia'!E21)</f>
-        <v>525177</v>
+        <v>867960</v>
       </c>
       <c r="F4">
         <f>SUM('1 Talia'!F21)</f>
-        <v>0.31491085938637331</v>
+        <v>0.31580199306039664</v>
       </c>
       <c r="G4">
         <f>SUM('1 Talia'!G21)</f>
-        <v>-32196285</v>
+        <v>-52907220</v>
       </c>
       <c r="I4">
         <f>SUM('2 Talie'!B24)</f>
-        <v>4286191</v>
+        <v>7085904</v>
       </c>
       <c r="J4">
         <f>SUM('2 Talie'!C24)</f>
-        <v>560445</v>
+        <v>905098</v>
       </c>
       <c r="K4">
         <f>SUM('2 Talie'!D24)</f>
-        <v>8994475</v>
+        <v>14823638</v>
       </c>
       <c r="L4">
         <f>SUM('2 Talie'!E24)</f>
-        <v>668220</v>
+        <v>1101320</v>
       </c>
       <c r="M4">
         <f>SUM('2 Talie'!F24)</f>
-        <v>0.30967102279578568</v>
+        <v>0.31058583435899056</v>
       </c>
       <c r="N4">
         <f>SUM('2 Talie'!G24)</f>
-        <v>-43741740</v>
+        <v>-71870740</v>
       </c>
       <c r="P4">
         <f>SUM('3 Talie'!B24)</f>
-        <v>4684102</v>
+        <v>7845857</v>
       </c>
       <c r="Q4">
         <f>SUM('3 Talie'!C24)</f>
-        <v>580117</v>
+        <v>947495</v>
       </c>
       <c r="R4">
         <f>SUM('3 Talie'!D24)</f>
-        <v>9993648</v>
+        <v>16689659</v>
       </c>
       <c r="S4">
         <f>SUM('3 Talie'!E24)</f>
-        <v>732967</v>
+        <v>1224502</v>
       </c>
       <c r="T4">
         <f>SUM('3 Talie'!F24)</f>
-        <v>0.30699585990623723</v>
+        <v>0.30788579104721964</v>
       </c>
       <c r="U4">
         <f>SUM('3 Talie'!G24)</f>
-        <v>-49430625</v>
+        <v>-82315510</v>
       </c>
       <c r="W4">
         <f>SUM('4 Talie'!B24)</f>
-        <v>4808669</v>
+        <v>7938672</v>
       </c>
       <c r="X4">
         <f>SUM('4 Talie'!C24)</f>
-        <v>578966</v>
+        <v>931988</v>
       </c>
       <c r="Y4">
         <f>SUM('4 Talie'!D24)</f>
-        <v>10373437</v>
+        <v>17072954</v>
       </c>
       <c r="Z4">
         <f>SUM('4 Talie'!E24)</f>
-        <v>755316</v>
+        <v>1243750</v>
       </c>
       <c r="AA4">
         <f>SUM('4 Talie'!F24)</f>
-        <v>0.30509783852265887</v>
+        <v>0.30599715213154188</v>
       </c>
       <c r="AB4">
         <f>SUM('4 Talie'!G24)</f>
-        <v>-51871100</v>
+        <v>-85124070</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -935,99 +928,99 @@
       </c>
       <c r="B5">
         <f>SUM('1 Talia'!B22)</f>
-        <v>3415108</v>
+        <v>5645019</v>
       </c>
       <c r="C5">
         <f>SUM('1 Talia'!C22)</f>
-        <v>557392</v>
+        <v>906553</v>
       </c>
       <c r="D5">
         <f>SUM('1 Talia'!D22)</f>
-        <v>6800618</v>
+        <v>11215714</v>
       </c>
       <c r="E5">
         <f>SUM('1 Talia'!E22)</f>
-        <v>523362</v>
+        <v>863132</v>
       </c>
       <c r="F5">
         <f>SUM('1 Talia'!F22)</f>
-        <v>0.31700274702272824</v>
+        <v>0.31771982507626656</v>
       </c>
       <c r="G5">
         <f>SUM('1 Talia'!G22)</f>
-        <v>-31238290</v>
+        <v>-51391290</v>
       </c>
       <c r="I5">
         <f>SUM('2 Talie'!B25)</f>
-        <v>4400585</v>
+        <v>7269544</v>
       </c>
       <c r="J5">
         <f>SUM('2 Talie'!C25)</f>
-        <v>643513</v>
+        <v>1042932</v>
       </c>
       <c r="K5">
         <f>SUM('2 Talie'!D25)</f>
-        <v>8774431</v>
+        <v>14465413</v>
       </c>
       <c r="L5">
         <f>SUM('2 Talie'!E25)</f>
-        <v>663736</v>
+        <v>1093763</v>
       </c>
       <c r="M5">
         <f>SUM('2 Talie'!F25)</f>
-        <v>0.31845538696629722</v>
+        <v>0.31914915381315628</v>
       </c>
       <c r="N5">
         <f>SUM('2 Talie'!G25)</f>
-        <v>-40419780</v>
+        <v>-66489875</v>
       </c>
       <c r="P5">
         <f>SUM('3 Talie'!B25)</f>
-        <v>4846824</v>
+        <v>8118592</v>
       </c>
       <c r="Q5">
         <f>SUM('3 Talie'!C25)</f>
-        <v>683658</v>
+        <v>1120974</v>
       </c>
       <c r="R5">
         <f>SUM('3 Talie'!D25)</f>
-        <v>9689745</v>
+        <v>16179894</v>
       </c>
       <c r="S5">
         <f>SUM('3 Talie'!E25)</f>
-        <v>725845</v>
+        <v>1213172</v>
       </c>
       <c r="T5">
         <f>SUM('3 Talie'!F25)</f>
-        <v>0.31844623605153854</v>
+        <v>0.31938491218932269</v>
       </c>
       <c r="U5">
         <f>SUM('3 Talie'!G25)</f>
-        <v>-44799985</v>
+        <v>-74547160</v>
       </c>
       <c r="W5">
         <f>SUM('4 Talie'!B25)</f>
-        <v>5010233</v>
+        <v>8269945</v>
       </c>
       <c r="X5">
         <f>SUM('4 Talie'!C25)</f>
-        <v>693821</v>
+        <v>1118405</v>
       </c>
       <c r="Y5">
         <f>SUM('4 Talie'!D25)</f>
-        <v>10009279</v>
+        <v>16475698</v>
       </c>
       <c r="Z5">
         <f>SUM('4 Talie'!E25)</f>
-        <v>748851</v>
+        <v>1232573</v>
       </c>
       <c r="AA5">
         <f>SUM('4 Talie'!F25)</f>
-        <v>0.31885234023870046</v>
+        <v>0.3197467387935562</v>
       </c>
       <c r="AB5">
         <f>SUM('4 Talie'!G25)</f>
-        <v>-46246205</v>
+        <v>-75894665</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1036,99 +1029,99 @@
       </c>
       <c r="B6">
         <f>SUM('1 Talia'!B23)</f>
-        <v>4137166</v>
+        <v>6837669</v>
       </c>
       <c r="C6">
         <f>SUM('1 Talia'!C23)</f>
-        <v>1071883</v>
+        <v>1755452</v>
       </c>
       <c r="D6">
         <f>SUM('1 Talia'!D23)</f>
-        <v>4960320</v>
+        <v>8178863</v>
       </c>
       <c r="E6">
         <f>SUM('1 Talia'!E23)</f>
-        <v>494613</v>
+        <v>816329</v>
       </c>
       <c r="F6">
         <f>SUM('1 Talia'!F23)</f>
-        <v>0.40682622491129983</v>
+        <v>0.40768396869446094</v>
       </c>
       <c r="G6">
         <f>SUM('1 Talia'!G23)</f>
-        <v>-5758475</v>
+        <v>-9330295</v>
       </c>
       <c r="I6">
         <f>SUM('2 Talie'!B26)</f>
-        <v>5352662</v>
+        <v>8838115</v>
       </c>
       <c r="J6">
         <f>SUM('2 Talie'!C26)</f>
-        <v>1336705</v>
+        <v>2186201</v>
       </c>
       <c r="K6">
         <f>SUM('2 Talie'!D26)</f>
-        <v>6397908</v>
+        <v>10547419</v>
       </c>
       <c r="L6">
         <f>SUM('2 Talie'!E26)</f>
-        <v>629330</v>
+        <v>1036335</v>
       </c>
       <c r="M6">
         <f>SUM('2 Talie'!F26)</f>
-        <v>0.40899744217188072</v>
+        <v>0.4097081203714027</v>
       </c>
       <c r="N6">
         <f>SUM('2 Talie'!G26)</f>
-        <v>-7305810</v>
+        <v>-11911365</v>
       </c>
       <c r="P6">
         <f>SUM('3 Talie'!B26)</f>
-        <v>5910442</v>
+        <v>9891801</v>
       </c>
       <c r="Q6">
         <f>SUM('3 Talie'!C26)</f>
-        <v>1454481</v>
+        <v>2409110</v>
       </c>
       <c r="R6">
         <f>SUM('3 Talie'!D26)</f>
-        <v>7054833</v>
+        <v>11781984</v>
       </c>
       <c r="S6">
         <f>SUM('3 Talie'!E26)</f>
-        <v>689838</v>
+        <v>1152253</v>
       </c>
       <c r="T6">
         <f>SUM('3 Talie'!F26)</f>
-        <v>0.40988502163282098</v>
+        <v>0.41073969720002518</v>
       </c>
       <c r="U6">
         <f>SUM('3 Talie'!G26)</f>
-        <v>-7994720</v>
+        <v>-13140565</v>
       </c>
       <c r="W6">
         <f>SUM('4 Talie'!B26)</f>
-        <v>6104735</v>
+        <v>10072393</v>
       </c>
       <c r="X6">
         <f>SUM('4 Talie'!C26)</f>
-        <v>1493296</v>
+        <v>2436010</v>
       </c>
       <c r="Y6">
         <f>SUM('4 Talie'!D26)</f>
-        <v>7293801</v>
+        <v>12003859</v>
       </c>
       <c r="Z6">
         <f>SUM('4 Talie'!E26)</f>
-        <v>710580</v>
+        <v>1170447</v>
       </c>
       <c r="AA6">
         <f>SUM('4 Talie'!F26)</f>
-        <v>0.40993848171265967</v>
+        <v>0.41091242415734625</v>
       </c>
       <c r="AB6">
         <f>SUM('4 Talie'!G26)</f>
-        <v>-8337760</v>
+        <v>-13462425</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1137,99 +1130,99 @@
       </c>
       <c r="B7">
         <f>SUM('1 Talia'!B24)</f>
-        <v>4443056</v>
+        <v>7342973</v>
       </c>
       <c r="C7">
         <f>SUM('1 Talia'!C24)</f>
-        <v>811052</v>
+        <v>1324342</v>
       </c>
       <c r="D7">
         <f>SUM('1 Talia'!D24)</f>
-        <v>5969655</v>
+        <v>9845039</v>
       </c>
       <c r="E7">
         <f>SUM('1 Talia'!E24)</f>
-        <v>537346</v>
+        <v>887188</v>
       </c>
       <c r="F7">
         <f>SUM('1 Talia'!F24)</f>
-        <v>0.39586153057579709</v>
+        <v>0.39665258129787279</v>
       </c>
       <c r="G7">
         <f>SUM('1 Talia'!G24)</f>
-        <v>-12579260</v>
+        <v>-20584720</v>
       </c>
       <c r="I7">
         <f>SUM('2 Talie'!B27)</f>
-        <v>5729765</v>
+        <v>9464407</v>
       </c>
       <c r="J7">
         <f>SUM('2 Talie'!C27)</f>
-        <v>954690</v>
+        <v>1555034</v>
       </c>
       <c r="K7">
         <f>SUM('2 Talie'!D27)</f>
-        <v>7686098</v>
+        <v>12668102</v>
       </c>
       <c r="L7">
         <f>SUM('2 Talie'!E27)</f>
-        <v>686188</v>
+        <v>1130539</v>
       </c>
       <c r="M7">
         <f>SUM('2 Talie'!F27)</f>
-        <v>0.39871569312607524</v>
+        <v>0.39955207680256244</v>
       </c>
       <c r="N7">
         <f>SUM('2 Talie'!G27)</f>
-        <v>-16132390</v>
+        <v>-26384255</v>
       </c>
       <c r="P7">
         <f>SUM('3 Talie'!B27)</f>
-        <v>6321121</v>
+        <v>10581075</v>
       </c>
       <c r="Q7">
         <f>SUM('3 Talie'!C27)</f>
-        <v>1016392</v>
+        <v>1673913</v>
       </c>
       <c r="R7">
         <f>SUM('3 Talie'!D27)</f>
-        <v>8473069</v>
+        <v>14150342</v>
       </c>
       <c r="S7">
         <f>SUM('3 Talie'!E27)</f>
-        <v>753627</v>
+        <v>1258202</v>
       </c>
       <c r="T7">
         <f>SUM('3 Talie'!F27)</f>
-        <v>0.39980318245084212</v>
+        <v>0.40071739304148063</v>
       </c>
       <c r="U7">
         <f>SUM('3 Talie'!G27)</f>
-        <v>-17751345</v>
+        <v>-29401660</v>
       </c>
       <c r="W7">
         <f>SUM('4 Talie'!B27)</f>
-        <v>6529131</v>
+        <v>10771208</v>
       </c>
       <c r="X7">
         <f>SUM('4 Talie'!C27)</f>
-        <v>1030584</v>
+        <v>1672284</v>
       </c>
       <c r="Y7">
         <f>SUM('4 Talie'!D27)</f>
-        <v>8754242</v>
+        <v>14409209</v>
       </c>
       <c r="Z7">
         <f>SUM('4 Talie'!E27)</f>
-        <v>773948</v>
+        <v>1274786</v>
       </c>
       <c r="AA7">
         <f>SUM('4 Talie'!F27)</f>
-        <v>0.40021749475004748</v>
+        <v>0.40112195789913274</v>
       </c>
       <c r="AB7">
         <f>SUM('4 Talie'!G27)</f>
-        <v>-18381370</v>
+        <v>-30006080</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1238,99 +1231,99 @@
       </c>
       <c r="B8">
         <f>SUM('1 Talia'!B25)</f>
-        <v>3709505</v>
+        <v>6128864</v>
       </c>
       <c r="C8">
         <f>SUM('1 Talia'!C25)</f>
-        <v>729179</v>
+        <v>1191131</v>
       </c>
       <c r="D8">
         <f>SUM('1 Talia'!D25)</f>
-        <v>4617773</v>
+        <v>7614343</v>
       </c>
       <c r="E8">
         <f>SUM('1 Talia'!E25)</f>
-        <v>459869</v>
+        <v>758309</v>
       </c>
       <c r="F8">
         <f>SUM('1 Talia'!F25)</f>
-        <v>0.40959781512792476</v>
+        <v>0.41038739045547246</v>
       </c>
       <c r="G8">
         <f>SUM('1 Talia'!G25)</f>
-        <v>-6783335</v>
+        <v>-11063245</v>
       </c>
       <c r="I8">
         <f>SUM('2 Talie'!B28)</f>
-        <v>4201892</v>
+        <v>6941306</v>
       </c>
       <c r="J8">
         <f>SUM('2 Talie'!C28)</f>
-        <v>831972</v>
+        <v>1356847</v>
       </c>
       <c r="K8">
         <f>SUM('2 Talie'!D28)</f>
-        <v>5227199</v>
+        <v>8623149</v>
       </c>
       <c r="L8">
         <f>SUM('2 Talie'!E28)</f>
-        <v>512331</v>
+        <v>843642</v>
       </c>
       <c r="M8">
         <f>SUM('2 Talie'!F28)</f>
-        <v>0.40949870398417787</v>
+        <v>0.41021110550476553</v>
       </c>
       <c r="N8">
         <f>SUM('2 Talie'!G28)</f>
-        <v>-7691415</v>
+        <v>-12600220</v>
       </c>
       <c r="P8">
         <f>SUM('3 Talie'!B28)</f>
-        <v>4100456</v>
+        <v>6866960</v>
       </c>
       <c r="Q8">
         <f>SUM('3 Talie'!C28)</f>
-        <v>812693</v>
+        <v>1341964</v>
       </c>
       <c r="R8">
         <f>SUM('3 Talie'!D28)</f>
-        <v>5081081</v>
+        <v>8492427</v>
       </c>
       <c r="S8">
         <f>SUM('3 Talie'!E28)</f>
-        <v>494742</v>
+        <v>826558</v>
       </c>
       <c r="T8">
         <f>SUM('3 Talie'!F28)</f>
-        <v>0.41028233290608679</v>
+        <v>0.41116194731791456</v>
       </c>
       <c r="U8">
         <f>SUM('3 Talie'!G28)</f>
-        <v>-7332540</v>
+        <v>-12121880</v>
       </c>
       <c r="W8">
         <f>SUM('4 Talie'!B28)</f>
-        <v>3776565</v>
+        <v>6230616</v>
       </c>
       <c r="X8">
         <f>SUM('4 Talie'!C28)</f>
-        <v>745186</v>
+        <v>1213268</v>
       </c>
       <c r="Y8">
         <f>SUM('4 Talie'!D28)</f>
-        <v>4658450</v>
+        <v>7663835</v>
       </c>
       <c r="Z8">
         <f>SUM('4 Talie'!E28)</f>
-        <v>452587</v>
+        <v>744334</v>
       </c>
       <c r="AA8">
         <f>SUM('4 Talie'!F28)</f>
-        <v>0.41138151550276514</v>
+        <v>0.41241275403652927</v>
       </c>
       <c r="AB8">
         <f>SUM('4 Talie'!G28)</f>
-        <v>-6555915</v>
+        <v>-10610520</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1339,99 +1332,99 @@
       </c>
       <c r="B9">
         <f>SUM('1 Talia'!B26)</f>
-        <v>4330730</v>
+        <v>7157043</v>
       </c>
       <c r="C9">
         <f>SUM('1 Talia'!C26)</f>
-        <v>999536</v>
+        <v>1635963</v>
       </c>
       <c r="D9">
         <f>SUM('1 Talia'!D26)</f>
-        <v>5156381</v>
+        <v>8502958</v>
       </c>
       <c r="E9">
         <f>SUM('1 Talia'!E26)</f>
-        <v>507644</v>
+        <v>837890</v>
       </c>
       <c r="F9">
         <f>SUM('1 Talia'!F26)</f>
-        <v>0.41297566324107221</v>
+        <v>0.41379844453885312</v>
       </c>
       <c r="G9">
         <f>SUM('1 Talia'!G26)</f>
-        <v>-5718290</v>
+        <v>-9269700</v>
       </c>
       <c r="I9">
         <f>SUM('2 Talie'!B29)</f>
-        <v>5589331</v>
+        <v>9232124</v>
       </c>
       <c r="J9">
         <f>SUM('2 Talie'!C29)</f>
-        <v>1197458</v>
+        <v>1955855</v>
       </c>
       <c r="K9">
         <f>SUM('2 Talie'!D29)</f>
-        <v>6653887</v>
+        <v>10967056</v>
       </c>
       <c r="L9">
         <f>SUM('2 Talie'!E29)</f>
-        <v>643515</v>
+        <v>1060724</v>
       </c>
       <c r="M9">
         <f>SUM('2 Talie'!F29)</f>
-        <v>0.41585192590015563</v>
+        <v>0.41670545769844192</v>
       </c>
       <c r="N9">
         <f>SUM('2 Talie'!G29)</f>
-        <v>-7427985</v>
+        <v>-12045700</v>
       </c>
       <c r="P9">
         <f>SUM('3 Talie'!B29)</f>
-        <v>6165301</v>
+        <v>10317952</v>
       </c>
       <c r="Q9">
         <f>SUM('3 Talie'!C29)</f>
-        <v>1293010</v>
+        <v>2139389</v>
       </c>
       <c r="R9">
         <f>SUM('3 Talie'!D29)</f>
-        <v>7340353</v>
+        <v>12258723</v>
       </c>
       <c r="S9">
         <f>SUM('3 Talie'!E29)</f>
-        <v>706470</v>
+        <v>1180333</v>
       </c>
       <c r="T9">
         <f>SUM('3 Talie'!F29)</f>
-        <v>0.41661199956969086</v>
+        <v>0.41745934951455055</v>
       </c>
       <c r="U9">
         <f>SUM('3 Talie'!G29)</f>
-        <v>-8218170</v>
+        <v>-13506045</v>
       </c>
       <c r="W9">
         <f>SUM('4 Talie'!B29)</f>
-        <v>6369533</v>
+        <v>10506085</v>
       </c>
       <c r="X9">
         <f>SUM('4 Talie'!C29)</f>
-        <v>1321334</v>
+        <v>2154481</v>
       </c>
       <c r="Y9">
         <f>SUM('4 Talie'!D29)</f>
-        <v>7584554</v>
+        <v>12483555</v>
       </c>
       <c r="Z9">
         <f>SUM('4 Talie'!E29)</f>
-        <v>727788</v>
+        <v>1198492</v>
       </c>
       <c r="AA9">
         <f>SUM('4 Talie'!F29)</f>
-        <v>0.41697921124399778</v>
+        <v>0.41783465009574206</v>
       </c>
       <c r="AB9">
         <f>SUM('4 Talie'!G29)</f>
-        <v>-8511270</v>
+        <v>-13782240</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1440,99 +1433,99 @@
       </c>
       <c r="B10">
         <f>SUM('1 Talia'!B27)</f>
-        <v>4160909</v>
+        <v>6876766</v>
       </c>
       <c r="C10">
         <f>SUM('1 Talia'!C27)</f>
-        <v>1064969</v>
+        <v>1743946</v>
       </c>
       <c r="D10">
         <f>SUM('1 Talia'!D27)</f>
-        <v>4998382</v>
+        <v>8241942</v>
       </c>
       <c r="E10">
         <f>SUM('1 Talia'!E27)</f>
-        <v>496760</v>
+        <v>819843</v>
       </c>
       <c r="F10">
         <f>SUM('1 Talia'!F27)</f>
-        <v>0.40696431820004575</v>
+        <v>0.40781041940373086</v>
       </c>
       <c r="G10">
         <f>SUM('1 Talia'!G27)</f>
-        <v>-5890930</v>
+        <v>-9552545</v>
       </c>
       <c r="I10">
         <f>SUM('2 Talie'!B30)</f>
-        <v>5390724</v>
+        <v>8902504</v>
       </c>
       <c r="J10">
         <f>SUM('2 Talie'!C30)</f>
-        <v>1313194</v>
+        <v>2146648</v>
       </c>
       <c r="K10">
         <f>SUM('2 Talie'!D30)</f>
-        <v>6460938</v>
+        <v>10650570</v>
       </c>
       <c r="L10">
         <f>SUM('2 Talie'!E30)</f>
-        <v>632512</v>
+        <v>1042046</v>
       </c>
       <c r="M10">
         <f>SUM('2 Talie'!F30)</f>
-        <v>0.40947838700248601</v>
+        <v>0.41025889640429497</v>
       </c>
       <c r="N10">
         <f>SUM('2 Talie'!G30)</f>
-        <v>-7539580</v>
+        <v>-12270430</v>
       </c>
       <c r="P10">
         <f>SUM('3 Talie'!B30)</f>
-        <v>5955598</v>
+        <v>9967213</v>
       </c>
       <c r="Q10">
         <f>SUM('3 Talie'!C30)</f>
-        <v>1425101</v>
+        <v>2359187</v>
       </c>
       <c r="R10">
         <f>SUM('3 Talie'!D30)</f>
-        <v>7128855</v>
+        <v>11906329</v>
       </c>
       <c r="S10">
         <f>SUM('3 Talie'!E30)</f>
-        <v>694714</v>
+        <v>1160386</v>
       </c>
       <c r="T10">
         <f>SUM('3 Talie'!F30)</f>
-        <v>0.41046044557951267</v>
+        <v>0.41131203175672043</v>
       </c>
       <c r="U10">
         <f>SUM('3 Talie'!G30)</f>
-        <v>-8259000</v>
+        <v>-13589230</v>
       </c>
       <c r="W10">
         <f>SUM('4 Talie'!B30)</f>
-        <v>6150249</v>
+        <v>10149579</v>
       </c>
       <c r="X10">
         <f>SUM('4 Talie'!C30)</f>
-        <v>1458912</v>
+        <v>2380532</v>
       </c>
       <c r="Y10">
         <f>SUM('4 Talie'!D30)</f>
-        <v>7377031</v>
+        <v>12137362</v>
       </c>
       <c r="Z10">
         <f>SUM('4 Talie'!E30)</f>
-        <v>714348</v>
+        <v>1176762</v>
       </c>
       <c r="AA10">
         <f>SUM('4 Talie'!F30)</f>
-        <v>0.4103943817081751</v>
+        <v>0.4114559687569132</v>
       </c>
       <c r="AB10">
         <f>SUM('4 Talie'!G30)</f>
-        <v>-8696080</v>
+        <v>-13994020</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1541,99 +1534,99 @@
       </c>
       <c r="B11">
         <f>SUM('1 Talia'!B28)</f>
-        <v>4158446</v>
+        <v>6872346</v>
       </c>
       <c r="C11">
         <f>SUM('1 Talia'!C28)</f>
-        <v>908384</v>
+        <v>1486795</v>
       </c>
       <c r="D11">
         <f>SUM('1 Talia'!D28)</f>
-        <v>5080551</v>
+        <v>8376777</v>
       </c>
       <c r="E11">
         <f>SUM('1 Talia'!E28)</f>
-        <v>496877</v>
+        <v>819927</v>
       </c>
       <c r="F11">
         <f>SUM('1 Talia'!F28)</f>
-        <v>0.4098048550655583</v>
+        <v>0.410634540632907</v>
       </c>
       <c r="G11">
         <f>SUM('1 Talia'!G28)</f>
-        <v>-6736665</v>
+        <v>-10944675</v>
       </c>
       <c r="I11">
         <f>SUM('2 Talie'!B31)</f>
-        <v>4775122</v>
+        <v>7884446</v>
       </c>
       <c r="J11">
         <f>SUM('2 Talie'!C31)</f>
-        <v>968201</v>
+        <v>1579029</v>
       </c>
       <c r="K11">
         <f>SUM('2 Talie'!D31)</f>
-        <v>5995947</v>
+        <v>9882686</v>
       </c>
       <c r="L11">
         <f>SUM('2 Talie'!E31)</f>
-        <v>572934</v>
+        <v>942948</v>
       </c>
       <c r="M11">
         <f>SUM('2 Talie'!F31)</f>
-        <v>0.40676481587015206</v>
+        <v>0.40754576579818602</v>
       </c>
       <c r="N11">
         <f>SUM('2 Talie'!G31)</f>
-        <v>-9343580</v>
+        <v>-15267660</v>
       </c>
       <c r="P11">
         <f>SUM('3 Talie'!B31)</f>
-        <v>4723799</v>
+        <v>7909252</v>
       </c>
       <c r="Q11">
         <f>SUM('3 Talie'!C31)</f>
-        <v>940215</v>
+        <v>1553320</v>
       </c>
       <c r="R11">
         <f>SUM('3 Talie'!D31)</f>
-        <v>6034841</v>
+        <v>10082495</v>
       </c>
       <c r="S11">
         <f>SUM('3 Talie'!E31)</f>
-        <v>568640</v>
+        <v>950023</v>
       </c>
       <c r="T11">
         <f>SUM('3 Talie'!F31)</f>
-        <v>0.40378301979125308</v>
+        <v>0.40466742835928882</v>
       </c>
       <c r="U11">
         <f>SUM('3 Talie'!G31)</f>
-        <v>-10267220</v>
+        <v>-16982315</v>
       </c>
       <c r="W11">
         <f>SUM('4 Talie'!B31)</f>
-        <v>4433485</v>
+        <v>7315531</v>
       </c>
       <c r="X11">
         <f>SUM('4 Talie'!C31)</f>
-        <v>874976</v>
+        <v>1424549</v>
       </c>
       <c r="Y11">
         <f>SUM('4 Talie'!D31)</f>
-        <v>5718417</v>
+        <v>9414501</v>
       </c>
       <c r="Z11">
         <f>SUM('4 Talie'!E31)</f>
-        <v>534474</v>
+        <v>880734</v>
       </c>
       <c r="AA11">
         <f>SUM('4 Talie'!F31)</f>
-        <v>0.40206167149033478</v>
+        <v>0.40295785399839301</v>
       </c>
       <c r="AB11">
         <f>SUM('4 Talie'!G31)</f>
-        <v>-10176950</v>
+        <v>-16586030</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1642,99 +1635,99 @@
       </c>
       <c r="B12">
         <f>SUM('1 Talia'!B29)</f>
-        <v>4384065</v>
+        <v>7244541</v>
       </c>
       <c r="C12">
         <f>SUM('1 Talia'!C29)</f>
-        <v>934878</v>
+        <v>1528600</v>
       </c>
       <c r="D12">
         <f>SUM('1 Talia'!D29)</f>
-        <v>5075531</v>
+        <v>8369356</v>
       </c>
       <c r="E12">
         <f>SUM('1 Talia'!E29)</f>
-        <v>524074</v>
+        <v>864424</v>
       </c>
       <c r="F12">
         <f>SUM('1 Talia'!F29)</f>
-        <v>0.42176881677706829</v>
+        <v>0.42260710327089457</v>
       </c>
       <c r="G12">
         <f>SUM('1 Talia'!G29)</f>
-        <v>-4294290</v>
+        <v>-6926030</v>
       </c>
       <c r="I12">
         <f>SUM('2 Talie'!B32)</f>
-        <v>5491006</v>
+        <v>9064217</v>
       </c>
       <c r="J12">
         <f>SUM('2 Talie'!C32)</f>
-        <v>1067250</v>
+        <v>1741377</v>
       </c>
       <c r="K12">
         <f>SUM('2 Talie'!D32)</f>
-        <v>6372221</v>
+        <v>10506587</v>
       </c>
       <c r="L12">
         <f>SUM('2 Talie'!E32)</f>
-        <v>647921</v>
+        <v>1066607</v>
       </c>
       <c r="M12">
         <f>SUM('2 Talie'!F32)</f>
-        <v>0.4246561051073367</v>
+        <v>0.42530687028230474</v>
       </c>
       <c r="N12">
         <f>SUM('2 Talie'!G32)</f>
-        <v>-5572545</v>
+        <v>-9090665</v>
       </c>
       <c r="P12">
         <f>SUM('3 Talie'!B32)</f>
-        <v>5873009</v>
+        <v>9826538</v>
       </c>
       <c r="Q12">
         <f>SUM('3 Talie'!C32)</f>
-        <v>1112751</v>
+        <v>1837798</v>
       </c>
       <c r="R12">
         <f>SUM('3 Talie'!D32)</f>
-        <v>6822227</v>
+        <v>11395207</v>
       </c>
       <c r="S12">
         <f>SUM('3 Talie'!E32)</f>
-        <v>688934</v>
+        <v>1151585</v>
       </c>
       <c r="T12">
         <f>SUM('3 Talie'!F32)</f>
-        <v>0.42533419244963078</v>
+        <v>0.42613758650811079</v>
       </c>
       <c r="U12">
         <f>SUM('3 Talie'!G32)</f>
-        <v>-6047510</v>
+        <v>-9928765</v>
       </c>
       <c r="W12">
         <f>SUM('4 Talie'!B32)</f>
-        <v>5881835</v>
+        <v>9695829</v>
       </c>
       <c r="X12">
         <f>SUM('4 Talie'!C32)</f>
-        <v>1100759</v>
+        <v>1790746</v>
       </c>
       <c r="Y12">
         <f>SUM('4 Talie'!D32)</f>
-        <v>6836550</v>
+        <v>11247747</v>
       </c>
       <c r="Z12">
         <f>SUM('4 Talie'!E32)</f>
-        <v>688535</v>
+        <v>1133640</v>
       </c>
       <c r="AA12">
         <f>SUM('4 Talie'!F32)</f>
-        <v>0.42562947458974304</v>
+        <v>0.42648419425043771</v>
       </c>
       <c r="AB12">
         <f>SUM('4 Talie'!G32)</f>
-        <v>-6104475</v>
+        <v>-9850980</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1743,99 +1736,99 @@
       </c>
       <c r="B13">
         <f>SUM('1 Talia'!B30)</f>
-        <v>4404724</v>
+        <v>7280301</v>
       </c>
       <c r="C13">
         <f>SUM('1 Talia'!C30)</f>
-        <v>729945</v>
+        <v>1189499</v>
       </c>
       <c r="D13">
         <f>SUM('1 Talia'!D30)</f>
-        <v>6542626</v>
+        <v>10789475</v>
       </c>
       <c r="E13">
         <f>SUM('1 Talia'!E30)</f>
-        <v>558990</v>
+        <v>922296</v>
       </c>
       <c r="F13">
         <f>SUM('1 Talia'!F30)</f>
-        <v>0.37720413845843581</v>
+        <v>0.37801531989132509</v>
       </c>
       <c r="G13">
         <f>SUM('1 Talia'!G30)</f>
-        <v>-18584070</v>
+        <v>-30480260</v>
       </c>
       <c r="I13">
         <f>SUM('2 Talie'!B33)</f>
-        <v>5685336</v>
+        <v>9391620</v>
       </c>
       <c r="J13">
         <f>SUM('2 Talie'!C33)</f>
-        <v>822109</v>
+        <v>1336150</v>
       </c>
       <c r="K13">
         <f>SUM('2 Talie'!D33)</f>
-        <v>8410116</v>
+        <v>13861241</v>
       </c>
       <c r="L13">
         <f>SUM('2 Talie'!E33)</f>
-        <v>711016</v>
+        <v>1171931</v>
       </c>
       <c r="M13">
         <f>SUM('2 Talie'!F33)</f>
-        <v>0.38111699358896539</v>
+        <v>0.38194378781643556</v>
       </c>
       <c r="N13">
         <f>SUM('2 Talie'!G33)</f>
-        <v>-23692720</v>
+        <v>-38836555</v>
       </c>
       <c r="P13">
         <f>SUM('3 Talie'!B33)</f>
-        <v>6271367</v>
+        <v>10495421</v>
       </c>
       <c r="Q13">
         <f>SUM('3 Talie'!C33)</f>
-        <v>869614</v>
+        <v>1428934</v>
       </c>
       <c r="R13">
         <f>SUM('3 Talie'!D33)</f>
-        <v>9267980</v>
+        <v>15480987</v>
       </c>
       <c r="S13">
         <f>SUM('3 Talie'!E33)</f>
-        <v>780861</v>
+        <v>1304162</v>
       </c>
       <c r="T13">
         <f>SUM('3 Talie'!F33)</f>
-        <v>0.38219159640881589</v>
+        <v>0.38296989689090544</v>
       </c>
       <c r="U13">
         <f>SUM('3 Talie'!G33)</f>
-        <v>-26061825</v>
+        <v>-43334850</v>
       </c>
       <c r="W13">
         <f>SUM('4 Talie'!B33)</f>
-        <v>6477436</v>
+        <v>10686163</v>
       </c>
       <c r="X13">
         <f>SUM('4 Talie'!C33)</f>
-        <v>879113</v>
+        <v>1422717</v>
       </c>
       <c r="Y13">
         <f>SUM('4 Talie'!D33)</f>
-        <v>9574127</v>
+        <v>15758816</v>
       </c>
       <c r="Z13">
         <f>SUM('4 Talie'!E33)</f>
-        <v>803316</v>
+        <v>1322742</v>
       </c>
       <c r="AA13">
         <f>SUM('4 Talie'!F33)</f>
-        <v>0.38258578688765882</v>
+        <v>0.38346058461381233</v>
       </c>
       <c r="AB13">
         <f>SUM('4 Talie'!G33)</f>
-        <v>-26950330</v>
+        <v>-44112820</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -1889,39 +1882,39 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B32" si="0">B2+I2</f>
-        <v>6602343</v>
+        <v>10916007</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ref="C21:C32" si="1">C2+J2</f>
-        <v>1162456</v>
+        <v>1887140</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:D32" si="2">D2+K2</f>
-        <v>14561873</v>
+        <v>24007761</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ref="E21:E32" si="3">E2+L2</f>
-        <v>1091036</v>
+        <v>1798953</v>
       </c>
       <c r="F21" s="1">
         <f>B21/(B21+C21+D21)</f>
-        <v>0.29571550117276774</v>
+        <v>0.2965427258681041</v>
       </c>
       <c r="G21" s="1">
         <f>(B21-D21+0.5*E21)*10</f>
-        <v>-74140120</v>
+        <v>-121922775</v>
       </c>
       <c r="H21" s="1">
         <f>B21+C21+D21</f>
-        <v>22326672</v>
+        <v>36810908</v>
       </c>
       <c r="I21" s="1">
         <f>D21/H21</f>
-        <v>0.65221870057481024</v>
+        <v>0.65219149171761803</v>
       </c>
       <c r="J21" s="2">
         <f>B21/D21</f>
-        <v>0.45339929829081738</v>
+        <v>0.45468659072372469</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1930,39 +1923,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>9543614</v>
+        <v>15764411</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>2188878</v>
+        <v>3578619</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>11378401</v>
+        <v>18761415</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>1116095</v>
+        <v>1840643</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F32" si="4">B22/(B22+C22+D22)</f>
-        <v>0.41294873374213625</v>
-      </c>
-      <c r="G22" s="1">
+        <v>0.41371580139797337</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" ref="G22:G32" si="5">(B22-D22+0.5*E22)*10</f>
-        <v>-12767395</v>
+        <v>-20766825</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ref="H22:H32" si="6">B22+C22+D22</f>
-        <v>23110893</v>
+        <v>38104445</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:I32" si="7">D22/H22</f>
-        <v>0.49233930510603807</v>
+        <v>0.49236814760062769</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ref="J22:J32" si="8">B22/D22</f>
-        <v>0.83874825645536666</v>
+        <v>0.84025703818182162</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1971,39 +1964,39 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>7678048</v>
+        <v>12696488</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>1065362</v>
+        <v>1725373</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>15868549</v>
-      </c>
-      <c r="E23" s="9">
+        <v>26158924</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>1193397</v>
+        <v>1969280</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>0.31196411468099716</v>
+        <v>0.3128694528703671</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="5"/>
-        <v>-75938025</v>
+        <v>-124777960</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="6"/>
-        <v>24611959</v>
+        <v>40580785</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
-        <v>0.6447495300963243</v>
+        <v>0.64461355294137357</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
-        <v>0.48385318657679416</v>
+        <v>0.48535971892421875</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2012,39 +2005,39 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>7815693</v>
+        <v>12914563</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>1200905</v>
+        <v>1949485</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>15575049</v>
-      </c>
-      <c r="E24" s="9">
+        <v>25681127</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="3"/>
-        <v>1187098</v>
+        <v>1956895</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
-        <v>0.31781901391151229</v>
+        <v>0.31852280820097584</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="5"/>
-        <v>-71658070</v>
+        <v>-117881165</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="6"/>
-        <v>24591647</v>
+        <v>40545175</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
-        <v>0.63334712799024806</v>
+        <v>0.63339539168347403</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="8"/>
-        <v>0.5018085657387017</v>
+        <v>0.50288147401007754</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2053,39 +2046,39 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>9489828</v>
+        <v>15675784</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>2408588</v>
+        <v>3941653</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>11358228</v>
+        <v>18726282</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>1123943</v>
+        <v>1852664</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
-        <v>0.40804803994935812</v>
+        <v>0.4088227331313376</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="5"/>
-        <v>-13064285</v>
+        <v>-21241660</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="6"/>
-        <v>23256644</v>
+        <v>38343719</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
-        <v>0.48838637251359224</v>
+        <v>0.48837938750802967</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="8"/>
-        <v>0.83550250972246731</v>
+        <v>0.83710071225030147</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,39 +2087,39 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>10172821</v>
+        <v>16807380</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>1765742</v>
+        <v>2879376</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>13655753</v>
+        <v>22513141</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
-        <v>1223534</v>
+        <v>2017727</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
-        <v>0.3974640697567382</v>
+        <v>0.39828011902493504</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="5"/>
-        <v>-28711650</v>
+        <v>-46968975</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="6"/>
-        <v>25594316</v>
+        <v>42199897</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
-        <v>0.53354631551786735</v>
+        <v>0.53348805566989888</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="8"/>
-        <v>0.74494764221350518</v>
+        <v>0.74655864323863119</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,39 +2128,39 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>7911397</v>
+        <v>13070170</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>1561151</v>
+        <v>2547978</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>9844972</v>
-      </c>
-      <c r="E27" s="9">
+        <v>16237492</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="3"/>
-        <v>972200</v>
+        <v>1601951</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
-        <v>0.40954516935921381</v>
+        <v>0.41029375018050179</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="5"/>
-        <v>-14474750</v>
+        <v>-23663465</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
-        <v>19317520</v>
+        <v>31855640</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
-        <v>0.50963953965105246</v>
+        <v>0.50972110433191731</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="8"/>
-        <v>0.80359771465068663</v>
+        <v>0.80493773299472604</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2176,39 +2169,39 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>9920061</v>
+        <v>16389167</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>2196994</v>
+        <v>3591818</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>11810268</v>
+        <v>19470014</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="3"/>
-        <v>1151159</v>
+        <v>1898614</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
-        <v>0.41459134396271574</v>
+        <v>0.41543097552485297</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>-13146275</v>
+        <v>-21315400</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="6"/>
-        <v>23927323</v>
+        <v>39450999</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
-        <v>0.49358919090113007</v>
+        <v>0.49352397894917693</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="8"/>
-        <v>0.83995223478417258</v>
+        <v>0.84176452055966677</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2217,39 +2210,39 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>9551633</v>
+        <v>15779270</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>2378163</v>
+        <v>3890594</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>11459320</v>
+        <v>18892512</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
-        <v>1129272</v>
+        <v>1861889</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="4"/>
-        <v>0.40837939321862354</v>
+        <v>0.40918822014494127</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="5"/>
-        <v>-13430510</v>
+        <v>-21822975</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="6"/>
-        <v>23389116</v>
+        <v>38562376</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
-        <v>0.4899424159510774</v>
+        <v>0.48992084927546997</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="8"/>
-        <v>0.83352528771340706</v>
+        <v>0.83521291398412234</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2258,39 +2251,39 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>8933568</v>
+        <v>14756792</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>1876585</v>
+        <v>3065824</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>11076498</v>
+        <v>18259463</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v>1069811</v>
+        <v>1762875</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="4"/>
-        <v>0.40817427938152806</v>
+        <v>0.40897842943029972</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="5"/>
-        <v>-16080245</v>
+        <v>-26212335</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="6"/>
-        <v>21886651</v>
+        <v>36082079</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="7"/>
-        <v>0.5060846449280888</v>
+        <v>0.50605351759248685</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="8"/>
-        <v>0.80653361739423413</v>
+        <v>0.80817228852787182</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2299,39 +2292,39 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>9875071</v>
+        <v>16308758</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>2002128</v>
+        <v>3269977</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>11447752</v>
+        <v>18875943</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="3"/>
-        <v>1171995</v>
+        <v>1931031</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>0.42336942101185981</v>
+        <v>0.42410335616384565</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="5"/>
-        <v>-9866835</v>
+        <v>-16016695</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="6"/>
-        <v>23324951</v>
+        <v>38454678</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="7"/>
-        <v>0.4907942571883645</v>
+        <v>0.49086207404987242</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="8"/>
-        <v>0.86262097571645502</v>
+        <v>0.86399699342173264</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2340,39 +2333,39 @@
       </c>
       <c r="B32" s="8">
         <f t="shared" si="0"/>
-        <v>10090060</v>
+        <v>16671921</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" si="1"/>
-        <v>1552054</v>
+        <v>2525649</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="2"/>
-        <v>14952742</v>
+        <v>24650716</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="3"/>
-        <v>1270006</v>
+        <v>2094227</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="4"/>
-        <v>0.37939893338771979</v>
+        <v>0.38021830545440249</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="5"/>
-        <v>-42276790</v>
+        <v>-69316815</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="6"/>
-        <v>26594856</v>
+        <v>43848286</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="7"/>
-        <v>0.56224188617528137</v>
+        <v>0.56218197445619655</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="8"/>
-        <v>0.67479663596148454</v>
+        <v>0.67632603450544804</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2408,11 +2401,11 @@
       </c>
       <c r="B39">
         <f>SUM(B21:B33)</f>
-        <v>107584137</v>
+        <v>177750711</v>
       </c>
       <c r="C39">
         <f>SUM(E21:E33)</f>
-        <v>13699546</v>
+        <v>22586749</v>
       </c>
       <c r="E39">
         <f>84/18</f>
@@ -2425,11 +2418,11 @@
       </c>
       <c r="B40">
         <f>SUM(B21:B32)</f>
-        <v>107584137</v>
+        <v>177750711</v>
       </c>
       <c r="C40">
         <f>SUM(E21:E32)</f>
-        <v>13699546</v>
+        <v>22586749</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2435,7 @@
   <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,35 +3195,47 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ref="B19:B30" si="5">B2+H2+N2+T2+Z2+V19+J19+P19</f>
-        <v>2877565</v>
+        <v>4759156</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C30" si="6">C2+I2+O2+U2+AA2+W19+K19+Q19</f>
-        <v>516370</v>
+        <v>839857</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:D30" si="7">D2+J2+P2+V2+AB2+X19+L19+R19</f>
-        <v>6361590</v>
+        <v>10490852</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ref="E19:E30" si="8">E2+K2+Q2+W2+AC2+Y19+M19+S19</f>
-        <v>482380</v>
+        <v>795917</v>
       </c>
       <c r="F19" s="1">
         <f>B19/(SUM(B19:D19))</f>
-        <v>0.2949677234182681</v>
+        <v>0.29578594972673794</v>
       </c>
       <c r="G19" s="1">
         <f>(B19-D19+E19/2)*10</f>
-        <v>-32428350</v>
+        <v>-53337375</v>
       </c>
       <c r="H19" s="1">
         <f>B19/D19</f>
-        <v>0.45233424348315437</v>
+        <v>0.45364818796414247</v>
+      </c>
+      <c r="J19">
+        <v>1881591</v>
+      </c>
+      <c r="K19">
+        <v>323487</v>
+      </c>
+      <c r="L19">
+        <v>4129262</v>
+      </c>
+      <c r="M19">
+        <v>313537</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19:N30" si="9">(J19-L19+M19/2)*10</f>
-        <v>0</v>
+        <v>-20909025</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19:T30" si="10">(P19-R19+S19/2)*10</f>
@@ -3247,35 +3252,47 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="5"/>
-        <v>4164141</v>
+        <v>6880635</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
-        <v>977886</v>
+        <v>1600736</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="7"/>
-        <v>4967248</v>
+        <v>8192486</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="8"/>
-        <v>491340</v>
+        <v>811548</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ref="F20:F30" si="11">B20/(SUM(B20:D20))</f>
-        <v>0.41191292154976494</v>
+        <v>0.41266007019251755</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:G30" si="12">(B20-D20+E20/2)*10</f>
-        <v>-5574370</v>
+        <v>-9060770</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ref="H20:H30" si="13">B20/D20</f>
-        <v>0.83831952823776867</v>
+        <v>0.83987143829113653</v>
+      </c>
+      <c r="J20">
+        <v>2716494</v>
+      </c>
+      <c r="K20">
+        <v>622850</v>
+      </c>
+      <c r="L20">
+        <v>3225238</v>
+      </c>
+      <c r="M20">
+        <v>320208</v>
       </c>
       <c r="N20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3486400</v>
       </c>
       <c r="T20">
         <f t="shared" si="10"/>
@@ -3292,35 +3309,47 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="5"/>
-        <v>3391857</v>
+        <v>5610584</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
-        <v>504917</v>
+        <v>820275</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
-        <v>6874074</v>
+        <v>11335286</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>525177</v>
+        <v>867960</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="11"/>
-        <v>0.31491085938637331</v>
+        <v>0.31580199306039664</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="12"/>
-        <v>-32196285</v>
+        <v>-52907220</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="13"/>
-        <v>0.49342747837745127</v>
+        <v>0.49496624963851815</v>
+      </c>
+      <c r="J21">
+        <v>2218727</v>
+      </c>
+      <c r="K21">
+        <v>315358</v>
+      </c>
+      <c r="L21">
+        <v>4461212</v>
+      </c>
+      <c r="M21">
+        <v>342783</v>
       </c>
       <c r="N21">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-20710935</v>
       </c>
       <c r="T21">
         <f t="shared" si="10"/>
@@ -3337,35 +3366,47 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="5"/>
-        <v>3415108</v>
+        <v>5645019</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
-        <v>557392</v>
+        <v>906553</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
-        <v>6800618</v>
+        <v>11215714</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="8"/>
-        <v>523362</v>
+        <v>863132</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="11"/>
-        <v>0.31700274702272824</v>
+        <v>0.31771982507626656</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="12"/>
-        <v>-31238290</v>
+        <v>-51391290</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="13"/>
-        <v>0.50217612575798254</v>
+        <v>0.50331338691410998</v>
+      </c>
+      <c r="J22">
+        <v>2229911</v>
+      </c>
+      <c r="K22">
+        <v>349161</v>
+      </c>
+      <c r="L22">
+        <v>4415096</v>
+      </c>
+      <c r="M22">
+        <v>339770</v>
       </c>
       <c r="N22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-20153000</v>
       </c>
       <c r="T22">
         <f t="shared" si="10"/>
@@ -3382,35 +3423,47 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="5"/>
-        <v>4137166</v>
+        <v>6837669</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
-        <v>1071883</v>
+        <v>1755452</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="7"/>
-        <v>4960320</v>
+        <v>8178863</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="8"/>
-        <v>494613</v>
+        <v>816329</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="11"/>
-        <v>0.40682622491129983</v>
+        <v>0.40768396869446094</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="12"/>
-        <v>-5758475</v>
+        <v>-9330295</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="13"/>
-        <v>0.8340522385652539</v>
+        <v>0.8360170600730199</v>
+      </c>
+      <c r="J23">
+        <v>2700503</v>
+      </c>
+      <c r="K23">
+        <v>683569</v>
+      </c>
+      <c r="L23">
+        <v>3218543</v>
+      </c>
+      <c r="M23">
+        <v>321716</v>
       </c>
       <c r="N23">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3571820</v>
       </c>
       <c r="T23">
         <f t="shared" si="10"/>
@@ -3427,35 +3480,47 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>4443056</v>
+        <v>7342973</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
-        <v>811052</v>
+        <v>1324342</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
-        <v>5969655</v>
+        <v>9845039</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="8"/>
-        <v>537346</v>
+        <v>887188</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="11"/>
-        <v>0.39586153057579709</v>
+        <v>0.39665258129787279</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="12"/>
-        <v>-12579260</v>
+        <v>-20584720</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="13"/>
-        <v>0.74427349654209496</v>
+        <v>0.74585514592679625</v>
+      </c>
+      <c r="J24">
+        <v>2899917</v>
+      </c>
+      <c r="K24">
+        <v>513290</v>
+      </c>
+      <c r="L24">
+        <v>3875384</v>
+      </c>
+      <c r="M24">
+        <v>349842</v>
       </c>
       <c r="N24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-8005460</v>
       </c>
       <c r="T24">
         <f t="shared" si="10"/>
@@ -3472,35 +3537,47 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>3709505</v>
+        <v>6128864</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
-        <v>729179</v>
+        <v>1191131</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
-        <v>4617773</v>
+        <v>7614343</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="8"/>
-        <v>459869</v>
+        <v>758309</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="11"/>
-        <v>0.40959781512792476</v>
+        <v>0.41038739045547246</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="12"/>
-        <v>-6783335</v>
+        <v>-11063245</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="13"/>
-        <v>0.80331038359832763</v>
+        <v>0.80491041709048305</v>
+      </c>
+      <c r="J25">
+        <v>2419359</v>
+      </c>
+      <c r="K25">
+        <v>461952</v>
+      </c>
+      <c r="L25">
+        <v>2996570</v>
+      </c>
+      <c r="M25">
+        <v>298440</v>
       </c>
       <c r="N25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4279910</v>
       </c>
       <c r="T25">
         <f t="shared" si="10"/>
@@ -3517,35 +3594,47 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>4330730</v>
+        <v>7157043</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
-        <v>999536</v>
+        <v>1635963</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>5156381</v>
+        <v>8502958</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="8"/>
-        <v>507644</v>
+        <v>837890</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="11"/>
-        <v>0.41297566324107221</v>
+        <v>0.41379844453885312</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="12"/>
-        <v>-5718290</v>
+        <v>-9269700</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="13"/>
-        <v>0.83987781352851931</v>
+        <v>0.8417121429977662</v>
+      </c>
+      <c r="J26">
+        <v>2826313</v>
+      </c>
+      <c r="K26">
+        <v>636427</v>
+      </c>
+      <c r="L26">
+        <v>3346577</v>
+      </c>
+      <c r="M26">
+        <v>330246</v>
       </c>
       <c r="N26">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3551410</v>
       </c>
       <c r="T26">
         <f t="shared" si="10"/>
@@ -3562,35 +3651,47 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>4160909</v>
+        <v>6876766</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1064969</v>
+        <v>1743946</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>4998382</v>
+        <v>8241942</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
-        <v>496760</v>
+        <v>819843</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="11"/>
-        <v>0.40696431820004575</v>
+        <v>0.40781041940373086</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="12"/>
-        <v>-5890930</v>
+        <v>-9552545</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="13"/>
-        <v>0.83245118120223704</v>
+        <v>0.83436233839063656</v>
+      </c>
+      <c r="J27">
+        <v>2715857</v>
+      </c>
+      <c r="K27">
+        <v>678977</v>
+      </c>
+      <c r="L27">
+        <v>3243560</v>
+      </c>
+      <c r="M27">
+        <v>323083</v>
       </c>
       <c r="N27">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3661615</v>
       </c>
       <c r="T27">
         <f t="shared" si="10"/>
@@ -3607,35 +3708,47 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
-        <v>4158446</v>
+        <v>6872346</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>908384</v>
+        <v>1486795</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>5080551</v>
+        <v>8376777</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="8"/>
-        <v>496877</v>
+        <v>819927</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="11"/>
-        <v>0.4098048550655583</v>
+        <v>0.410634540632907</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="12"/>
-        <v>-6736665</v>
+        <v>-10944675</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="13"/>
-        <v>0.81850295371505966</v>
+        <v>0.82040455416206015</v>
+      </c>
+      <c r="J28">
+        <v>2713900</v>
+      </c>
+      <c r="K28">
+        <v>578411</v>
+      </c>
+      <c r="L28">
+        <v>3296226</v>
+      </c>
+      <c r="M28">
+        <v>323050</v>
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4208010</v>
       </c>
       <c r="T28">
         <f t="shared" si="10"/>
@@ -3652,35 +3765,47 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>4384065</v>
+        <v>7244541</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>934878</v>
+        <v>1528600</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>5075531</v>
+        <v>8369356</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>524074</v>
+        <v>864424</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="11"/>
-        <v>0.42176881677706829</v>
+        <v>0.42260710327089457</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="12"/>
-        <v>-4294290</v>
+        <v>-6926030</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="13"/>
-        <v>0.86376479623511315</v>
+        <v>0.86560315990859993</v>
+      </c>
+      <c r="J29">
+        <v>2860476</v>
+      </c>
+      <c r="K29">
+        <v>593722</v>
+      </c>
+      <c r="L29">
+        <v>3293825</v>
+      </c>
+      <c r="M29">
+        <v>340350</v>
       </c>
       <c r="N29">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2631740</v>
       </c>
       <c r="T29">
         <f t="shared" si="10"/>
@@ -3697,35 +3822,47 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>4404724</v>
+        <v>7280301</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
-        <v>729945</v>
+        <v>1189499</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>6542626</v>
+        <v>10789475</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="8"/>
-        <v>558990</v>
+        <v>922296</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="11"/>
-        <v>0.37720413845843581</v>
+        <v>0.37801531989132509</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="12"/>
-        <v>-18584070</v>
+        <v>-30480260</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="13"/>
-        <v>0.67323487541546778</v>
+        <v>0.67475952259030214</v>
+      </c>
+      <c r="J30">
+        <v>2875577</v>
+      </c>
+      <c r="K30">
+        <v>459554</v>
+      </c>
+      <c r="L30">
+        <v>4246849</v>
+      </c>
+      <c r="M30">
+        <v>363306</v>
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-11896190</v>
       </c>
       <c r="T30">
         <f t="shared" si="10"/>
@@ -3747,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB2AC3-9D80-4096-9D36-672416D3269F}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,6 +3893,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -3842,20 +3980,20 @@
         <v>-34728300</v>
       </c>
       <c r="P2">
-        <v>43</v>
+        <v>2432116</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>401207</v>
       </c>
       <c r="R2">
-        <v>122</v>
+        <v>5316748</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>394384</v>
       </c>
       <c r="U2">
         <f>(P2-R2+S2/2)*10</f>
-        <v>-770</v>
+        <v>-26874400</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3895,20 +4033,20 @@
         <v>-5977850</v>
       </c>
       <c r="P3">
-        <v>80</v>
+        <v>3504383</v>
       </c>
       <c r="Q3">
-        <v>17</v>
+        <v>766908</v>
       </c>
       <c r="R3">
-        <v>87</v>
+        <v>4157863</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>404347</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U13" si="2">(P3-R3+S3/2)*10</f>
-        <v>-35</v>
+        <v>-4513065</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3948,20 +4086,20 @@
         <v>-36423170</v>
       </c>
       <c r="P4">
-        <v>66</v>
+        <v>2799779</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>344660</v>
       </c>
       <c r="R4">
-        <v>122</v>
+        <v>5829285</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>433110</v>
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>-510</v>
+        <v>-28129510</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4001,20 +4139,20 @@
         <v>-33659700</v>
       </c>
       <c r="P5">
-        <v>47</v>
+        <v>2869006</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>399429</v>
       </c>
       <c r="R5">
-        <v>137</v>
+        <v>5691119</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>430037</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>-850</v>
+        <v>-26070945</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4054,20 +4192,20 @@
         <v>-6062130</v>
       </c>
       <c r="P6">
-        <v>72</v>
+        <v>3485525</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>849516</v>
       </c>
       <c r="R6">
-        <v>92</v>
+        <v>4149603</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>407011</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>-170</v>
+        <v>-4605725</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4107,20 +4245,20 @@
         <v>-13424380</v>
       </c>
       <c r="P7">
-        <v>84</v>
+        <v>3734726</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>600359</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>4982104</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>444362</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>-105</v>
+        <v>-10251970</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4160,20 +4298,20 @@
         <v>-6396760</v>
       </c>
       <c r="P8">
-        <v>63</v>
+        <v>2739477</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>524886</v>
       </c>
       <c r="R8">
-        <v>74</v>
+        <v>3396024</v>
       </c>
       <c r="S8">
-        <v>9</v>
+        <v>331320</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>-65</v>
+        <v>-4908870</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4213,20 +4351,20 @@
         <v>-6172140</v>
       </c>
       <c r="P9">
-        <v>84</v>
+        <v>3642877</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>758413</v>
       </c>
       <c r="R9">
-        <v>89</v>
+        <v>4313258</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>417216</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>-15</v>
+        <v>-4617730</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -4266,20 +4404,20 @@
         <v>-6257965</v>
       </c>
       <c r="P10">
-        <v>75</v>
+        <v>3511855</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>833475</v>
       </c>
       <c r="R10">
-        <v>90</v>
+        <v>4189722</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>409540</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>-120</v>
+        <v>-4730970</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4319,20 +4457,20 @@
         <v>-7773880</v>
       </c>
       <c r="P11">
-        <v>62</v>
+        <v>3109386</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>610839</v>
       </c>
       <c r="R11">
-        <v>91</v>
+        <v>3886830</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>370022</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>-250</v>
+        <v>-5924330</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4372,20 +4510,20 @@
         <v>-4622100</v>
       </c>
       <c r="P12">
-        <v>91</v>
+        <v>3573302</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>674142</v>
       </c>
       <c r="R12">
-        <v>90</v>
+        <v>4134456</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>418697</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>-3518055</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4425,20 +4563,20 @@
         <v>-19747425</v>
       </c>
       <c r="P13">
-        <v>83</v>
+        <v>3706367</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>514052</v>
       </c>
       <c r="R13">
-        <v>114</v>
+        <v>5451239</v>
       </c>
       <c r="S13">
-        <v>9</v>
+        <v>460924</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>-265</v>
+        <v>-15144100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,27 +4606,27 @@
       </c>
       <c r="B22" s="1">
         <f>B2+I2+P2</f>
-        <v>3724778</v>
+        <v>6156851</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:E22" si="3">C2+J2+Q2</f>
-        <v>646086</v>
+        <v>1047283</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>8200283</v>
+        <v>13516909</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>608656</v>
+        <v>1003036</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.29629579544332746</v>
+        <v>0.29713036163285794</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-41711770</v>
+        <v>-68585400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4497,27 +4635,27 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23:B33" si="4">B3+I3+P3</f>
-        <v>5379473</v>
+        <v>8883776</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C33" si="5">C3+J3+Q3</f>
-        <v>1210992</v>
+        <v>1977883</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D33" si="6">D3+K3+R3</f>
-        <v>6411153</v>
+        <v>10568929</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ref="E23:E33" si="7">E3+L3+S3</f>
-        <v>624755</v>
+        <v>1029095</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="8">B23/(SUM(B23:D23))</f>
-        <v>0.41375411891043101</v>
+        <v>0.41453720261898552</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="9">(B23-D23+E23/2)*10</f>
-        <v>-7193025</v>
+        <v>-11706055</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,27 +4664,27 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="4"/>
-        <v>4286191</v>
+        <v>7085904</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
-        <v>560445</v>
+        <v>905098</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="6"/>
-        <v>8994475</v>
+        <v>14823638</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="7"/>
-        <v>668220</v>
+        <v>1101320</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="8"/>
-        <v>0.30967102279578568</v>
+        <v>0.31058583435899056</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>-43741740</v>
+        <v>-71870740</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4555,27 +4693,27 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="4"/>
-        <v>4400585</v>
+        <v>7269544</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
-        <v>643513</v>
+        <v>1042932</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>8774431</v>
+        <v>14465413</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="7"/>
-        <v>663736</v>
+        <v>1093763</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="8"/>
-        <v>0.31845538696629722</v>
+        <v>0.31914915381315628</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="9"/>
-        <v>-40419780</v>
+        <v>-66489875</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4584,27 +4722,27 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>5352662</v>
+        <v>8838115</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>1336705</v>
+        <v>2186201</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>6397908</v>
+        <v>10547419</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="7"/>
-        <v>629330</v>
+        <v>1036335</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="8"/>
-        <v>0.40899744217188072</v>
+        <v>0.4097081203714027</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="9"/>
-        <v>-7305810</v>
+        <v>-11911365</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4613,27 +4751,27 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>5729765</v>
+        <v>9464407</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>954690</v>
+        <v>1555034</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>7686098</v>
+        <v>12668102</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="7"/>
-        <v>686188</v>
+        <v>1130539</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="8"/>
-        <v>0.39871569312607524</v>
+        <v>0.39955207680256244</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="9"/>
-        <v>-16132390</v>
+        <v>-26384255</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,27 +4780,27 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>4201892</v>
+        <v>6941306</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>831972</v>
+        <v>1356847</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>5227199</v>
+        <v>8623149</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>512331</v>
+        <v>843642</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="8"/>
-        <v>0.40949870398417787</v>
+        <v>0.41021110550476553</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="9"/>
-        <v>-7691415</v>
+        <v>-12600220</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4671,27 +4809,27 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>5589331</v>
+        <v>9232124</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>1197458</v>
+        <v>1955855</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>6653887</v>
+        <v>10967056</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="7"/>
-        <v>643515</v>
+        <v>1060724</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>0.41585192590015563</v>
+        <v>0.41670545769844192</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="9"/>
-        <v>-7427985</v>
+        <v>-12045700</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4700,27 +4838,27 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>5390724</v>
+        <v>8902504</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>1313194</v>
+        <v>2146648</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>6460938</v>
+        <v>10650570</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="7"/>
-        <v>632512</v>
+        <v>1042046</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="8"/>
-        <v>0.40947838700248601</v>
+        <v>0.41025889640429497</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="9"/>
-        <v>-7539580</v>
+        <v>-12270430</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,27 +4867,27 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>4775122</v>
+        <v>7884446</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>968201</v>
+        <v>1579029</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>5995947</v>
+        <v>9882686</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="7"/>
-        <v>572934</v>
+        <v>942948</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="8"/>
-        <v>0.40676481587015206</v>
+        <v>0.40754576579818602</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="9"/>
-        <v>-9343580</v>
+        <v>-15267660</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4758,27 +4896,27 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>5491006</v>
+        <v>9064217</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
-        <v>1067250</v>
+        <v>1741377</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>6372221</v>
+        <v>10506587</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="7"/>
-        <v>647921</v>
+        <v>1066607</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="8"/>
-        <v>0.4246561051073367</v>
+        <v>0.42530687028230474</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="9"/>
-        <v>-5572545</v>
+        <v>-9090665</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,27 +4925,27 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" si="4"/>
-        <v>5685336</v>
+        <v>9391620</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="5"/>
-        <v>822109</v>
+        <v>1336150</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="6"/>
-        <v>8410116</v>
+        <v>13861241</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="7"/>
-        <v>711016</v>
+        <v>1171931</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="8"/>
-        <v>0.38111699358896539</v>
+        <v>0.38194378781643556</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="9"/>
-        <v>-23692720</v>
+        <v>-38836555</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4820,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5792,27 +5930,27 @@
       </c>
       <c r="B22" s="1">
         <f>B2+H2+N2+T2+I22+P22+W22+P37+I37+B37</f>
-        <v>4114191</v>
+        <v>6892636</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:E22" si="4">C2+I2+O2+U2+J22+Q22+X22+Q37+J37+C37</f>
-        <v>706169</v>
+        <v>1159225</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="4"/>
-        <v>9050288</v>
+        <v>15113495</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>665824</v>
+        <v>1111478</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.29661130467733016</v>
+        <v>0.29754068964016783</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-46031850</v>
+        <v>-76651200</v>
       </c>
       <c r="I22">
         <v>42</v>
@@ -5830,9 +5968,21 @@
         <f>(I22-K22+L22/2)*10</f>
         <v>-1160</v>
       </c>
+      <c r="P22">
+        <v>2778445</v>
+      </c>
+      <c r="Q22">
+        <v>453056</v>
+      </c>
+      <c r="R22">
+        <v>6063207</v>
+      </c>
+      <c r="S22">
+        <v>445654</v>
+      </c>
       <c r="U22">
         <f>(P22-R22+S22/2)*10</f>
-        <v>0</v>
+        <v>-30619350</v>
       </c>
       <c r="AB22">
         <f>(W22-Y22+Z22/2)*10</f>
@@ -5845,27 +5995,27 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23:B33" si="5">B3+H3+N3+T3+I23+P23+W23+P38+I38+B38</f>
-        <v>5934707</v>
+        <v>9932278</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C33" si="6">C3+I3+O3+U3+J23+Q23+X23+Q38+J38+C38</f>
-        <v>1312673</v>
+        <v>2172141</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D33" si="7">D3+J3+P3+V3+K23+R23+Y23+R38+K38+D38</f>
-        <v>7078488</v>
+        <v>11822048</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ref="E23:E33" si="8">E3+K3+Q3+W3+L23+S23+Z23+S38+L38+E38</f>
-        <v>685306</v>
+        <v>1144014</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="9">B23/(SUM(B23:D23))</f>
-        <v>0.41426509025491509</v>
+        <v>0.41511678259895202</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="10">(B23-D23+E23/2)*10</f>
-        <v>-8011280</v>
+        <v>-13177630</v>
       </c>
       <c r="I23">
         <v>66</v>
@@ -5883,9 +6033,21 @@
         <f t="shared" ref="N23:N33" si="11">(I23-K23+L23/2)*10</f>
         <v>120</v>
       </c>
+      <c r="P23">
+        <v>3997571</v>
+      </c>
+      <c r="Q23">
+        <v>859468</v>
+      </c>
+      <c r="R23">
+        <v>4743560</v>
+      </c>
+      <c r="S23">
+        <v>458708</v>
+      </c>
       <c r="U23">
         <f t="shared" ref="U23:U33" si="12">(P23-R23+S23/2)*10</f>
-        <v>0</v>
+        <v>-5166350</v>
       </c>
       <c r="AB23">
         <f t="shared" ref="AB23:AB33" si="13">(W23-Y23+Z23/2)*10</f>
@@ -5898,27 +6060,27 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>4684102</v>
+        <v>7845857</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
-        <v>580117</v>
+        <v>947495</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
-        <v>9993648</v>
+        <v>16689659</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="8"/>
-        <v>732967</v>
+        <v>1224502</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="9"/>
-        <v>0.30699585990623723</v>
+        <v>0.30788579104721964</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="10"/>
-        <v>-49430625</v>
+        <v>-82315510</v>
       </c>
       <c r="I24">
         <v>48</v>
@@ -5936,9 +6098,21 @@
         <f t="shared" si="11"/>
         <v>-415</v>
       </c>
+      <c r="P24">
+        <v>3161755</v>
+      </c>
+      <c r="Q24">
+        <v>367378</v>
+      </c>
+      <c r="R24">
+        <v>6696011</v>
+      </c>
+      <c r="S24">
+        <v>491535</v>
+      </c>
       <c r="U24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-32884885</v>
       </c>
       <c r="AB24">
         <f t="shared" si="13"/>
@@ -5951,27 +6125,27 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>4846824</v>
+        <v>8118592</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
-        <v>683658</v>
+        <v>1120974</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
-        <v>9689745</v>
+        <v>16179894</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="8"/>
-        <v>725845</v>
+        <v>1213172</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="9"/>
-        <v>0.31844623605153854</v>
+        <v>0.31938491218932269</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="10"/>
-        <v>-44799985</v>
+        <v>-74547160</v>
       </c>
       <c r="I25">
         <v>58</v>
@@ -5989,9 +6163,21 @@
         <f t="shared" si="11"/>
         <v>-200</v>
       </c>
+      <c r="P25">
+        <v>3271768</v>
+      </c>
+      <c r="Q25">
+        <v>437316</v>
+      </c>
+      <c r="R25">
+        <v>6490149</v>
+      </c>
+      <c r="S25">
+        <v>487327</v>
+      </c>
       <c r="U25">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-29747175</v>
       </c>
       <c r="AB25">
         <f t="shared" si="13"/>
@@ -6004,27 +6190,27 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>5910442</v>
+        <v>9891801</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
-        <v>1454481</v>
+        <v>2409110</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>7054833</v>
+        <v>11781984</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="8"/>
-        <v>689838</v>
+        <v>1152253</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="9"/>
-        <v>0.40988502163282098</v>
+        <v>0.41073969720002518</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="10"/>
-        <v>-7994720</v>
+        <v>-13140565</v>
       </c>
       <c r="I26">
         <v>62</v>
@@ -6042,9 +6228,21 @@
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
+      <c r="P26">
+        <v>3981359</v>
+      </c>
+      <c r="Q26">
+        <v>954629</v>
+      </c>
+      <c r="R26">
+        <v>4727151</v>
+      </c>
+      <c r="S26">
+        <v>462415</v>
+      </c>
       <c r="U26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5145845</v>
       </c>
       <c r="AB26">
         <f t="shared" si="13"/>
@@ -6057,27 +6255,27 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>6321121</v>
+        <v>10581075</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1016392</v>
+        <v>1673913</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>8473069</v>
+        <v>14150342</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
-        <v>753627</v>
+        <v>1258202</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="9"/>
-        <v>0.39980318245084212</v>
+        <v>0.40071739304148063</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="10"/>
-        <v>-17751345</v>
+        <v>-29401660</v>
       </c>
       <c r="I27">
         <v>65</v>
@@ -6095,9 +6293,21 @@
         <f t="shared" si="11"/>
         <v>-45</v>
       </c>
+      <c r="P27">
+        <v>4259954</v>
+      </c>
+      <c r="Q27">
+        <v>657521</v>
+      </c>
+      <c r="R27">
+        <v>5677273</v>
+      </c>
+      <c r="S27">
+        <v>504575</v>
+      </c>
       <c r="U27">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-11650315</v>
       </c>
       <c r="AB27">
         <f t="shared" si="13"/>
@@ -6110,27 +6320,27 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
-        <v>4100456</v>
+        <v>6866960</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>812693</v>
+        <v>1341964</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>5081081</v>
+        <v>8492427</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="8"/>
-        <v>494742</v>
+        <v>826558</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="9"/>
-        <v>0.41028233290608679</v>
+        <v>0.41116194731791456</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="10"/>
-        <v>-7332540</v>
+        <v>-12121880</v>
       </c>
       <c r="I28">
         <v>39</v>
@@ -6148,9 +6358,21 @@
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
+      <c r="P28">
+        <v>2766504</v>
+      </c>
+      <c r="Q28">
+        <v>529271</v>
+      </c>
+      <c r="R28">
+        <v>3411346</v>
+      </c>
+      <c r="S28">
+        <v>331816</v>
+      </c>
       <c r="U28">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4789340</v>
       </c>
       <c r="AB28">
         <f t="shared" si="13"/>
@@ -6163,27 +6385,27 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>6165301</v>
+        <v>10317952</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>1293010</v>
+        <v>2139389</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>7340353</v>
+        <v>12258723</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>706470</v>
+        <v>1180333</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="9"/>
-        <v>0.41661199956969086</v>
+        <v>0.41745934951455055</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="10"/>
-        <v>-8218170</v>
+        <v>-13506045</v>
       </c>
       <c r="I29">
         <v>64</v>
@@ -6201,9 +6423,21 @@
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
+      <c r="P29">
+        <v>4152651</v>
+      </c>
+      <c r="Q29">
+        <v>846379</v>
+      </c>
+      <c r="R29">
+        <v>4918370</v>
+      </c>
+      <c r="S29">
+        <v>473863</v>
+      </c>
       <c r="U29">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5287875</v>
       </c>
       <c r="AB29">
         <f t="shared" si="13"/>
@@ -6216,27 +6450,27 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>5955598</v>
+        <v>9967213</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
-        <v>1425101</v>
+        <v>2359187</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>7128855</v>
+        <v>11906329</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="8"/>
-        <v>694714</v>
+        <v>1160386</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="9"/>
-        <v>0.41046044557951267</v>
+        <v>0.41131203175672043</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="10"/>
-        <v>-8259000</v>
+        <v>-13589230</v>
       </c>
       <c r="I30">
         <v>59</v>
@@ -6254,9 +6488,21 @@
         <f t="shared" si="11"/>
         <v>-10</v>
       </c>
+      <c r="P30">
+        <v>4011615</v>
+      </c>
+      <c r="Q30">
+        <v>934086</v>
+      </c>
+      <c r="R30">
+        <v>4777474</v>
+      </c>
+      <c r="S30">
+        <v>465672</v>
+      </c>
       <c r="U30">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5330230</v>
       </c>
       <c r="AB30">
         <f t="shared" si="13"/>
@@ -6269,27 +6515,27 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="5"/>
-        <v>4723799</v>
+        <v>7909252</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
-        <v>940215</v>
+        <v>1553320</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
-        <v>6034841</v>
+        <v>10082495</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="8"/>
-        <v>568640</v>
+        <v>950023</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="9"/>
-        <v>0.40378301979125308</v>
+        <v>0.40466742835928882</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="10"/>
-        <v>-10267220</v>
+        <v>-16982315</v>
       </c>
       <c r="I31">
         <v>59</v>
@@ -6307,9 +6553,21 @@
         <f t="shared" si="11"/>
         <v>-25</v>
       </c>
+      <c r="P31">
+        <v>3185453</v>
+      </c>
+      <c r="Q31">
+        <v>613105</v>
+      </c>
+      <c r="R31">
+        <v>4047654</v>
+      </c>
+      <c r="S31">
+        <v>381383</v>
+      </c>
       <c r="U31">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6715095</v>
       </c>
       <c r="AB31">
         <f t="shared" si="13"/>
@@ -6322,27 +6580,27 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="5"/>
-        <v>5873009</v>
+        <v>9826538</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
-        <v>1112751</v>
+        <v>1837798</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>6822227</v>
+        <v>11395207</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="8"/>
-        <v>688934</v>
+        <v>1151585</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="9"/>
-        <v>0.42533419244963078</v>
+        <v>0.42613758650811079</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="10"/>
-        <v>-6047510</v>
+        <v>-9928765</v>
       </c>
       <c r="I32">
         <v>59</v>
@@ -6360,9 +6618,21 @@
         <f t="shared" si="11"/>
         <v>-100</v>
       </c>
+      <c r="P32">
+        <v>3953529</v>
+      </c>
+      <c r="Q32">
+        <v>725047</v>
+      </c>
+      <c r="R32">
+        <v>4572980</v>
+      </c>
+      <c r="S32">
+        <v>462651</v>
+      </c>
       <c r="U32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3881255</v>
       </c>
       <c r="AB32">
         <f t="shared" si="13"/>
@@ -6375,27 +6645,27 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="5"/>
-        <v>6271367</v>
+        <v>10495421</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
-        <v>869614</v>
+        <v>1428934</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
-        <v>9267980</v>
+        <v>15480987</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="8"/>
-        <v>780861</v>
+        <v>1304162</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="9"/>
-        <v>0.38219159640881589</v>
+        <v>0.38296989689090544</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="10"/>
-        <v>-26061825</v>
+        <v>-43334850</v>
       </c>
       <c r="I33">
         <v>67</v>
@@ -6413,9 +6683,21 @@
         <f t="shared" si="11"/>
         <v>-105</v>
       </c>
+      <c r="P33">
+        <v>4224054</v>
+      </c>
+      <c r="Q33">
+        <v>559320</v>
+      </c>
+      <c r="R33">
+        <v>6213007</v>
+      </c>
+      <c r="S33">
+        <v>523301</v>
+      </c>
       <c r="U33">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-17273025</v>
       </c>
       <c r="AB33">
         <f t="shared" si="13"/>
@@ -6957,13 +7239,15 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7019,20 +7303,20 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2767448</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>448025</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>6044568</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>443273</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F13" si="0">(B2-D2+E2/2)*10</f>
-        <v>-80</v>
+        <v>-30554835</v>
       </c>
       <c r="H2">
         <v>721548</v>
@@ -7072,20 +7356,20 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>3983518</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>849359</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>4724343</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>456076</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>-5127870</v>
       </c>
       <c r="H3">
         <v>1039541</v>
@@ -7125,20 +7409,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>3130014</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>353025</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>6699544</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>488437</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>-145</v>
+        <v>-33253115</v>
       </c>
       <c r="H4">
         <v>813876</v>
@@ -7178,20 +7462,20 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>3259726</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>424585</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>6466443</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>483722</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-29648560</v>
       </c>
       <c r="H5">
         <v>850885</v>
@@ -7231,20 +7515,20 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>3967673</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>942717</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>4710078</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>459870</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-5124700</v>
       </c>
       <c r="H6">
         <v>1035599</v>
@@ -7284,20 +7568,20 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>4242094</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>641704</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>5654985</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>500839</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-11624715</v>
       </c>
       <c r="H7">
         <v>1107454</v>
@@ -7337,20 +7621,20 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2454051</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>468083</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>3005392</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>291747</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>-4054675</v>
       </c>
       <c r="H8">
         <v>639442</v>
@@ -7390,20 +7674,20 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>4136571</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>833152</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>4899016</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>470706</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>-5270920</v>
       </c>
       <c r="H9">
         <v>1079229</v>
@@ -7443,20 +7727,20 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>3999348</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>921623</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>4760346</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>462414</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>-5297910</v>
       </c>
       <c r="H10">
         <v>1042775</v>
@@ -7496,20 +7780,20 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>2882064</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>549576</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>3696100</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>346262</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>-6409050</v>
       </c>
       <c r="H11">
         <v>751004</v>
@@ -7549,20 +7833,20 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>3814015</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>689988</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>4411214</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>445107</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>-3746455</v>
       </c>
       <c r="H12">
         <v>997508</v>
@@ -7602,20 +7886,20 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>4208745</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>543608</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>6184707</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>519426</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-17162490</v>
       </c>
       <c r="H13">
         <v>1098494</v>
@@ -7650,7 +7934,7 @@
         <v>-22376745</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -7670,356 +7954,419 @@
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B33" si="3">B2+H2+N2</f>
-        <v>4251112</v>
+        <f>B2+H2+N2+I22</f>
+        <v>7018547</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:C33" si="4">C2+I2+O2</f>
-        <v>726387</v>
+        <f t="shared" ref="C22:E22" si="3">C2+I2+O2+J22</f>
+        <v>1174411</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D33" si="5">D2+J2+P2</f>
-        <v>9356083</v>
+        <f t="shared" si="3"/>
+        <v>15400629</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E33" si="6">E2+K2+Q2</f>
-        <v>686084</v>
+        <f t="shared" si="3"/>
+        <v>1129355</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.29658406391368186</v>
+        <v>0.2974768948867334</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-47619290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-78174045</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M33" si="4">(I22-K22+L22/2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="3"/>
-        <v>6131527</v>
+        <f t="shared" ref="B23:B33" si="5">B3+H3+N3+I23</f>
+        <v>10115023</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" ref="C23:C33" si="6">C3+I3+O3+J23</f>
+        <v>2196057</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:D33" si="7">D3+J3+P3+K23</f>
+        <v>12041054</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E33" si="8">E3+K3+Q3+L23</f>
+        <v>1161803</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F33" si="9">B23/(SUM(B23:D23))</f>
+        <v>0.4153649532316141</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G33" si="10">(B23-D23+E23/2)*10</f>
+        <v>-13451295</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
-        <v>1346699</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="5"/>
-        <v>7316723</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="6"/>
-        <v>705728</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ref="F23:F33" si="7">B23/(SUM(B23:D23))</f>
-        <v>0.41443380440175903</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ref="G23:G33" si="8">(B23-D23+E23/2)*10</f>
-        <v>-8323320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="3"/>
-        <v>4808669</v>
+        <f t="shared" si="5"/>
+        <v>7938672</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>931988</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="7"/>
+        <v>17072954</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="8"/>
+        <v>1243750</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.30599715213154188</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="10"/>
+        <v>-85124070</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="4"/>
-        <v>578966</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="5"/>
-        <v>10373437</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="6"/>
-        <v>755316</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="7"/>
-        <v>0.30509783852265887</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="8"/>
-        <v>-51871100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="3"/>
-        <v>5010233</v>
+        <f t="shared" si="5"/>
+        <v>8269945</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>1118405</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>16475698</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="8"/>
+        <v>1232573</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.3197467387935562</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="10"/>
+        <v>-75894665</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
-        <v>693821</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="5"/>
-        <v>10009279</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="6"/>
-        <v>748851</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="7"/>
-        <v>0.31885234023870046</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="8"/>
-        <v>-46246205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="3"/>
-        <v>6104735</v>
+        <f t="shared" si="5"/>
+        <v>10072393</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>2436010</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>12003859</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="8"/>
+        <v>1170447</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="9"/>
+        <v>0.41091242415734625</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="10"/>
+        <v>-13462425</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
-        <v>1493296</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="5"/>
-        <v>7293801</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="6"/>
-        <v>710580</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="7"/>
-        <v>0.40993848171265967</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="8"/>
-        <v>-8337760</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="3"/>
-        <v>6529131</v>
+        <f t="shared" si="5"/>
+        <v>10771208</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>1672284</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="7"/>
+        <v>14409209</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="8"/>
+        <v>1274786</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40112195789913274</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="10"/>
+        <v>-30006080</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
-        <v>1030584</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="5"/>
-        <v>8754242</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="6"/>
-        <v>773948</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="7"/>
-        <v>0.40021749475004748</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="8"/>
-        <v>-18381370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="3"/>
-        <v>3776565</v>
+        <f t="shared" si="5"/>
+        <v>6230616</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>1213268</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>7663835</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="8"/>
+        <v>744334</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.41241275403652927</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="10"/>
+        <v>-10610520</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
-        <v>745186</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="5"/>
-        <v>4658450</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="6"/>
-        <v>452587</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="7"/>
-        <v>0.41138151550276514</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="8"/>
-        <v>-6555915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="3"/>
-        <v>6369533</v>
+        <f t="shared" si="5"/>
+        <v>10506085</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
+        <v>2154481</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="7"/>
+        <v>12483555</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="8"/>
+        <v>1198492</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.41783465009574206</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="10"/>
+        <v>-13782240</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="4"/>
-        <v>1321334</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="5"/>
-        <v>7584554</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>727788</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="7"/>
-        <v>0.41697921124399778</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="8"/>
-        <v>-8511270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="3"/>
-        <v>6150249</v>
+        <f t="shared" si="5"/>
+        <v>10149579</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
+        <v>2380532</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="7"/>
+        <v>12137362</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="8"/>
+        <v>1176762</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.4114559687569132</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="10"/>
+        <v>-13994020</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="4"/>
-        <v>1458912</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="5"/>
-        <v>7377031</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="6"/>
-        <v>714348</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="7"/>
-        <v>0.4103943817081751</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="8"/>
-        <v>-8696080</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="3"/>
-        <v>4433485</v>
+        <f t="shared" si="5"/>
+        <v>7315531</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
+        <v>1424549</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="7"/>
+        <v>9414501</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="8"/>
+        <v>880734</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40295785399839301</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="10"/>
+        <v>-16586030</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="4"/>
-        <v>874976</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="5"/>
-        <v>5718417</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="6"/>
-        <v>534474</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="7"/>
-        <v>0.40206167149033478</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="8"/>
-        <v>-10176950</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="3"/>
-        <v>5881835</v>
+        <f t="shared" si="5"/>
+        <v>9695829</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
+        <v>1790746</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="7"/>
+        <v>11247747</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="8"/>
+        <v>1133640</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="9"/>
+        <v>0.42648419425043771</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="10"/>
+        <v>-9850980</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
-        <v>1100759</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="5"/>
-        <v>6836550</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="6"/>
-        <v>688535</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="7"/>
-        <v>0.42562947458974304</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="8"/>
-        <v>-6104475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8">
-        <f t="shared" si="3"/>
-        <v>6477436</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="1">
+        <f t="shared" si="5"/>
+        <v>10686163</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="6"/>
+        <v>1422717</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="7"/>
+        <v>15758816</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="8"/>
+        <v>1322742</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="9"/>
+        <v>0.38346058461381233</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="10"/>
+        <v>-44112820</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="4"/>
-        <v>879113</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="5"/>
-        <v>9574127</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="6"/>
-        <v>803316</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="7"/>
-        <v>0.38258578688765882</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="8"/>
-        <v>-26950330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC/wyniki/bez idealnej/Wyniki.xlsx
+++ b/DOC/wyniki/bez idealnej/Wyniki.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF711160-7D67-406F-BE5D-1409A4CAC0A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F54B44-E4E2-4EE2-A938-D52A4B4292DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="29">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -117,21 +117,6 @@
   </si>
   <si>
     <t>win to loos</t>
-  </si>
-  <si>
-    <t>suma winów</t>
-  </si>
-  <si>
-    <t>suma blacków</t>
-  </si>
-  <si>
-    <t>z idealną</t>
-  </si>
-  <si>
-    <t>bez idealnej</t>
-  </si>
-  <si>
-    <t>stosunek</t>
   </si>
 </sst>
 </file>
@@ -526,17 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -2383,47 +2369,6 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I35" s="7"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39">
-        <f>SUM(B21:B33)</f>
-        <v>177750711</v>
-      </c>
-      <c r="C39">
-        <f>SUM(E21:E33)</f>
-        <v>22586749</v>
-      </c>
-      <c r="E39">
-        <f>84/18</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40">
-        <f>SUM(B21:B32)</f>
-        <v>177750711</v>
-      </c>
-      <c r="C40">
-        <f>SUM(E21:E32)</f>
-        <v>22586749</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/wyniki/bez idealnej/Wyniki.xlsx
+++ b/DOC/wyniki/bez idealnej/Wyniki.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F54B44-E4E2-4EE2-A938-D52A4B4292DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9915FFE-6D15-480F-ACA9-08C19A24E243}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="35">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -113,22 +113,49 @@
     <t>ile rund</t>
   </si>
   <si>
-    <t>loos to all</t>
+    <t>win to loos</t>
   </si>
   <si>
-    <t>win to loos</t>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>wynik na rundę</t>
+  </si>
+  <si>
+    <t>winwin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +227,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -208,12 +237,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -221,16 +246,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,7 +280,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,16 +294,16 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="00B050"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="92D050"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FFFF00"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="FF0000"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="4472C4"/>
@@ -511,1867 +540,2022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
+      <c r="V1" t="s">
+        <v>28</v>
       </c>
       <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Z1" t="s">
         <v>15</v>
       </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AB1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>SUM('1 Talia'!E19)</f>
+        <v>1683604</v>
+      </c>
+      <c r="C2">
+        <f>G2-B2</f>
+        <v>8398084</v>
+      </c>
+      <c r="D2">
+        <f>SUM('1 Talia'!C19)</f>
+        <v>1755169</v>
+      </c>
+      <c r="E2">
+        <f>SUM('1 Talia'!D19)</f>
+        <v>22181157</v>
+      </c>
+      <c r="F2">
+        <f>SUM('1 Talia'!G19)</f>
+        <v>-112576670</v>
+      </c>
+      <c r="G2">
         <f>SUM('1 Talia'!B19)</f>
-        <v>4759156</v>
-      </c>
-      <c r="C2">
-        <f>SUM('1 Talia'!C19)</f>
-        <v>839857</v>
-      </c>
-      <c r="D2">
-        <f>SUM('1 Talia'!D19)</f>
-        <v>10490852</v>
-      </c>
-      <c r="E2">
-        <f>SUM('1 Talia'!E19)</f>
-        <v>795917</v>
-      </c>
-      <c r="F2">
-        <f>SUM('1 Talia'!F19)</f>
-        <v>0.29578594972673794</v>
-      </c>
-      <c r="G2">
-        <f>SUM('1 Talia'!G19)</f>
-        <v>-53337375</v>
-      </c>
-      <c r="I2">
-        <f>SUM('2 Talie'!B22)</f>
-        <v>6156851</v>
+        <v>10081688</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
       </c>
       <c r="J2">
+        <f>SUM('2 Talie'!E22)</f>
+        <v>2127506</v>
+      </c>
+      <c r="K2">
+        <f>O2-J2</f>
+        <v>10959612</v>
+      </c>
+      <c r="L2">
         <f>SUM('2 Talie'!C22)</f>
-        <v>1047283</v>
-      </c>
-      <c r="K2">
+        <v>2194364</v>
+      </c>
+      <c r="M2">
         <f>SUM('2 Talie'!D22)</f>
-        <v>13516909</v>
-      </c>
-      <c r="L2">
-        <f>SUM('2 Talie'!E22)</f>
-        <v>1003036</v>
-      </c>
-      <c r="M2">
-        <f>SUM('2 Talie'!F22)</f>
-        <v>0.29713036163285794</v>
+        <v>28678315</v>
       </c>
       <c r="N2">
         <f>SUM('2 Talie'!G22)</f>
-        <v>-68585400</v>
-      </c>
-      <c r="P2">
+        <v>-145274440</v>
+      </c>
+      <c r="O2">
+        <f>SUM('2 Talie'!B22)</f>
+        <v>13087118</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>SUM('3 Talie'!E22)</f>
+        <v>2331904</v>
+      </c>
+      <c r="S2">
+        <f>W2-R2</f>
+        <v>12161244</v>
+      </c>
+      <c r="T2">
+        <f>SUM('3 Talie'!C22)</f>
+        <v>2398085</v>
+      </c>
+      <c r="U2">
+        <f>SUM('3 Talie'!D22)</f>
+        <v>31710030</v>
+      </c>
+      <c r="V2">
+        <f>SUM('3 Talie'!G22)</f>
+        <v>-160509300</v>
+      </c>
+      <c r="W2">
         <f>SUM('3 Talie'!B22)</f>
-        <v>6892636</v>
-      </c>
-      <c r="Q2">
-        <f>SUM('3 Talie'!C22)</f>
-        <v>1159225</v>
-      </c>
-      <c r="R2">
-        <f>SUM('3 Talie'!D22)</f>
-        <v>15113495</v>
-      </c>
-      <c r="S2">
-        <f>SUM('3 Talie'!E22)</f>
-        <v>1111478</v>
-      </c>
-      <c r="T2">
-        <f>SUM('3 Talie'!F22)</f>
-        <v>0.29754068964016783</v>
-      </c>
-      <c r="U2">
-        <f>SUM('3 Talie'!G22)</f>
-        <v>-76651200</v>
-      </c>
-      <c r="W2">
-        <f>SUM('4 Talie'!B22)</f>
-        <v>7018547</v>
-      </c>
-      <c r="X2">
-        <f>SUM('4 Talie'!C22)</f>
-        <v>1174411</v>
-      </c>
-      <c r="Y2">
-        <f>SUM('4 Talie'!D22)</f>
-        <v>15400629</v>
+        <v>14493148</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
       </c>
       <c r="Z2">
         <f>SUM('4 Talie'!E22)</f>
-        <v>1129355</v>
+        <v>2387675</v>
       </c>
       <c r="AA2">
-        <f>SUM('4 Talie'!F22)</f>
-        <v>0.2974768948867334</v>
+        <f>AE2-Z2</f>
+        <v>12498346</v>
       </c>
       <c r="AB2">
+        <f>SUM('4 Talie'!C22)</f>
+        <v>2452023</v>
+      </c>
+      <c r="AC2">
+        <f>SUM('4 Talie'!D22)</f>
+        <v>32571818</v>
+      </c>
+      <c r="AD2">
         <f>SUM('4 Talie'!G22)</f>
-        <v>-78174045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-164919595</v>
+      </c>
+      <c r="AE2">
+        <f>SUM('4 Talie'!B22)</f>
+        <v>14886021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
+        <f>SUM('1 Talia'!E20)</f>
+        <v>1718340</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">G3-B3</f>
+        <v>12852510</v>
+      </c>
+      <c r="D3">
+        <f>SUM('1 Talia'!C20)</f>
+        <v>3362069</v>
+      </c>
+      <c r="E3">
+        <f>SUM('1 Talia'!D20)</f>
+        <v>17318073</v>
+      </c>
+      <c r="F3">
+        <f>SUM('1 Talia'!G20)</f>
+        <v>-18880530</v>
+      </c>
+      <c r="G3">
         <f>SUM('1 Talia'!B20)</f>
-        <v>6880635</v>
-      </c>
-      <c r="C3">
-        <f>SUM('1 Talia'!C20)</f>
-        <v>1600736</v>
-      </c>
-      <c r="D3">
-        <f>SUM('1 Talia'!D20)</f>
-        <v>8192486</v>
-      </c>
-      <c r="E3">
-        <f>SUM('1 Talia'!E20)</f>
-        <v>811548</v>
-      </c>
-      <c r="F3">
-        <f>SUM('1 Talia'!F20)</f>
-        <v>0.41266007019251755</v>
-      </c>
-      <c r="G3">
-        <f>SUM('1 Talia'!G20)</f>
-        <v>-9060770</v>
-      </c>
-      <c r="I3">
-        <f>SUM('2 Talie'!B23)</f>
-        <v>8883776</v>
+        <v>14570850</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
       </c>
       <c r="J3">
+        <f>SUM('2 Talie'!E23)</f>
+        <v>2184999</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="1">O3-J3</f>
+        <v>16685196</v>
+      </c>
+      <c r="L3">
         <f>SUM('2 Talie'!C23)</f>
-        <v>1977883</v>
-      </c>
-      <c r="K3">
+        <v>4170388</v>
+      </c>
+      <c r="M3">
         <f>SUM('2 Talie'!D23)</f>
-        <v>10568929</v>
-      </c>
-      <c r="L3">
-        <f>SUM('2 Talie'!E23)</f>
-        <v>1029095</v>
-      </c>
-      <c r="M3">
-        <f>SUM('2 Talie'!F23)</f>
-        <v>0.41453720261898552</v>
+        <v>22425810</v>
       </c>
       <c r="N3">
         <f>SUM('2 Talie'!G23)</f>
-        <v>-11706055</v>
-      </c>
-      <c r="P3">
+        <v>-24631155</v>
+      </c>
+      <c r="O3">
+        <f>SUM('2 Talie'!B23)</f>
+        <v>18870195</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUM('3 Talie'!E23)</f>
+        <v>2399402</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S13" si="2">W3-R3</f>
+        <v>18467461</v>
+      </c>
+      <c r="T3">
+        <f>SUM('3 Talie'!C23)</f>
+        <v>4525448</v>
+      </c>
+      <c r="U3">
+        <f>SUM('3 Talie'!D23)</f>
+        <v>24805470</v>
+      </c>
+      <c r="V3">
+        <f>SUM('3 Talie'!G23)</f>
+        <v>-27389060</v>
+      </c>
+      <c r="W3">
         <f>SUM('3 Talie'!B23)</f>
-        <v>9932278</v>
-      </c>
-      <c r="Q3">
-        <f>SUM('3 Talie'!C23)</f>
-        <v>2172141</v>
-      </c>
-      <c r="R3">
-        <f>SUM('3 Talie'!D23)</f>
-        <v>11822048</v>
-      </c>
-      <c r="S3">
-        <f>SUM('3 Talie'!E23)</f>
-        <v>1144014</v>
-      </c>
-      <c r="T3">
-        <f>SUM('3 Talie'!F23)</f>
-        <v>0.41511678259895202</v>
-      </c>
-      <c r="U3">
-        <f>SUM('3 Talie'!G23)</f>
-        <v>-13177630</v>
-      </c>
-      <c r="W3">
-        <f>SUM('4 Talie'!B23)</f>
-        <v>10115023</v>
-      </c>
-      <c r="X3">
-        <f>SUM('4 Talie'!C23)</f>
-        <v>2196057</v>
-      </c>
-      <c r="Y3">
-        <f>SUM('4 Talie'!D23)</f>
-        <v>12041054</v>
+        <v>20866863</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
       </c>
       <c r="Z3">
         <f>SUM('4 Talie'!E23)</f>
-        <v>1161803</v>
+        <v>2457492</v>
       </c>
       <c r="AA3">
-        <f>SUM('4 Talie'!F23)</f>
-        <v>0.4153649532316141</v>
+        <f t="shared" ref="AA3:AA13" si="3">AE3-Z3</f>
+        <v>18973673</v>
       </c>
       <c r="AB3">
+        <f>SUM('4 Talie'!C23)</f>
+        <v>4610553</v>
+      </c>
+      <c r="AC3">
+        <f>SUM('4 Talie'!D23)</f>
+        <v>25474834</v>
+      </c>
+      <c r="AD3">
         <f>SUM('4 Talie'!G23)</f>
-        <v>-13451295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-28149230</v>
+      </c>
+      <c r="AE3">
+        <f>SUM('4 Talie'!B23)</f>
+        <v>21431165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <f>SUM('1 Talia'!E21)</f>
+        <v>1838079</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>10049116</v>
+      </c>
+      <c r="D4">
+        <f>SUM('1 Talia'!C21)</f>
+        <v>1710095</v>
+      </c>
+      <c r="E4">
+        <f>SUM('1 Talia'!D21)</f>
+        <v>23961859</v>
+      </c>
+      <c r="F4">
+        <f>SUM('1 Talia'!G21)</f>
+        <v>-111556245</v>
+      </c>
+      <c r="G4">
         <f>SUM('1 Talia'!B21)</f>
-        <v>5610584</v>
-      </c>
-      <c r="C4">
-        <f>SUM('1 Talia'!C21)</f>
-        <v>820275</v>
-      </c>
-      <c r="D4">
-        <f>SUM('1 Talia'!D21)</f>
-        <v>11335286</v>
-      </c>
-      <c r="E4">
-        <f>SUM('1 Talia'!E21)</f>
-        <v>867960</v>
-      </c>
-      <c r="F4">
-        <f>SUM('1 Talia'!F21)</f>
-        <v>0.31580199306039664</v>
-      </c>
-      <c r="G4">
-        <f>SUM('1 Talia'!G21)</f>
-        <v>-52907220</v>
-      </c>
-      <c r="I4">
-        <f>SUM('2 Talie'!B24)</f>
-        <v>7085904</v>
+        <v>11887195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
       </c>
       <c r="J4">
+        <f>SUM('2 Talie'!E24)</f>
+        <v>2335736</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>12728634</v>
+      </c>
+      <c r="L4">
         <f>SUM('2 Talie'!C24)</f>
-        <v>905098</v>
-      </c>
-      <c r="K4">
+        <v>1887425</v>
+      </c>
+      <c r="M4">
         <f>SUM('2 Talie'!D24)</f>
-        <v>14823638</v>
-      </c>
-      <c r="L4">
-        <f>SUM('2 Talie'!E24)</f>
-        <v>1101320</v>
-      </c>
-      <c r="M4">
-        <f>SUM('2 Talie'!F24)</f>
-        <v>0.31058583435899056</v>
+        <v>31449317</v>
       </c>
       <c r="N4">
         <f>SUM('2 Talie'!G24)</f>
-        <v>-71870740</v>
-      </c>
-      <c r="P4">
+        <v>-152170790</v>
+      </c>
+      <c r="O4">
+        <f>SUM('2 Talie'!B24)</f>
+        <v>15064370</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>SUM('3 Talie'!E24)</f>
+        <v>2566294</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>13927758</v>
+      </c>
+      <c r="T4">
+        <f>SUM('3 Talie'!C24)</f>
+        <v>1955176</v>
+      </c>
+      <c r="U4">
+        <f>SUM('3 Talie'!D24)</f>
+        <v>35012366</v>
+      </c>
+      <c r="V4">
+        <f>SUM('3 Talie'!G24)</f>
+        <v>-172351670</v>
+      </c>
+      <c r="W4">
         <f>SUM('3 Talie'!B24)</f>
-        <v>7845857</v>
-      </c>
-      <c r="Q4">
-        <f>SUM('3 Talie'!C24)</f>
-        <v>947495</v>
-      </c>
-      <c r="R4">
-        <f>SUM('3 Talie'!D24)</f>
-        <v>16689659</v>
-      </c>
-      <c r="S4">
-        <f>SUM('3 Talie'!E24)</f>
-        <v>1224502</v>
-      </c>
-      <c r="T4">
-        <f>SUM('3 Talie'!F24)</f>
-        <v>0.30788579104721964</v>
-      </c>
-      <c r="U4">
-        <f>SUM('3 Talie'!G24)</f>
-        <v>-82315510</v>
-      </c>
-      <c r="W4">
-        <f>SUM('4 Talie'!B24)</f>
-        <v>7938672</v>
-      </c>
-      <c r="X4">
-        <f>SUM('4 Talie'!C24)</f>
-        <v>931988</v>
-      </c>
-      <c r="Y4">
-        <f>SUM('4 Talie'!D24)</f>
-        <v>17072954</v>
+        <v>16494052</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
       </c>
       <c r="Z4">
         <f>SUM('4 Talie'!E24)</f>
-        <v>1243750</v>
+        <v>2628447</v>
       </c>
       <c r="AA4">
-        <f>SUM('4 Talie'!F24)</f>
-        <v>0.30599715213154188</v>
+        <f t="shared" si="3"/>
+        <v>14196283</v>
       </c>
       <c r="AB4">
+        <f>SUM('4 Talie'!C24)</f>
+        <v>1933331</v>
+      </c>
+      <c r="AC4">
+        <f>SUM('4 Talie'!D24)</f>
+        <v>36123394</v>
+      </c>
+      <c r="AD4">
         <f>SUM('4 Talie'!G24)</f>
-        <v>-85124070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-179844405</v>
+      </c>
+      <c r="AE4">
+        <f>SUM('4 Talie'!B24)</f>
+        <v>16824730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <f>SUM('1 Talia'!E22)</f>
+        <v>1827594</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10130401</v>
+      </c>
+      <c r="D5">
+        <f>SUM('1 Talia'!C22)</f>
+        <v>1895319</v>
+      </c>
+      <c r="E5">
+        <f>SUM('1 Talia'!D22)</f>
+        <v>23707649</v>
+      </c>
+      <c r="F5">
+        <f>SUM('1 Talia'!G22)</f>
+        <v>-108358570</v>
+      </c>
+      <c r="G5">
         <f>SUM('1 Talia'!B22)</f>
-        <v>5645019</v>
-      </c>
-      <c r="C5">
-        <f>SUM('1 Talia'!C22)</f>
-        <v>906553</v>
-      </c>
-      <c r="D5">
-        <f>SUM('1 Talia'!D22)</f>
-        <v>11215714</v>
-      </c>
-      <c r="E5">
-        <f>SUM('1 Talia'!E22)</f>
-        <v>863132</v>
-      </c>
-      <c r="F5">
-        <f>SUM('1 Talia'!F22)</f>
-        <v>0.31771982507626656</v>
-      </c>
-      <c r="G5">
-        <f>SUM('1 Talia'!G22)</f>
-        <v>-51391290</v>
-      </c>
-      <c r="I5">
-        <f>SUM('2 Talie'!B25)</f>
-        <v>7269544</v>
+        <v>11957995</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
       </c>
       <c r="J5">
+        <f>SUM('2 Talie'!E25)</f>
+        <v>2320604</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>13129431</v>
+      </c>
+      <c r="L5">
         <f>SUM('2 Talie'!C25)</f>
-        <v>1042932</v>
-      </c>
-      <c r="K5">
+        <v>2181267</v>
+      </c>
+      <c r="M5">
         <f>SUM('2 Talie'!D25)</f>
-        <v>14465413</v>
-      </c>
-      <c r="L5">
-        <f>SUM('2 Talie'!E25)</f>
-        <v>1093763</v>
-      </c>
-      <c r="M5">
-        <f>SUM('2 Talie'!F25)</f>
-        <v>0.31914915381315628</v>
+        <v>30691199</v>
       </c>
       <c r="N5">
         <f>SUM('2 Talie'!G25)</f>
-        <v>-66489875</v>
-      </c>
-      <c r="P5">
+        <v>-140808620</v>
+      </c>
+      <c r="O5">
+        <f>SUM('2 Talie'!B25)</f>
+        <v>15450035</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <f>SUM('3 Talie'!E25)</f>
+        <v>2546680</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>14525702</v>
+      </c>
+      <c r="T5">
+        <f>SUM('3 Talie'!C25)</f>
+        <v>2318372</v>
+      </c>
+      <c r="U5">
+        <f>SUM('3 Talie'!D25)</f>
+        <v>33938307</v>
+      </c>
+      <c r="V5">
+        <f>SUM('3 Talie'!G25)</f>
+        <v>-155925850</v>
+      </c>
+      <c r="W5">
         <f>SUM('3 Talie'!B25)</f>
-        <v>8118592</v>
-      </c>
-      <c r="Q5">
-        <f>SUM('3 Talie'!C25)</f>
-        <v>1120974</v>
-      </c>
-      <c r="R5">
-        <f>SUM('3 Talie'!D25)</f>
-        <v>16179894</v>
-      </c>
-      <c r="S5">
-        <f>SUM('3 Talie'!E25)</f>
-        <v>1213172</v>
-      </c>
-      <c r="T5">
-        <f>SUM('3 Talie'!F25)</f>
-        <v>0.31938491218932269</v>
-      </c>
-      <c r="U5">
-        <f>SUM('3 Talie'!G25)</f>
-        <v>-74547160</v>
-      </c>
-      <c r="W5">
-        <f>SUM('4 Talie'!B25)</f>
-        <v>8269945</v>
-      </c>
-      <c r="X5">
-        <f>SUM('4 Talie'!C25)</f>
-        <v>1118405</v>
-      </c>
-      <c r="Y5">
-        <f>SUM('4 Talie'!D25)</f>
-        <v>16475698</v>
+        <v>17072382</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
       </c>
       <c r="Z5">
         <f>SUM('4 Talie'!E25)</f>
-        <v>1232573</v>
+        <v>2607510</v>
       </c>
       <c r="AA5">
-        <f>SUM('4 Talie'!F25)</f>
-        <v>0.3197467387935562</v>
+        <f t="shared" si="3"/>
+        <v>14919177</v>
       </c>
       <c r="AB5">
+        <f>SUM('4 Talie'!C25)</f>
+        <v>2330017</v>
+      </c>
+      <c r="AC5">
+        <f>SUM('4 Talie'!D25)</f>
+        <v>34856075</v>
+      </c>
+      <c r="AD5">
         <f>SUM('4 Talie'!G25)</f>
-        <v>-75894665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-160256330</v>
+      </c>
+      <c r="AE5">
+        <f>SUM('4 Talie'!B25)</f>
+        <v>17526687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <f>SUM('1 Talia'!E23)</f>
+        <v>1727439</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>12748641</v>
+      </c>
+      <c r="D6">
+        <f>SUM('1 Talia'!C23)</f>
+        <v>3689756</v>
+      </c>
+      <c r="E6">
+        <f>SUM('1 Talia'!D23)</f>
+        <v>17292025</v>
+      </c>
+      <c r="F6">
+        <f>SUM('1 Talia'!G23)</f>
+        <v>-19522255</v>
+      </c>
+      <c r="G6">
         <f>SUM('1 Talia'!B23)</f>
-        <v>6837669</v>
-      </c>
-      <c r="C6">
-        <f>SUM('1 Talia'!C23)</f>
-        <v>1755452</v>
-      </c>
-      <c r="D6">
-        <f>SUM('1 Talia'!D23)</f>
-        <v>8178863</v>
-      </c>
-      <c r="E6">
-        <f>SUM('1 Talia'!E23)</f>
-        <v>816329</v>
-      </c>
-      <c r="F6">
-        <f>SUM('1 Talia'!F23)</f>
-        <v>0.40768396869446094</v>
-      </c>
-      <c r="G6">
-        <f>SUM('1 Talia'!G23)</f>
-        <v>-9330295</v>
-      </c>
-      <c r="I6">
-        <f>SUM('2 Talie'!B26)</f>
-        <v>8838115</v>
+        <v>14476080</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
       </c>
       <c r="J6">
+        <f>SUM('2 Talie'!E26)</f>
+        <v>2198344</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>16581204</v>
+      </c>
+      <c r="L6">
         <f>SUM('2 Talie'!C26)</f>
-        <v>2186201</v>
-      </c>
-      <c r="K6">
+        <v>4609087</v>
+      </c>
+      <c r="M6">
         <f>SUM('2 Talie'!D26)</f>
-        <v>10547419</v>
-      </c>
-      <c r="L6">
-        <f>SUM('2 Talie'!E26)</f>
-        <v>1036335</v>
-      </c>
-      <c r="M6">
-        <f>SUM('2 Talie'!F26)</f>
-        <v>0.4097081203714027</v>
+        <v>22375130</v>
       </c>
       <c r="N6">
         <f>SUM('2 Talie'!G26)</f>
-        <v>-11911365</v>
-      </c>
-      <c r="P6">
+        <v>-24964100</v>
+      </c>
+      <c r="O6">
+        <f>SUM('2 Talie'!B26)</f>
+        <v>18779548</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f>SUM('3 Talie'!E26)</f>
+        <v>2415697</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>18361720</v>
+      </c>
+      <c r="T6">
+        <f>SUM('3 Talie'!C26)</f>
+        <v>5020929</v>
+      </c>
+      <c r="U6">
+        <f>SUM('3 Talie'!D26)</f>
+        <v>24727976</v>
+      </c>
+      <c r="V6">
+        <f>SUM('3 Talie'!G26)</f>
+        <v>-27427105</v>
+      </c>
+      <c r="W6">
         <f>SUM('3 Talie'!B26)</f>
-        <v>9891801</v>
-      </c>
-      <c r="Q6">
-        <f>SUM('3 Talie'!C26)</f>
-        <v>2409110</v>
-      </c>
-      <c r="R6">
-        <f>SUM('3 Talie'!D26)</f>
-        <v>11781984</v>
-      </c>
-      <c r="S6">
-        <f>SUM('3 Talie'!E26)</f>
-        <v>1152253</v>
-      </c>
-      <c r="T6">
-        <f>SUM('3 Talie'!F26)</f>
-        <v>0.41073969720002518</v>
-      </c>
-      <c r="U6">
-        <f>SUM('3 Talie'!G26)</f>
-        <v>-13140565</v>
-      </c>
-      <c r="W6">
-        <f>SUM('4 Talie'!B26)</f>
-        <v>10072393</v>
-      </c>
-      <c r="X6">
-        <f>SUM('4 Talie'!C26)</f>
-        <v>2436010</v>
-      </c>
-      <c r="Y6">
-        <f>SUM('4 Talie'!D26)</f>
-        <v>12003859</v>
+        <v>20777417</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
       </c>
       <c r="Z6">
         <f>SUM('4 Talie'!E26)</f>
-        <v>1170447</v>
+        <v>2474147</v>
       </c>
       <c r="AA6">
-        <f>SUM('4 Talie'!F26)</f>
-        <v>0.41091242415734625</v>
+        <f t="shared" si="3"/>
+        <v>18867190</v>
       </c>
       <c r="AB6">
+        <f>SUM('4 Talie'!C26)</f>
+        <v>5117752</v>
+      </c>
+      <c r="AC6">
+        <f>SUM('4 Talie'!D26)</f>
+        <v>25393398</v>
+      </c>
+      <c r="AD6">
         <f>SUM('4 Talie'!G26)</f>
-        <v>-13462425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-28149875</v>
+      </c>
+      <c r="AE6">
+        <f>SUM('4 Talie'!B26)</f>
+        <v>21341337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <f>SUM('1 Talia'!E24)</f>
+        <v>1879017</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>13669189</v>
+      </c>
+      <c r="D7">
+        <f>SUM('1 Talia'!C24)</f>
+        <v>2777924</v>
+      </c>
+      <c r="E7">
+        <f>SUM('1 Talia'!D24)</f>
+        <v>20811413</v>
+      </c>
+      <c r="F7">
+        <f>SUM('1 Talia'!G24)</f>
+        <v>-43236985</v>
+      </c>
+      <c r="G7">
         <f>SUM('1 Talia'!B24)</f>
-        <v>7342973</v>
-      </c>
-      <c r="C7">
-        <f>SUM('1 Talia'!C24)</f>
-        <v>1324342</v>
-      </c>
-      <c r="D7">
-        <f>SUM('1 Talia'!D24)</f>
-        <v>9845039</v>
-      </c>
-      <c r="E7">
-        <f>SUM('1 Talia'!E24)</f>
-        <v>887188</v>
-      </c>
-      <c r="F7">
-        <f>SUM('1 Talia'!F24)</f>
-        <v>0.39665258129787279</v>
-      </c>
-      <c r="G7">
-        <f>SUM('1 Talia'!G24)</f>
-        <v>-20584720</v>
-      </c>
-      <c r="I7">
-        <f>SUM('2 Talie'!B27)</f>
-        <v>9464407</v>
+        <v>15548206</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
       </c>
       <c r="J7">
+        <f>SUM('2 Talie'!E27)</f>
+        <v>2396396</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>17716670</v>
+      </c>
+      <c r="L7">
         <f>SUM('2 Talie'!C27)</f>
-        <v>1555034</v>
-      </c>
-      <c r="K7">
+        <v>3266506</v>
+      </c>
+      <c r="M7">
         <f>SUM('2 Talie'!D27)</f>
-        <v>12668102</v>
-      </c>
-      <c r="L7">
-        <f>SUM('2 Talie'!E27)</f>
-        <v>1130539</v>
-      </c>
-      <c r="M7">
-        <f>SUM('2 Talie'!F27)</f>
-        <v>0.39955207680256244</v>
+        <v>26870906</v>
       </c>
       <c r="N7">
         <f>SUM('2 Talie'!G27)</f>
-        <v>-26384255</v>
-      </c>
-      <c r="P7">
+        <v>-55596420</v>
+      </c>
+      <c r="O7">
+        <f>SUM('2 Talie'!B27)</f>
+        <v>20113066</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <f>SUM('3 Talie'!E27)</f>
+        <v>2636403</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>19594405</v>
+      </c>
+      <c r="T7">
+        <f>SUM('3 Talie'!C27)</f>
+        <v>3478424</v>
+      </c>
+      <c r="U7">
+        <f>SUM('3 Talie'!D27)</f>
+        <v>29686566</v>
+      </c>
+      <c r="V7">
+        <f>SUM('3 Talie'!G27)</f>
+        <v>-61375565</v>
+      </c>
+      <c r="W7">
         <f>SUM('3 Talie'!B27)</f>
-        <v>10581075</v>
-      </c>
-      <c r="Q7">
-        <f>SUM('3 Talie'!C27)</f>
-        <v>1673913</v>
-      </c>
-      <c r="R7">
-        <f>SUM('3 Talie'!D27)</f>
-        <v>14150342</v>
-      </c>
-      <c r="S7">
-        <f>SUM('3 Talie'!E27)</f>
-        <v>1258202</v>
-      </c>
-      <c r="T7">
-        <f>SUM('3 Talie'!F27)</f>
-        <v>0.40071739304148063</v>
-      </c>
-      <c r="U7">
-        <f>SUM('3 Talie'!G27)</f>
-        <v>-29401660</v>
-      </c>
-      <c r="W7">
-        <f>SUM('4 Talie'!B27)</f>
-        <v>10771208</v>
-      </c>
-      <c r="X7">
-        <f>SUM('4 Talie'!C27)</f>
-        <v>1672284</v>
-      </c>
-      <c r="Y7">
-        <f>SUM('4 Talie'!D27)</f>
-        <v>14409209</v>
+        <v>22230808</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>5</v>
       </c>
       <c r="Z7">
         <f>SUM('4 Talie'!E27)</f>
-        <v>1274786</v>
+        <v>2696731</v>
       </c>
       <c r="AA7">
-        <f>SUM('4 Talie'!F27)</f>
-        <v>0.40112195789913274</v>
+        <f t="shared" si="3"/>
+        <v>20131371</v>
       </c>
       <c r="AB7">
+        <f>SUM('4 Talie'!C27)</f>
+        <v>3500636</v>
+      </c>
+      <c r="AC7">
+        <f>SUM('4 Talie'!D27)</f>
+        <v>30475479</v>
+      </c>
+      <c r="AD7">
         <f>SUM('4 Talie'!G27)</f>
-        <v>-30006080</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-62990115</v>
+      </c>
+      <c r="AE7">
+        <f>SUM('4 Talie'!B27)</f>
+        <v>22828102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <f>SUM('1 Talia'!E25)</f>
+        <v>1604281</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>11373642</v>
+      </c>
+      <c r="D8">
+        <f>SUM('1 Talia'!C25)</f>
+        <v>2498434</v>
+      </c>
+      <c r="E8">
+        <f>SUM('1 Talia'!D25)</f>
+        <v>16092593</v>
+      </c>
+      <c r="F8">
+        <f>SUM('1 Talia'!G25)</f>
+        <v>-23125295</v>
+      </c>
+      <c r="G8">
         <f>SUM('1 Talia'!B25)</f>
-        <v>6128864</v>
-      </c>
-      <c r="C8">
-        <f>SUM('1 Talia'!C25)</f>
-        <v>1191131</v>
-      </c>
-      <c r="D8">
-        <f>SUM('1 Talia'!D25)</f>
-        <v>7614343</v>
-      </c>
-      <c r="E8">
-        <f>SUM('1 Talia'!E25)</f>
-        <v>758309</v>
-      </c>
-      <c r="F8">
-        <f>SUM('1 Talia'!F25)</f>
-        <v>0.41038739045547246</v>
-      </c>
-      <c r="G8">
-        <f>SUM('1 Talia'!G25)</f>
-        <v>-11063245</v>
-      </c>
-      <c r="I8">
-        <f>SUM('2 Talie'!B28)</f>
-        <v>6941306</v>
+        <v>12977923</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
       </c>
       <c r="J8">
+        <f>SUM('2 Talie'!E28)</f>
+        <v>1788573</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>12961304</v>
+      </c>
+      <c r="L8">
         <f>SUM('2 Talie'!C28)</f>
-        <v>1356847</v>
-      </c>
-      <c r="K8">
+        <v>2853284</v>
+      </c>
+      <c r="M8">
         <f>SUM('2 Talie'!D28)</f>
-        <v>8623149</v>
-      </c>
-      <c r="L8">
-        <f>SUM('2 Talie'!E28)</f>
-        <v>843642</v>
-      </c>
-      <c r="M8">
-        <f>SUM('2 Talie'!F28)</f>
-        <v>0.41021110550476553</v>
+        <v>18301033</v>
       </c>
       <c r="N8">
         <f>SUM('2 Talie'!G28)</f>
-        <v>-12600220</v>
-      </c>
-      <c r="P8">
+        <v>-26568695</v>
+      </c>
+      <c r="O8">
+        <f>SUM('2 Talie'!B28)</f>
+        <v>14749877</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <f>SUM('3 Talie'!E28)</f>
+        <v>1733954</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>12707514</v>
+      </c>
+      <c r="T8">
+        <f>SUM('3 Talie'!C28)</f>
+        <v>2792797</v>
+      </c>
+      <c r="U8">
+        <f>SUM('3 Talie'!D28)</f>
+        <v>17824240</v>
+      </c>
+      <c r="V8">
+        <f>SUM('3 Talie'!G28)</f>
+        <v>-25157950</v>
+      </c>
+      <c r="W8">
         <f>SUM('3 Talie'!B28)</f>
-        <v>6866960</v>
-      </c>
-      <c r="Q8">
-        <f>SUM('3 Talie'!C28)</f>
-        <v>1341964</v>
-      </c>
-      <c r="R8">
-        <f>SUM('3 Talie'!D28)</f>
-        <v>8492427</v>
-      </c>
-      <c r="S8">
-        <f>SUM('3 Talie'!E28)</f>
-        <v>826558</v>
-      </c>
-      <c r="T8">
-        <f>SUM('3 Talie'!F28)</f>
-        <v>0.41116194731791456</v>
-      </c>
-      <c r="U8">
-        <f>SUM('3 Talie'!G28)</f>
-        <v>-12121880</v>
-      </c>
-      <c r="W8">
-        <f>SUM('4 Talie'!B28)</f>
-        <v>6230616</v>
-      </c>
-      <c r="X8">
-        <f>SUM('4 Talie'!C28)</f>
-        <v>1213268</v>
-      </c>
-      <c r="Y8">
-        <f>SUM('4 Talie'!D28)</f>
-        <v>7663835</v>
+        <v>14441468</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
       </c>
       <c r="Z8">
         <f>SUM('4 Talie'!E28)</f>
-        <v>744334</v>
+        <v>1574047</v>
       </c>
       <c r="AA8">
-        <f>SUM('4 Talie'!F28)</f>
-        <v>0.41241275403652927</v>
+        <f t="shared" si="3"/>
+        <v>11636384</v>
       </c>
       <c r="AB8">
+        <f>SUM('4 Talie'!C28)</f>
+        <v>2547203</v>
+      </c>
+      <c r="AC8">
+        <f>SUM('4 Talie'!D28)</f>
+        <v>16227490</v>
+      </c>
+      <c r="AD8">
         <f>SUM('4 Talie'!G28)</f>
-        <v>-10610520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-22300355</v>
+      </c>
+      <c r="AE8">
+        <f>SUM('4 Talie'!B28)</f>
+        <v>13210431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <f>SUM('1 Talia'!E26)</f>
+        <v>1772134</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>13382075</v>
+      </c>
+      <c r="D9">
+        <f>SUM('1 Talia'!C26)</f>
+        <v>3438267</v>
+      </c>
+      <c r="E9">
+        <f>SUM('1 Talia'!D26)</f>
+        <v>17973510</v>
+      </c>
+      <c r="F9">
+        <f>SUM('1 Talia'!G26)</f>
+        <v>-19332340</v>
+      </c>
+      <c r="G9">
         <f>SUM('1 Talia'!B26)</f>
-        <v>7157043</v>
-      </c>
-      <c r="C9">
-        <f>SUM('1 Talia'!C26)</f>
-        <v>1635963</v>
-      </c>
-      <c r="D9">
-        <f>SUM('1 Talia'!D26)</f>
-        <v>8502958</v>
-      </c>
-      <c r="E9">
-        <f>SUM('1 Talia'!E26)</f>
-        <v>837890</v>
-      </c>
-      <c r="F9">
-        <f>SUM('1 Talia'!F26)</f>
-        <v>0.41379844453885312</v>
-      </c>
-      <c r="G9">
-        <f>SUM('1 Talia'!G26)</f>
-        <v>-9269700</v>
-      </c>
-      <c r="I9">
-        <f>SUM('2 Talie'!B29)</f>
-        <v>9232124</v>
+        <v>15154209</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
       </c>
       <c r="J9">
+        <f>SUM('2 Talie'!E29)</f>
+        <v>2250836</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>17362150</v>
+      </c>
+      <c r="L9">
         <f>SUM('2 Talie'!C29)</f>
-        <v>1955855</v>
-      </c>
-      <c r="K9">
+        <v>4117971</v>
+      </c>
+      <c r="M9">
         <f>SUM('2 Talie'!D29)</f>
-        <v>10967056</v>
-      </c>
-      <c r="L9">
-        <f>SUM('2 Talie'!E29)</f>
-        <v>1060724</v>
-      </c>
-      <c r="M9">
-        <f>SUM('2 Talie'!F29)</f>
-        <v>0.41670545769844192</v>
+        <v>23270687</v>
       </c>
       <c r="N9">
         <f>SUM('2 Talie'!G29)</f>
-        <v>-12045700</v>
-      </c>
-      <c r="P9">
+        <v>-25322830</v>
+      </c>
+      <c r="O9">
+        <f>SUM('2 Talie'!B29)</f>
+        <v>19612986</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <f>SUM('3 Talie'!E29)</f>
+        <v>2475804</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>19202469</v>
+      </c>
+      <c r="T9">
+        <f>SUM('3 Talie'!C29)</f>
+        <v>4455496</v>
+      </c>
+      <c r="U9">
+        <f>SUM('3 Talie'!D29)</f>
+        <v>25720361</v>
+      </c>
+      <c r="V9">
+        <f>SUM('3 Talie'!G29)</f>
+        <v>-28041860</v>
+      </c>
+      <c r="W9">
         <f>SUM('3 Talie'!B29)</f>
-        <v>10317952</v>
-      </c>
-      <c r="Q9">
-        <f>SUM('3 Talie'!C29)</f>
-        <v>2139389</v>
-      </c>
-      <c r="R9">
-        <f>SUM('3 Talie'!D29)</f>
-        <v>12258723</v>
-      </c>
-      <c r="S9">
-        <f>SUM('3 Talie'!E29)</f>
-        <v>1180333</v>
-      </c>
-      <c r="T9">
-        <f>SUM('3 Talie'!F29)</f>
-        <v>0.41745934951455055</v>
-      </c>
-      <c r="U9">
-        <f>SUM('3 Talie'!G29)</f>
-        <v>-13506045</v>
-      </c>
-      <c r="W9">
-        <f>SUM('4 Talie'!B29)</f>
-        <v>10506085</v>
-      </c>
-      <c r="X9">
-        <f>SUM('4 Talie'!C29)</f>
-        <v>2154481</v>
-      </c>
-      <c r="Y9">
-        <f>SUM('4 Talie'!D29)</f>
-        <v>12483555</v>
+        <v>21678273</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>7</v>
       </c>
       <c r="Z9">
         <f>SUM('4 Talie'!E29)</f>
-        <v>1198492</v>
+        <v>2534152</v>
       </c>
       <c r="AA9">
-        <f>SUM('4 Talie'!F29)</f>
-        <v>0.41783465009574206</v>
+        <f t="shared" si="3"/>
+        <v>19722906</v>
       </c>
       <c r="AB9">
+        <f>SUM('4 Talie'!C29)</f>
+        <v>4521801</v>
+      </c>
+      <c r="AC9">
+        <f>SUM('4 Talie'!D29)</f>
+        <v>26411369</v>
+      </c>
+      <c r="AD9">
         <f>SUM('4 Talie'!G29)</f>
-        <v>-13782240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-28872350</v>
+      </c>
+      <c r="AE9">
+        <f>SUM('4 Talie'!B29)</f>
+        <v>22257058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <f>SUM('1 Talia'!E27)</f>
+        <v>1735301</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>12824751</v>
+      </c>
+      <c r="D10">
+        <f>SUM('1 Talia'!C27)</f>
+        <v>3664352</v>
+      </c>
+      <c r="E10">
+        <f>SUM('1 Talia'!D27)</f>
+        <v>17425649</v>
+      </c>
+      <c r="F10">
+        <f>SUM('1 Talia'!G27)</f>
+        <v>-19979465</v>
+      </c>
+      <c r="G10">
         <f>SUM('1 Talia'!B27)</f>
-        <v>6876766</v>
-      </c>
-      <c r="C10">
-        <f>SUM('1 Talia'!C27)</f>
-        <v>1743946</v>
-      </c>
-      <c r="D10">
-        <f>SUM('1 Talia'!D27)</f>
-        <v>8241942</v>
-      </c>
-      <c r="E10">
-        <f>SUM('1 Talia'!E27)</f>
-        <v>819843</v>
-      </c>
-      <c r="F10">
-        <f>SUM('1 Talia'!F27)</f>
-        <v>0.40781041940373086</v>
-      </c>
-      <c r="G10">
-        <f>SUM('1 Talia'!G27)</f>
-        <v>-9552545</v>
-      </c>
-      <c r="I10">
-        <f>SUM('2 Talie'!B30)</f>
-        <v>8902504</v>
+        <v>14560052</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
       </c>
       <c r="J10">
+        <f>SUM('2 Talie'!E30)</f>
+        <v>2210358</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>16704286</v>
+      </c>
+      <c r="L10">
         <f>SUM('2 Talie'!C30)</f>
-        <v>2146648</v>
-      </c>
-      <c r="K10">
+        <v>4525373</v>
+      </c>
+      <c r="M10">
         <f>SUM('2 Talie'!D30)</f>
-        <v>10650570</v>
-      </c>
-      <c r="L10">
-        <f>SUM('2 Talie'!E30)</f>
-        <v>1042046</v>
-      </c>
-      <c r="M10">
-        <f>SUM('2 Talie'!F30)</f>
-        <v>0.41025889640429497</v>
+        <v>22595960</v>
       </c>
       <c r="N10">
         <f>SUM('2 Talie'!G30)</f>
-        <v>-12270430</v>
-      </c>
-      <c r="P10">
+        <v>-25761370</v>
+      </c>
+      <c r="O10">
+        <f>SUM('2 Talie'!B30)</f>
+        <v>18914644</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <f>SUM('3 Talie'!E30)</f>
+        <v>2431797</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>18502819</v>
+      </c>
+      <c r="T10">
+        <f>SUM('3 Talie'!C30)</f>
+        <v>4915597</v>
+      </c>
+      <c r="U10">
+        <f>SUM('3 Talie'!D30)</f>
+        <v>24990614</v>
+      </c>
+      <c r="V10">
+        <f>SUM('3 Talie'!G30)</f>
+        <v>-28400995</v>
+      </c>
+      <c r="W10">
         <f>SUM('3 Talie'!B30)</f>
-        <v>9967213</v>
-      </c>
-      <c r="Q10">
-        <f>SUM('3 Talie'!C30)</f>
-        <v>2359187</v>
-      </c>
-      <c r="R10">
-        <f>SUM('3 Talie'!D30)</f>
-        <v>11906329</v>
-      </c>
-      <c r="S10">
-        <f>SUM('3 Talie'!E30)</f>
-        <v>1160386</v>
-      </c>
-      <c r="T10">
-        <f>SUM('3 Talie'!F30)</f>
-        <v>0.41131203175672043</v>
-      </c>
-      <c r="U10">
-        <f>SUM('3 Talie'!G30)</f>
-        <v>-13589230</v>
-      </c>
-      <c r="W10">
-        <f>SUM('4 Talie'!B30)</f>
-        <v>10149579</v>
-      </c>
-      <c r="X10">
-        <f>SUM('4 Talie'!C30)</f>
-        <v>2380532</v>
-      </c>
-      <c r="Y10">
-        <f>SUM('4 Talie'!D30)</f>
-        <v>12137362</v>
+        <v>20934616</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>8</v>
       </c>
       <c r="Z10">
         <f>SUM('4 Talie'!E30)</f>
-        <v>1176762</v>
+        <v>2487902</v>
       </c>
       <c r="AA10">
-        <f>SUM('4 Talie'!F30)</f>
-        <v>0.4114559687569132</v>
+        <f t="shared" si="3"/>
+        <v>19018180</v>
       </c>
       <c r="AB10">
+        <f>SUM('4 Talie'!C30)</f>
+        <v>5003688</v>
+      </c>
+      <c r="AC10">
+        <f>SUM('4 Talie'!D30)</f>
+        <v>25671542</v>
+      </c>
+      <c r="AD10">
         <f>SUM('4 Talie'!G30)</f>
-        <v>-13994020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-29215090</v>
+      </c>
+      <c r="AE10">
+        <f>SUM('4 Talie'!B30)</f>
+        <v>21506082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <f>SUM('1 Talia'!E28)</f>
+        <v>1735389</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>12815370</v>
+      </c>
+      <c r="D11">
+        <f>SUM('1 Talia'!C28)</f>
+        <v>3122348</v>
+      </c>
+      <c r="E11">
+        <f>SUM('1 Talia'!D28)</f>
+        <v>17713124</v>
+      </c>
+      <c r="F11">
+        <f>SUM('1 Talia'!G28)</f>
+        <v>-22946705</v>
+      </c>
+      <c r="G11">
         <f>SUM('1 Talia'!B28)</f>
-        <v>6872346</v>
-      </c>
-      <c r="C11">
-        <f>SUM('1 Talia'!C28)</f>
-        <v>1486795</v>
-      </c>
-      <c r="D11">
-        <f>SUM('1 Talia'!D28)</f>
-        <v>8376777</v>
-      </c>
-      <c r="E11">
-        <f>SUM('1 Talia'!E28)</f>
-        <v>819927</v>
-      </c>
-      <c r="F11">
-        <f>SUM('1 Talia'!F28)</f>
-        <v>0.410634540632907</v>
-      </c>
-      <c r="G11">
-        <f>SUM('1 Talia'!G28)</f>
-        <v>-10944675</v>
-      </c>
-      <c r="I11">
-        <f>SUM('2 Talie'!B31)</f>
-        <v>7884446</v>
+        <v>14550759</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
       </c>
       <c r="J11">
+        <f>SUM('2 Talie'!E31)</f>
+        <v>1998167</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>14751677</v>
+      </c>
+      <c r="L11">
         <f>SUM('2 Talie'!C31)</f>
-        <v>1579029</v>
-      </c>
-      <c r="K11">
+        <v>3323396</v>
+      </c>
+      <c r="M11">
         <f>SUM('2 Talie'!D31)</f>
-        <v>9882686</v>
-      </c>
-      <c r="L11">
-        <f>SUM('2 Talie'!E31)</f>
-        <v>942948</v>
-      </c>
-      <c r="M11">
-        <f>SUM('2 Talie'!F31)</f>
-        <v>0.40754576579818602</v>
+        <v>20960392</v>
       </c>
       <c r="N11">
         <f>SUM('2 Talie'!G31)</f>
-        <v>-15267660</v>
-      </c>
-      <c r="P11">
+        <v>-32114645</v>
+      </c>
+      <c r="O11">
+        <f>SUM('2 Talie'!B31)</f>
+        <v>16749844</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <f>SUM('3 Talie'!E31)</f>
+        <v>1991186</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>14626557</v>
+      </c>
+      <c r="T11">
+        <f>SUM('3 Talie'!C31)</f>
+        <v>3231751</v>
+      </c>
+      <c r="U11">
+        <f>SUM('3 Talie'!D31)</f>
+        <v>21150556</v>
+      </c>
+      <c r="V11">
+        <f>SUM('3 Talie'!G31)</f>
+        <v>-35372200</v>
+      </c>
+      <c r="W11">
         <f>SUM('3 Talie'!B31)</f>
-        <v>7909252</v>
-      </c>
-      <c r="Q11">
-        <f>SUM('3 Talie'!C31)</f>
-        <v>1553320</v>
-      </c>
-      <c r="R11">
-        <f>SUM('3 Talie'!D31)</f>
-        <v>10082495</v>
-      </c>
-      <c r="S11">
-        <f>SUM('3 Talie'!E31)</f>
-        <v>950023</v>
-      </c>
-      <c r="T11">
-        <f>SUM('3 Talie'!F31)</f>
-        <v>0.40466742835928882</v>
-      </c>
-      <c r="U11">
-        <f>SUM('3 Talie'!G31)</f>
-        <v>-16982315</v>
-      </c>
-      <c r="W11">
-        <f>SUM('4 Talie'!B31)</f>
-        <v>7315531</v>
-      </c>
-      <c r="X11">
-        <f>SUM('4 Talie'!C31)</f>
-        <v>1424549</v>
-      </c>
-      <c r="Y11">
-        <f>SUM('4 Talie'!D31)</f>
-        <v>9414501</v>
+        <v>16617743</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>9</v>
       </c>
       <c r="Z11">
         <f>SUM('4 Talie'!E31)</f>
-        <v>880734</v>
+        <v>1861891</v>
       </c>
       <c r="AA11">
-        <f>SUM('4 Talie'!F31)</f>
-        <v>0.40295785399839301</v>
+        <f t="shared" si="3"/>
+        <v>13637187</v>
       </c>
       <c r="AB11">
+        <f>SUM('4 Talie'!C31)</f>
+        <v>2988511</v>
+      </c>
+      <c r="AC11">
+        <f>SUM('4 Talie'!D31)</f>
+        <v>19915250</v>
+      </c>
+      <c r="AD11">
         <f>SUM('4 Talie'!G31)</f>
-        <v>-16586030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-34852265</v>
+      </c>
+      <c r="AE11">
+        <f>SUM('4 Talie'!B31)</f>
+        <v>15499078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <f>SUM('1 Talia'!E29)</f>
+        <v>1828377</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>13511196</v>
+      </c>
+      <c r="D12">
+        <f>SUM('1 Talia'!C29)</f>
+        <v>3209909</v>
+      </c>
+      <c r="E12">
+        <f>SUM('1 Talia'!D29)</f>
+        <v>17695991</v>
+      </c>
+      <c r="F12">
+        <f>SUM('1 Talia'!G29)</f>
+        <v>-14422295</v>
+      </c>
+      <c r="G12">
         <f>SUM('1 Talia'!B29)</f>
-        <v>7244541</v>
-      </c>
-      <c r="C12">
-        <f>SUM('1 Talia'!C29)</f>
-        <v>1528600</v>
-      </c>
-      <c r="D12">
-        <f>SUM('1 Talia'!D29)</f>
-        <v>8369356</v>
-      </c>
-      <c r="E12">
-        <f>SUM('1 Talia'!E29)</f>
-        <v>864424</v>
-      </c>
-      <c r="F12">
-        <f>SUM('1 Talia'!F29)</f>
-        <v>0.42260710327089457</v>
-      </c>
-      <c r="G12">
-        <f>SUM('1 Talia'!G29)</f>
-        <v>-6926030</v>
-      </c>
-      <c r="I12">
-        <f>SUM('2 Talie'!B32)</f>
-        <v>9064217</v>
+        <v>15339573</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
       </c>
       <c r="J12">
+        <f>SUM('2 Talie'!E32)</f>
+        <v>2264063</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>16990836</v>
+      </c>
+      <c r="L12">
         <f>SUM('2 Talie'!C32)</f>
-        <v>1741377</v>
-      </c>
-      <c r="K12">
+        <v>3666247</v>
+      </c>
+      <c r="M12">
         <f>SUM('2 Talie'!D32)</f>
-        <v>10506587</v>
-      </c>
-      <c r="L12">
-        <f>SUM('2 Talie'!E32)</f>
-        <v>1066607</v>
-      </c>
-      <c r="M12">
-        <f>SUM('2 Talie'!F32)</f>
-        <v>0.42530687028230474</v>
+        <v>22281617</v>
       </c>
       <c r="N12">
         <f>SUM('2 Talie'!G32)</f>
-        <v>-9090665</v>
-      </c>
-      <c r="P12">
+        <v>-18946865</v>
+      </c>
+      <c r="O12">
+        <f>SUM('2 Talie'!B32)</f>
+        <v>19254899</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <f>SUM('3 Talie'!E32)</f>
+        <v>2416288</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>18226413</v>
+      </c>
+      <c r="T12">
+        <f>SUM('3 Talie'!C32)</f>
+        <v>3825332</v>
+      </c>
+      <c r="U12">
+        <f>SUM('3 Talie'!D32)</f>
+        <v>23900260</v>
+      </c>
+      <c r="V12">
+        <f>SUM('3 Talie'!G32)</f>
+        <v>-20494150</v>
+      </c>
+      <c r="W12">
         <f>SUM('3 Talie'!B32)</f>
-        <v>9826538</v>
-      </c>
-      <c r="Q12">
-        <f>SUM('3 Talie'!C32)</f>
-        <v>1837798</v>
-      </c>
-      <c r="R12">
-        <f>SUM('3 Talie'!D32)</f>
-        <v>11395207</v>
-      </c>
-      <c r="S12">
-        <f>SUM('3 Talie'!E32)</f>
-        <v>1151585</v>
-      </c>
-      <c r="T12">
-        <f>SUM('3 Talie'!F32)</f>
-        <v>0.42613758650811079</v>
-      </c>
-      <c r="U12">
-        <f>SUM('3 Talie'!G32)</f>
-        <v>-9928765</v>
-      </c>
-      <c r="W12">
-        <f>SUM('4 Talie'!B32)</f>
-        <v>9695829</v>
-      </c>
-      <c r="X12">
-        <f>SUM('4 Talie'!C32)</f>
-        <v>1790746</v>
-      </c>
-      <c r="Y12">
-        <f>SUM('4 Talie'!D32)</f>
-        <v>11247747</v>
+        <v>20642701</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>10</v>
       </c>
       <c r="Z12">
         <f>SUM('4 Talie'!E32)</f>
-        <v>1133640</v>
+        <v>2399362</v>
       </c>
       <c r="AA12">
-        <f>SUM('4 Talie'!F32)</f>
-        <v>0.42648419425043771</v>
+        <f t="shared" si="3"/>
+        <v>18147351</v>
       </c>
       <c r="AB12">
+        <f>SUM('4 Talie'!C32)</f>
+        <v>3754683</v>
+      </c>
+      <c r="AC12">
+        <f>SUM('4 Talie'!D32)</f>
+        <v>23800196</v>
+      </c>
+      <c r="AD12">
         <f>SUM('4 Talie'!G32)</f>
-        <v>-9850980</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-20538020</v>
+      </c>
+      <c r="AE12">
+        <f>SUM('4 Talie'!B32)</f>
+        <v>20546713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <f>SUM('1 Talia'!E30)</f>
+        <v>1951399</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>13467195</v>
+      </c>
+      <c r="D13">
+        <f>SUM('1 Talia'!C30)</f>
+        <v>2490223</v>
+      </c>
+      <c r="E13">
+        <f>SUM('1 Talia'!D30)</f>
+        <v>22806570</v>
+      </c>
+      <c r="F13">
+        <f>SUM('1 Talia'!G30)</f>
+        <v>-64122765</v>
+      </c>
+      <c r="G13">
         <f>SUM('1 Talia'!B30)</f>
-        <v>7280301</v>
-      </c>
-      <c r="C13">
-        <f>SUM('1 Talia'!C30)</f>
-        <v>1189499</v>
-      </c>
-      <c r="D13">
-        <f>SUM('1 Talia'!D30)</f>
-        <v>10789475</v>
-      </c>
-      <c r="E13">
-        <f>SUM('1 Talia'!E30)</f>
-        <v>922296</v>
-      </c>
-      <c r="F13">
-        <f>SUM('1 Talia'!F30)</f>
-        <v>0.37801531989132509</v>
-      </c>
-      <c r="G13">
-        <f>SUM('1 Talia'!G30)</f>
-        <v>-30480260</v>
-      </c>
-      <c r="I13">
-        <f>SUM('2 Talie'!B33)</f>
-        <v>9391620</v>
+        <v>15418594</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
       </c>
       <c r="J13">
+        <f>SUM('2 Talie'!E33)</f>
+        <v>2486844</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>17468741</v>
+      </c>
+      <c r="L13">
         <f>SUM('2 Talie'!C33)</f>
-        <v>1336150</v>
-      </c>
-      <c r="K13">
+        <v>2803920</v>
+      </c>
+      <c r="M13">
         <f>SUM('2 Talie'!D33)</f>
-        <v>13861241</v>
-      </c>
-      <c r="L13">
-        <f>SUM('2 Talie'!E33)</f>
-        <v>1171931</v>
-      </c>
-      <c r="M13">
-        <f>SUM('2 Talie'!F33)</f>
-        <v>0.38194378781643556</v>
+        <v>29405097</v>
       </c>
       <c r="N13">
         <f>SUM('2 Talie'!G33)</f>
-        <v>-38836555</v>
-      </c>
-      <c r="P13">
+        <v>-82060900</v>
+      </c>
+      <c r="O13">
+        <f>SUM('2 Talie'!B33)</f>
+        <v>19955585</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <f>SUM('3 Talie'!E33)</f>
+        <v>2734592</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>19317780</v>
+      </c>
+      <c r="T13">
+        <f>SUM('3 Talie'!C33)</f>
+        <v>2963840</v>
+      </c>
+      <c r="U13">
+        <f>SUM('3 Talie'!D33)</f>
+        <v>32478905</v>
+      </c>
+      <c r="V13">
+        <f>SUM('3 Talie'!G33)</f>
+        <v>-90592370</v>
+      </c>
+      <c r="W13">
         <f>SUM('3 Talie'!B33)</f>
-        <v>10495421</v>
-      </c>
-      <c r="Q13">
-        <f>SUM('3 Talie'!C33)</f>
-        <v>1428934</v>
-      </c>
-      <c r="R13">
-        <f>SUM('3 Talie'!D33)</f>
-        <v>15480987</v>
-      </c>
-      <c r="S13">
-        <f>SUM('3 Talie'!E33)</f>
-        <v>1304162</v>
-      </c>
-      <c r="T13">
-        <f>SUM('3 Talie'!F33)</f>
-        <v>0.38296989689090544</v>
-      </c>
-      <c r="U13">
-        <f>SUM('3 Talie'!G33)</f>
-        <v>-43334850</v>
-      </c>
-      <c r="W13">
-        <f>SUM('4 Talie'!B33)</f>
-        <v>10686163</v>
-      </c>
-      <c r="X13">
-        <f>SUM('4 Talie'!C33)</f>
-        <v>1422717</v>
-      </c>
-      <c r="Y13">
-        <f>SUM('4 Talie'!D33)</f>
-        <v>15758816</v>
+        <v>22052372</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
       </c>
       <c r="Z13">
         <f>SUM('4 Talie'!E33)</f>
-        <v>1322742</v>
+        <v>2797588</v>
       </c>
       <c r="AA13">
-        <f>SUM('4 Talie'!F33)</f>
-        <v>0.38346058461381233</v>
+        <f t="shared" si="3"/>
+        <v>19845531</v>
       </c>
       <c r="AB13">
+        <f>SUM('4 Talie'!C33)</f>
+        <v>2970510</v>
+      </c>
+      <c r="AC13">
+        <f>SUM('4 Talie'!D33)</f>
+        <v>33337205</v>
+      </c>
+      <c r="AD13">
         <f>SUM('4 Talie'!G33)</f>
-        <v>-44112820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-92952920</v>
+      </c>
+      <c r="AE13">
+        <f>SUM('4 Talie'!B33)</f>
+        <v>22643119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>24</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Z16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
+      <c r="G20" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="K20" s="9"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:B32" si="0">B2+I2</f>
-        <v>10916007</v>
+        <f>(G21-F21+0.5*C21)*10</f>
+        <v>-257851110</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ref="C21:C32" si="1">C2+J2</f>
-        <v>1887140</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:D32" si="2">D2+K2</f>
-        <v>24007761</v>
+        <f>B2+J2</f>
+        <v>3811110</v>
+      </c>
+      <c r="D21">
+        <f>G21-C21</f>
+        <v>19357696</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ref="E21:E32" si="3">E2+L2</f>
-        <v>1798953</v>
+        <f>D2+L2</f>
+        <v>3949533</v>
       </c>
       <c r="F21" s="1">
-        <f>B21/(B21+C21+D21)</f>
-        <v>0.2965427258681041</v>
-      </c>
-      <c r="G21" s="1">
-        <f>(B21-D21+0.5*E21)*10</f>
-        <v>-121922775</v>
+        <f>E2+M2</f>
+        <v>50859472</v>
+      </c>
+      <c r="G21" s="11">
+        <f>G2+O2</f>
+        <v>23168806</v>
       </c>
       <c r="H21" s="1">
-        <f>B21+C21+D21</f>
-        <v>36810908</v>
+        <f>G21+E21+F21</f>
+        <v>77977811</v>
       </c>
       <c r="I21" s="1">
-        <f>D21/H21</f>
-        <v>0.65219149171761803</v>
+        <f>B21/H21</f>
+        <v>-3.3067241397684271</v>
       </c>
       <c r="J21" s="2">
-        <f>B21/D21</f>
-        <v>0.45468659072372469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G21/F21</f>
+        <v>0.45554554714999795</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>15764411</v>
+      <c r="B22" s="5">
+        <f>(G22-F22+0.5*C22)*10</f>
+        <v>-43511685</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
-        <v>3578619</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>18761415</v>
+        <f>B3+J3</f>
+        <v>3903339</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D32" si="4">G22-C22</f>
+        <v>29537706</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="3"/>
-        <v>1840643</v>
+        <f>D3+L3</f>
+        <v>7532457</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F32" si="4">B22/(B22+C22+D22)</f>
-        <v>0.41371580139797337</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" ref="G22:G32" si="5">(B22-D22+0.5*E22)*10</f>
-        <v>-20766825</v>
+        <f>E3+M3</f>
+        <v>39743883</v>
+      </c>
+      <c r="G22" s="11">
+        <f>G3+O3</f>
+        <v>33441045</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:H32" si="6">B22+C22+D22</f>
-        <v>38104445</v>
+        <f>G22+E22+F22</f>
+        <v>80717385</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I32" si="7">D22/H22</f>
-        <v>0.49236814760062769</v>
+        <f>B22/H22</f>
+        <v>-0.53906212397738107</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ref="J22:J32" si="8">B22/D22</f>
-        <v>0.84025703818182162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <f>G22/F22</f>
+        <v>0.84141363338856445</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>12696488</v>
+        <f>(G23-F23+0.5*C23)*10</f>
+        <v>-263727035</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>1725373</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>26158924</v>
+        <f>B4+J4</f>
+        <v>4173815</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>22777750</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>1969280</v>
+        <f>D4+L4</f>
+        <v>3597520</v>
       </c>
       <c r="F23" s="1">
+        <f>E4+M4</f>
+        <v>55411176</v>
+      </c>
+      <c r="G23" s="11">
+        <f>G4+O4</f>
+        <v>26951565</v>
+      </c>
+      <c r="H23" s="1">
+        <f>G23+E23+F23</f>
+        <v>85960261</v>
+      </c>
+      <c r="I23" s="1">
+        <f>B23/H23</f>
+        <v>-3.0680111010830924</v>
+      </c>
+      <c r="J23" s="4">
+        <f>G23/F23</f>
+        <v>0.48639222167022766</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(G24-F24+0.5*C24)*10</f>
+        <v>-249167190</v>
+      </c>
+      <c r="C24" s="1">
+        <f>B5+J5</f>
+        <v>4148198</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="4"/>
-        <v>0.3128694528703671</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="5"/>
-        <v>-124777960</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="6"/>
-        <v>40580785</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="7"/>
-        <v>0.64461355294137357</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="8"/>
-        <v>0.48535971892421875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>12914563</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
-        <v>1949485</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>25681127</v>
+        <v>23259832</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
-        <v>1956895</v>
+        <f>D5+L5</f>
+        <v>4076586</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
-        <v>0.31852280820097584</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="5"/>
-        <v>-117881165</v>
+        <f>E5+M5</f>
+        <v>54398848</v>
+      </c>
+      <c r="G24" s="11">
+        <f>G5+O5</f>
+        <v>27408030</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
-        <v>40545175</v>
+        <f>G24+E24+F24</f>
+        <v>85883464</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
-        <v>0.63339539168347403</v>
+        <f>B24/H24</f>
+        <v>-2.901224268271247</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="8"/>
-        <v>0.50288147401007754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G24/F24</f>
+        <v>0.5038347503241245</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>15675784</v>
+        <f>(G25-F25+0.5*C25)*10</f>
+        <v>-44486355</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>3941653</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>18726282</v>
+        <f>B6+J6</f>
+        <v>3925783</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>29329845</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>1852664</v>
+        <f>D6+L6</f>
+        <v>8298843</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4088227331313376</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="5"/>
-        <v>-21241660</v>
+        <f>E6+M6</f>
+        <v>39667155</v>
+      </c>
+      <c r="G25" s="11">
+        <f>G6+O6</f>
+        <v>33255628</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="6"/>
-        <v>38343719</v>
+        <f>G25+E25+F25</f>
+        <v>81221626</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
-        <v>0.48837938750802967</v>
+        <f>B25/H25</f>
+        <v>-0.54771564164450492</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="8"/>
-        <v>0.83710071225030147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G25/F25</f>
+        <v>0.83836685539963729</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>16807380</v>
+        <f>(G26-F26+0.5*C26)*10</f>
+        <v>-98833405</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
-        <v>2879376</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>22513141</v>
+        <f>B7+J7</f>
+        <v>4275413</v>
+      </c>
+      <c r="D26">
+        <f>G26-C26</f>
+        <v>31385859</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>2017727</v>
+        <f>D7+L7</f>
+        <v>6044430</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="4"/>
-        <v>0.39828011902493504</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="5"/>
-        <v>-46968975</v>
+        <f>E7+M7</f>
+        <v>47682319</v>
+      </c>
+      <c r="G26" s="11">
+        <f>G7+O7</f>
+        <v>35661272</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="6"/>
-        <v>42199897</v>
+        <f>G26+E26+F26</f>
+        <v>89388021</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
-        <v>0.53348805566989888</v>
+        <f>B26/H26</f>
+        <v>-1.1056672235757405</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="8"/>
-        <v>0.74655864323863119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G26/F26</f>
+        <v>0.74789298733562015</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>13070170</v>
+        <f>(G27-F27+0.5*C27)*10</f>
+        <v>-49693990</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
-        <v>2547978</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>16237492</v>
+        <f>B8+J8</f>
+        <v>3392854</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>24334946</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="3"/>
-        <v>1601951</v>
+        <f>D8+L8</f>
+        <v>5351718</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="4"/>
-        <v>0.41029375018050179</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="5"/>
-        <v>-23663465</v>
+        <f>E8+M8</f>
+        <v>34393626</v>
+      </c>
+      <c r="G27" s="11">
+        <f>G8+O8</f>
+        <v>27727800</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
-        <v>31855640</v>
+        <f>G27+E27+F27</f>
+        <v>67473144</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
-        <v>0.50972110433191731</v>
+        <f>B27/H27</f>
+        <v>-0.73650028817391411</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="8"/>
-        <v>0.80493773299472604</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G27/F27</f>
+        <v>0.80619007719628055</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>16389167</v>
+      <c r="B28" s="5">
+        <f>(G28-F28+0.5*C28)*10</f>
+        <v>-44655170</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
-        <v>3591818</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>19470014</v>
+        <f>B9+J9</f>
+        <v>4022970</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>30744225</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
-        <v>1898614</v>
+        <f>D9+L9</f>
+        <v>7556238</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="4"/>
-        <v>0.41543097552485297</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="5"/>
-        <v>-21315400</v>
+        <f>E9+M9</f>
+        <v>41244197</v>
+      </c>
+      <c r="G28" s="11">
+        <f>G9+O9</f>
+        <v>34767195</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="6"/>
-        <v>39450999</v>
+        <f>G28+E28+F28</f>
+        <v>83567630</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
-        <v>0.49352397894917693</v>
+        <f>B28/H28</f>
+        <v>-0.5343596557662339</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="8"/>
-        <v>0.84176452055966677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G28/F28</f>
+        <v>0.84295967745474598</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>15779270</v>
+        <f>(G29-F29+0.5*C29)*10</f>
+        <v>-45740835</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
-        <v>3890594</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>18892512</v>
+        <f>B10+J10</f>
+        <v>3945659</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>29529037</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="3"/>
-        <v>1861889</v>
+        <f>D10+L10</f>
+        <v>8189725</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="4"/>
-        <v>0.40918822014494127</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="5"/>
-        <v>-21822975</v>
+        <f>E10+M10</f>
+        <v>40021609</v>
+      </c>
+      <c r="G29" s="11">
+        <f>G10+O10</f>
+        <v>33474696</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
-        <v>38562376</v>
+        <f>G29+E29+F29</f>
+        <v>81686030</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
-        <v>0.48992084927546997</v>
+        <f>B29/H29</f>
+        <v>-0.55995908969991559</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="8"/>
-        <v>0.83521291398412234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G29/F29</f>
+        <v>0.83641554741089996</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>14756792</v>
+        <f>(G30-F30+0.5*C30)*10</f>
+        <v>-55061350</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
-        <v>3065824</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="2"/>
-        <v>18259463</v>
+        <f>B11+J11</f>
+        <v>3733556</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>27567047</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="3"/>
-        <v>1762875</v>
+        <f>D11+L11</f>
+        <v>6445744</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="4"/>
-        <v>0.40897842943029972</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="5"/>
-        <v>-26212335</v>
+        <f>E11+M11</f>
+        <v>38673516</v>
+      </c>
+      <c r="G30" s="11">
+        <f>G11+O11</f>
+        <v>31300603</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="6"/>
-        <v>36082079</v>
+        <f>G30+E30+F30</f>
+        <v>76419863</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
-        <v>0.50605351759248685</v>
+        <f>B30/H30</f>
+        <v>-0.72051097500658956</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="8"/>
-        <v>0.80817228852787182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G30/F30</f>
+        <v>0.80935498598058686</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>16308758</v>
+      <c r="B31" s="5">
+        <f>(G31-F31+0.5*C31)*10</f>
+        <v>-33369160</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
-        <v>3269977</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>18875943</v>
+        <f>B12+J12</f>
+        <v>4092440</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>30502032</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
-        <v>1931031</v>
+        <f>D12+L12</f>
+        <v>6876156</v>
       </c>
       <c r="F31" s="1">
+        <f>E12+M12</f>
+        <v>39977608</v>
+      </c>
+      <c r="G31" s="11">
+        <f>G12+O12</f>
+        <v>34594472</v>
+      </c>
+      <c r="H31" s="1">
+        <f>G31+E31+F31</f>
+        <v>81448236</v>
+      </c>
+      <c r="I31" s="1">
+        <f>B31/H31</f>
+        <v>-0.40969776190119084</v>
+      </c>
+      <c r="J31" s="3">
+        <f>G31/F31</f>
+        <v>0.86534622081441193</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <f>(G32-F32+0.5*C32)*10</f>
+        <v>-146183665</v>
+      </c>
+      <c r="C32" s="7">
+        <f>B13+J13</f>
+        <v>4438243</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="4"/>
-        <v>0.42410335616384565</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="5"/>
-        <v>-16016695</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="6"/>
-        <v>38454678</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="7"/>
-        <v>0.49086207404987242</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="8"/>
-        <v>0.86399699342173264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="8">
-        <f t="shared" si="0"/>
-        <v>16671921</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" si="1"/>
-        <v>2525649</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="2"/>
-        <v>24650716</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="3"/>
-        <v>2094227</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="4"/>
-        <v>0.38021830545440249</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="5"/>
-        <v>-69316815</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="6"/>
-        <v>43848286</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="7"/>
-        <v>0.56218197445619655</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="8"/>
-        <v>0.67632603450544804</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="7"/>
+        <v>30935936</v>
+      </c>
+      <c r="E32" s="7">
+        <f>D13+L13</f>
+        <v>5294143</v>
+      </c>
+      <c r="F32" s="7">
+        <f>E13+M13</f>
+        <v>52211667</v>
+      </c>
+      <c r="G32" s="12">
+        <f>G13+O13</f>
+        <v>35374179</v>
+      </c>
+      <c r="H32" s="7">
+        <f>G32+E32+F32</f>
+        <v>92879989</v>
+      </c>
+      <c r="I32" s="1">
+        <f>B32/H32</f>
+        <v>-1.573898388381592</v>
+      </c>
+      <c r="J32" s="7">
+        <f>G32/F32</f>
+        <v>0.67751483590822714</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I35" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N21:O32">
+    <sortCondition descending="1" ref="O21:O32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2379,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333F2DA0-EC3A-4220-BFDC-D45586641FF7}">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,6 +2572,9 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -2503,9 +2690,21 @@
         <f t="shared" ref="L2:L13" si="1">(H2-J2+K2/2)*10</f>
         <v>-27075445</v>
       </c>
+      <c r="N2">
+        <v>3446494</v>
+      </c>
+      <c r="O2">
+        <v>591770</v>
+      </c>
+      <c r="P2">
+        <v>7565716</v>
+      </c>
+      <c r="Q2">
+        <v>574540</v>
+      </c>
       <c r="R2">
         <f t="shared" ref="R2:R13" si="2">(N2-P2+Q2/2)*10</f>
-        <v>0</v>
+        <v>-38319520</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X13" si="3">(T2-V2+W2/2)*10</f>
@@ -2552,9 +2751,21 @@
         <f t="shared" si="1"/>
         <v>-4664945</v>
       </c>
+      <c r="N3">
+        <v>4979488</v>
+      </c>
+      <c r="O3">
+        <v>1139753</v>
+      </c>
+      <c r="P3">
+        <v>5904726</v>
+      </c>
+      <c r="Q3">
+        <v>586487</v>
+      </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6319945</v>
       </c>
       <c r="X3">
         <f t="shared" si="3"/>
@@ -2601,9 +2812,21 @@
         <f t="shared" si="1"/>
         <v>-26876235</v>
       </c>
+      <c r="N4">
+        <v>4062710</v>
+      </c>
+      <c r="O4">
+        <v>576313</v>
+      </c>
+      <c r="P4">
+        <v>8172563</v>
+      </c>
+      <c r="Q4">
+        <v>627733</v>
+      </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-37959865</v>
       </c>
       <c r="X4">
         <f t="shared" si="3"/>
@@ -2650,9 +2873,21 @@
         <f t="shared" si="1"/>
         <v>-26084425</v>
       </c>
+      <c r="N5">
+        <v>4086896</v>
+      </c>
+      <c r="O5">
+        <v>639283</v>
+      </c>
+      <c r="P5">
+        <v>8085631</v>
+      </c>
+      <c r="Q5">
+        <v>624831</v>
+      </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-36863195</v>
       </c>
       <c r="X5">
         <f t="shared" si="3"/>
@@ -2699,9 +2934,21 @@
         <f t="shared" si="1"/>
         <v>-4806970</v>
       </c>
+      <c r="N6">
+        <v>4946367</v>
+      </c>
+      <c r="O6">
+        <v>1251066</v>
+      </c>
+      <c r="P6">
+        <v>5896704</v>
+      </c>
+      <c r="Q6">
+        <v>589341</v>
+      </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6556665</v>
       </c>
       <c r="X6">
         <f t="shared" si="3"/>
@@ -2748,9 +2995,21 @@
         <f t="shared" si="1"/>
         <v>-10516380</v>
       </c>
+      <c r="N7">
+        <v>5311180</v>
+      </c>
+      <c r="O7">
+        <v>940518</v>
+      </c>
+      <c r="P7">
+        <v>7098369</v>
+      </c>
+      <c r="Q7">
+        <v>642362</v>
+      </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-14660080</v>
       </c>
       <c r="X7">
         <f t="shared" si="3"/>
@@ -2797,9 +3056,21 @@
         <f t="shared" si="1"/>
         <v>-5667405</v>
       </c>
+      <c r="N8">
+        <v>4434046</v>
+      </c>
+      <c r="O8">
+        <v>844671</v>
+      </c>
+      <c r="P8">
+        <v>5486746</v>
+      </c>
+      <c r="Q8">
+        <v>547285</v>
+      </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7790575</v>
       </c>
       <c r="X8">
         <f t="shared" si="3"/>
@@ -2846,9 +3117,21 @@
         <f t="shared" si="1"/>
         <v>-4793365</v>
       </c>
+      <c r="N9">
+        <v>5177517</v>
+      </c>
+      <c r="O9">
+        <v>1165172</v>
+      </c>
+      <c r="P9">
+        <v>6129821</v>
+      </c>
+      <c r="Q9">
+        <v>604341</v>
+      </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6501335</v>
       </c>
       <c r="X9">
         <f t="shared" si="3"/>
@@ -2895,9 +3178,21 @@
         <f t="shared" si="1"/>
         <v>-4919785</v>
       </c>
+      <c r="N10">
+        <v>4974672</v>
+      </c>
+      <c r="O10">
+        <v>1241893</v>
+      </c>
+      <c r="P10">
+        <v>5943704</v>
+      </c>
+      <c r="Q10">
+        <v>592042</v>
+      </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6730110</v>
       </c>
       <c r="X10">
         <f t="shared" si="3"/>
@@ -2944,9 +3239,21 @@
         <f t="shared" si="1"/>
         <v>-5648490</v>
       </c>
+      <c r="N11">
+        <v>4971457</v>
+      </c>
+      <c r="O11">
+        <v>1057526</v>
+      </c>
+      <c r="P11">
+        <v>6042280</v>
+      </c>
+      <c r="Q11">
+        <v>592152</v>
+      </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7747470</v>
       </c>
       <c r="X11">
         <f t="shared" si="3"/>
@@ -2993,9 +3300,21 @@
         <f t="shared" si="1"/>
         <v>-3585590</v>
       </c>
+      <c r="N12">
+        <v>5238945</v>
+      </c>
+      <c r="O12">
+        <v>1088132</v>
+      </c>
+      <c r="P12">
+        <v>6038065</v>
+      </c>
+      <c r="Q12">
+        <v>623507</v>
+      </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4873665</v>
       </c>
       <c r="X12">
         <f t="shared" si="3"/>
@@ -3042,9 +3361,21 @@
         <f t="shared" si="1"/>
         <v>-15516405</v>
       </c>
+      <c r="N13">
+        <v>5267232</v>
+      </c>
+      <c r="O13">
+        <v>841867</v>
+      </c>
+      <c r="P13">
+        <v>7778617</v>
+      </c>
+      <c r="Q13">
+        <v>666308</v>
+      </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-21782310</v>
       </c>
       <c r="X13">
         <f t="shared" si="3"/>
@@ -3140,31 +3471,31 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ref="B19:B30" si="5">B2+H2+N2+T2+Z2+V19+J19+P19</f>
-        <v>4759156</v>
+        <v>10081688</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C30" si="6">C2+I2+O2+U2+AA2+W19+K19+Q19</f>
-        <v>839857</v>
+        <v>1755169</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:D30" si="7">D2+J2+P2+V2+AB2+X19+L19+R19</f>
-        <v>10490852</v>
+        <v>22181157</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ref="E19:E30" si="8">E2+K2+Q2+W2+AC2+Y19+M19+S19</f>
-        <v>795917</v>
+        <v>1683604</v>
       </c>
       <c r="F19" s="1">
         <f>B19/(SUM(B19:D19))</f>
-        <v>0.29578594972673794</v>
+        <v>0.29636321508951108</v>
       </c>
       <c r="G19" s="1">
         <f>(B19-D19+E19/2)*10</f>
-        <v>-53337375</v>
+        <v>-112576670</v>
       </c>
       <c r="H19" s="1">
         <f>B19/D19</f>
-        <v>0.45364818796414247</v>
+        <v>0.45451587579493713</v>
       </c>
       <c r="J19">
         <v>1881591</v>
@@ -3182,9 +3513,21 @@
         <f t="shared" ref="N19:N30" si="9">(J19-L19+M19/2)*10</f>
         <v>-20909025</v>
       </c>
+      <c r="P19">
+        <v>1876038</v>
+      </c>
+      <c r="Q19">
+        <v>323542</v>
+      </c>
+      <c r="R19">
+        <v>4124589</v>
+      </c>
+      <c r="S19">
+        <v>313147</v>
+      </c>
       <c r="T19">
         <f t="shared" ref="T19:T30" si="10">(P19-R19+S19/2)*10</f>
-        <v>0</v>
+        <v>-20919775</v>
       </c>
       <c r="Z19">
         <f>(V19-X19+Y19/2)*10</f>
@@ -3197,31 +3540,31 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="5"/>
-        <v>6880635</v>
+        <v>14570850</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
-        <v>1600736</v>
+        <v>3362069</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="7"/>
-        <v>8192486</v>
+        <v>17318073</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="8"/>
-        <v>811548</v>
+        <v>1718340</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ref="F20:F30" si="11">B20/(SUM(B20:D20))</f>
-        <v>0.41266007019251755</v>
+        <v>0.41334581449509278</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:G30" si="12">(B20-D20+E20/2)*10</f>
-        <v>-9060770</v>
+        <v>-18880530</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ref="H20:H30" si="13">B20/D20</f>
-        <v>0.83987143829113653</v>
+        <v>0.84136670402070712</v>
       </c>
       <c r="J20">
         <v>2716494</v>
@@ -3239,9 +3582,21 @@
         <f t="shared" si="9"/>
         <v>-3486400</v>
       </c>
+      <c r="P20">
+        <v>2710727</v>
+      </c>
+      <c r="Q20">
+        <v>621580</v>
+      </c>
+      <c r="R20">
+        <v>3220861</v>
+      </c>
+      <c r="S20">
+        <v>320305</v>
+      </c>
       <c r="T20">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3499815</v>
       </c>
       <c r="Z20">
         <f t="shared" ref="Z20:Z30" si="14">(V20-X20+Y20/2)*10</f>
@@ -3254,31 +3609,31 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="5"/>
-        <v>5610584</v>
+        <v>11887195</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
-        <v>820275</v>
+        <v>1710095</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
-        <v>11335286</v>
+        <v>23961859</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="8"/>
-        <v>867960</v>
+        <v>1838079</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="11"/>
-        <v>0.31580199306039664</v>
+        <v>0.31649266068302029</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="12"/>
-        <v>-52907220</v>
+        <v>-111556245</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="13"/>
-        <v>0.49496624963851815</v>
+        <v>0.49608817913501618</v>
       </c>
       <c r="J21">
         <v>2218727</v>
@@ -3296,9 +3651,21 @@
         <f t="shared" si="9"/>
         <v>-20710935</v>
       </c>
+      <c r="P21">
+        <v>2213901</v>
+      </c>
+      <c r="Q21">
+        <v>313507</v>
+      </c>
+      <c r="R21">
+        <v>4454010</v>
+      </c>
+      <c r="S21">
+        <v>342386</v>
+      </c>
       <c r="T21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-20689160</v>
       </c>
       <c r="Z21">
         <f t="shared" si="14"/>
@@ -3311,31 +3678,31 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="5"/>
-        <v>5645019</v>
+        <v>11957995</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
-        <v>906553</v>
+        <v>1895319</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
-        <v>11215714</v>
+        <v>23707649</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="8"/>
-        <v>863132</v>
+        <v>1827594</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="11"/>
-        <v>0.31771982507626656</v>
+        <v>0.31836231142423055</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="12"/>
-        <v>-51391290</v>
+        <v>-108358570</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="13"/>
-        <v>0.50331338691410998</v>
+        <v>0.50439396162816486</v>
       </c>
       <c r="J22">
         <v>2229911</v>
@@ -3353,9 +3720,21 @@
         <f t="shared" si="9"/>
         <v>-20153000</v>
       </c>
+      <c r="P22">
+        <v>2226080</v>
+      </c>
+      <c r="Q22">
+        <v>349483</v>
+      </c>
+      <c r="R22">
+        <v>4406304</v>
+      </c>
+      <c r="S22">
+        <v>339631</v>
+      </c>
       <c r="T22">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-20104085</v>
       </c>
       <c r="Z22">
         <f t="shared" si="14"/>
@@ -3368,31 +3747,31 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="5"/>
-        <v>6837669</v>
+        <v>14476080</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
-        <v>1755452</v>
+        <v>3689756</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="7"/>
-        <v>8178863</v>
+        <v>17292025</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="8"/>
-        <v>816329</v>
+        <v>1727439</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="11"/>
-        <v>0.40768396869446094</v>
+        <v>0.40826151357522666</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="12"/>
-        <v>-9330295</v>
+        <v>-19522255</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="13"/>
-        <v>0.8360170600730199</v>
+        <v>0.83715354332416247</v>
       </c>
       <c r="J23">
         <v>2700503</v>
@@ -3410,9 +3789,21 @@
         <f t="shared" si="9"/>
         <v>-3571820</v>
       </c>
+      <c r="P23">
+        <v>2692044</v>
+      </c>
+      <c r="Q23">
+        <v>683238</v>
+      </c>
+      <c r="R23">
+        <v>3216458</v>
+      </c>
+      <c r="S23">
+        <v>321769</v>
+      </c>
       <c r="T23">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3635295</v>
       </c>
       <c r="Z23">
         <f t="shared" si="14"/>
@@ -3425,31 +3816,31 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>7342973</v>
+        <v>15548206</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
-        <v>1324342</v>
+        <v>2777924</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
-        <v>9845039</v>
+        <v>20811413</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="8"/>
-        <v>887188</v>
+        <v>1879017</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="11"/>
-        <v>0.39665258129787279</v>
+        <v>0.39727087620191182</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="12"/>
-        <v>-20584720</v>
+        <v>-43236985</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="13"/>
-        <v>0.74585514592679625</v>
+        <v>0.74709996865662121</v>
       </c>
       <c r="J24">
         <v>2899917</v>
@@ -3467,9 +3858,21 @@
         <f t="shared" si="9"/>
         <v>-8005460</v>
       </c>
+      <c r="P24">
+        <v>2894053</v>
+      </c>
+      <c r="Q24">
+        <v>513064</v>
+      </c>
+      <c r="R24">
+        <v>3868005</v>
+      </c>
+      <c r="S24">
+        <v>349467</v>
+      </c>
       <c r="T24">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-7992185</v>
       </c>
       <c r="Z24">
         <f t="shared" si="14"/>
@@ -3482,31 +3885,31 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>6128864</v>
+        <v>12977923</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
-        <v>1191131</v>
+        <v>2498434</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
-        <v>7614343</v>
+        <v>16092593</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="8"/>
-        <v>758309</v>
+        <v>1604281</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="11"/>
-        <v>0.41038739045547246</v>
+        <v>0.41109770834950166</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="12"/>
-        <v>-11063245</v>
+        <v>-23125295</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="13"/>
-        <v>0.80491041709048305</v>
+        <v>0.80645319247184089</v>
       </c>
       <c r="J25">
         <v>2419359</v>
@@ -3524,9 +3927,21 @@
         <f t="shared" si="9"/>
         <v>-4279910</v>
       </c>
+      <c r="P25">
+        <v>2415013</v>
+      </c>
+      <c r="Q25">
+        <v>462632</v>
+      </c>
+      <c r="R25">
+        <v>2991504</v>
+      </c>
+      <c r="S25">
+        <v>298687</v>
+      </c>
       <c r="T25">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-4271475</v>
       </c>
       <c r="Z25">
         <f t="shared" si="14"/>
@@ -3539,31 +3954,31 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>7157043</v>
+        <v>15154209</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
-        <v>1635963</v>
+        <v>3438267</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>8502958</v>
+        <v>17973510</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="8"/>
-        <v>837890</v>
+        <v>1772134</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="11"/>
-        <v>0.41379844453885312</v>
+        <v>0.41443457862725214</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="12"/>
-        <v>-9269700</v>
+        <v>-19332340</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="13"/>
-        <v>0.8417121429977662</v>
+        <v>0.84314132298031941</v>
       </c>
       <c r="J26">
         <v>2826313</v>
@@ -3581,9 +3996,21 @@
         <f t="shared" si="9"/>
         <v>-3551410</v>
       </c>
+      <c r="P26">
+        <v>2819649</v>
+      </c>
+      <c r="Q26">
+        <v>637132</v>
+      </c>
+      <c r="R26">
+        <v>3340731</v>
+      </c>
+      <c r="S26">
+        <v>329903</v>
+      </c>
       <c r="T26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3561305</v>
       </c>
       <c r="Z26">
         <f t="shared" si="14"/>
@@ -3596,31 +4023,31 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>6876766</v>
+        <v>14560052</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1743946</v>
+        <v>3664352</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>8241942</v>
+        <v>17425649</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
-        <v>819843</v>
+        <v>1735301</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="11"/>
-        <v>0.40781041940373086</v>
+        <v>0.40841599870833289</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="12"/>
-        <v>-9552545</v>
+        <v>-19979465</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="13"/>
-        <v>0.83436233839063656</v>
+        <v>0.83555292546062421</v>
       </c>
       <c r="J27">
         <v>2715857</v>
@@ -3638,9 +4065,21 @@
         <f t="shared" si="9"/>
         <v>-3661615</v>
       </c>
+      <c r="P27">
+        <v>2708614</v>
+      </c>
+      <c r="Q27">
+        <v>678513</v>
+      </c>
+      <c r="R27">
+        <v>3240003</v>
+      </c>
+      <c r="S27">
+        <v>323416</v>
+      </c>
       <c r="T27">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3696810</v>
       </c>
       <c r="Z27">
         <f t="shared" si="14"/>
@@ -3653,31 +4092,31 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
-        <v>6872346</v>
+        <v>14550759</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>1486795</v>
+        <v>3122348</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>8376777</v>
+        <v>17713124</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="8"/>
-        <v>819927</v>
+        <v>1735389</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="11"/>
-        <v>0.410634540632907</v>
+        <v>0.41119832739462986</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="12"/>
-        <v>-10944675</v>
+        <v>-22946705</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="13"/>
-        <v>0.82040455416206015</v>
+        <v>0.82146768689701488</v>
       </c>
       <c r="J28">
         <v>2713900</v>
@@ -3695,9 +4134,21 @@
         <f t="shared" si="9"/>
         <v>-4208010</v>
       </c>
+      <c r="P28">
+        <v>2706956</v>
+      </c>
+      <c r="Q28">
+        <v>578027</v>
+      </c>
+      <c r="R28">
+        <v>3294067</v>
+      </c>
+      <c r="S28">
+        <v>323310</v>
+      </c>
       <c r="T28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-4254560</v>
       </c>
       <c r="Z28">
         <f t="shared" si="14"/>
@@ -3710,31 +4161,31 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>7244541</v>
+        <v>15339573</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>1528600</v>
+        <v>3209909</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>8369356</v>
+        <v>17695991</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>864424</v>
+        <v>1828377</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="11"/>
-        <v>0.42260710327089457</v>
+        <v>0.4232134865504445</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="12"/>
-        <v>-6926030</v>
+        <v>-14422295</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="13"/>
-        <v>0.86560315990859993</v>
+        <v>0.86683887893026168</v>
       </c>
       <c r="J29">
         <v>2860476</v>
@@ -3752,9 +4203,21 @@
         <f t="shared" si="9"/>
         <v>-2631740</v>
       </c>
+      <c r="P29">
+        <v>2856087</v>
+      </c>
+      <c r="Q29">
+        <v>593177</v>
+      </c>
+      <c r="R29">
+        <v>3288570</v>
+      </c>
+      <c r="S29">
+        <v>340446</v>
+      </c>
       <c r="T29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-2622600</v>
       </c>
       <c r="Z29">
         <f t="shared" si="14"/>
@@ -3767,31 +4230,31 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>7280301</v>
+        <v>15418594</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
-        <v>1189499</v>
+        <v>2490223</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>10789475</v>
+        <v>22806570</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="8"/>
-        <v>922296</v>
+        <v>1951399</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="11"/>
-        <v>0.37801531989132509</v>
+        <v>0.37869206548374451</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="12"/>
-        <v>-30480260</v>
+        <v>-64122765</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="13"/>
-        <v>0.67475952259030214</v>
+        <v>0.67605931097924854</v>
       </c>
       <c r="J30">
         <v>2875577</v>
@@ -3809,16 +4272,28 @@
         <f t="shared" si="9"/>
         <v>-11896190</v>
       </c>
+      <c r="P30">
+        <v>2871061</v>
+      </c>
+      <c r="Q30">
+        <v>458857</v>
+      </c>
+      <c r="R30">
+        <v>4238478</v>
+      </c>
+      <c r="S30">
+        <v>362795</v>
+      </c>
       <c r="T30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-11860195</v>
       </c>
       <c r="Z30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3829,14 +4304,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB2AC3-9D80-4096-9D36-672416D3269F}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4524,7 +4999,7 @@
         <v>-15144100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -4544,356 +5019,770 @@
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f>B2+I2+P2</f>
-        <v>6156851</v>
+        <f>B2+I2+P2+I22+P22</f>
+        <v>13087118</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:E22" si="3">C2+J2+Q2</f>
-        <v>1047283</v>
+        <f t="shared" ref="C22:E22" si="3">C2+J2+Q2+J22+Q22</f>
+        <v>2194364</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>13516909</v>
+        <v>28678315</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>1003036</v>
+        <v>2127506</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.29713036163285794</v>
+        <v>0.29770651579669488</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-68585400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-145274440</v>
+      </c>
+      <c r="I22">
+        <v>4496531</v>
+      </c>
+      <c r="J22">
+        <v>744879</v>
+      </c>
+      <c r="K22">
+        <v>9834659</v>
+      </c>
+      <c r="L22">
+        <v>730074</v>
+      </c>
+      <c r="N22">
+        <f>(I22-K22+L22/2)*10</f>
+        <v>-49730910</v>
+      </c>
+      <c r="P22">
+        <v>2433736</v>
+      </c>
+      <c r="Q22">
+        <v>402202</v>
+      </c>
+      <c r="R22">
+        <v>5326747</v>
+      </c>
+      <c r="S22">
+        <v>394396</v>
+      </c>
+      <c r="U22">
+        <f>(P22-R22+S22/2)*10</f>
+        <v>-26958130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:B33" si="4">B3+I3+P3</f>
-        <v>8883776</v>
+        <f t="shared" ref="B23:B33" si="4">B3+I3+P3+I23+P23</f>
+        <v>18870195</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:C33" si="5">C3+J3+Q3</f>
-        <v>1977883</v>
+        <f t="shared" ref="C23:C33" si="5">C3+J3+Q3+J23+Q23</f>
+        <v>4170388</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:D33" si="6">D3+K3+R3</f>
-        <v>10568929</v>
+        <f t="shared" ref="D23:D33" si="6">D3+K3+R3+K23+R23</f>
+        <v>22425810</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E33" si="7">E3+L3+S3</f>
-        <v>1029095</v>
+        <f t="shared" ref="E23:E33" si="7">E3+L3+S3+L23+S23</f>
+        <v>2184999</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="8">B23/(SUM(B23:D23))</f>
-        <v>0.41453720261898552</v>
+        <v>0.41503611249742201</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="9">(B23-D23+E23/2)*10</f>
-        <v>-11706055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-24631155</v>
+      </c>
+      <c r="I23">
+        <v>6480518</v>
+      </c>
+      <c r="J23">
+        <v>1422741</v>
+      </c>
+      <c r="K23">
+        <v>7689009</v>
+      </c>
+      <c r="L23">
+        <v>749494</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N33" si="10">(I23-K23+L23/2)*10</f>
+        <v>-8337440</v>
+      </c>
+      <c r="P23">
+        <v>3505901</v>
+      </c>
+      <c r="Q23">
+        <v>769764</v>
+      </c>
+      <c r="R23">
+        <v>4167872</v>
+      </c>
+      <c r="S23">
+        <v>406410</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U33" si="11">(P23-R23+S23/2)*10</f>
+        <v>-4587660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="4"/>
-        <v>7085904</v>
+        <v>15064370</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
-        <v>905098</v>
+        <v>1887425</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="6"/>
-        <v>14823638</v>
+        <v>31449317</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="7"/>
-        <v>1101320</v>
+        <v>2335736</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="8"/>
-        <v>0.31058583435899056</v>
+        <v>0.31124016324253045</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>-71870740</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-152170790</v>
+      </c>
+      <c r="I24">
+        <v>5174723</v>
+      </c>
+      <c r="J24">
+        <v>637475</v>
+      </c>
+      <c r="K24">
+        <v>10786160</v>
+      </c>
+      <c r="L24">
+        <v>800177</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>-52113485</v>
+      </c>
+      <c r="P24">
+        <v>2803743</v>
+      </c>
+      <c r="Q24">
+        <v>344852</v>
+      </c>
+      <c r="R24">
+        <v>5839519</v>
+      </c>
+      <c r="S24">
+        <v>434239</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="11"/>
+        <v>-28186565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="4"/>
-        <v>7269544</v>
+        <v>15450035</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
-        <v>1042932</v>
+        <v>2181267</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>14465413</v>
+        <v>30691199</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="7"/>
-        <v>1093763</v>
+        <v>2320604</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="8"/>
-        <v>0.31914915381315628</v>
+        <v>0.31972755300889744</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="9"/>
-        <v>-66489875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-140808620</v>
+      </c>
+      <c r="I25">
+        <v>5307622</v>
+      </c>
+      <c r="J25">
+        <v>739016</v>
+      </c>
+      <c r="K25">
+        <v>10524332</v>
+      </c>
+      <c r="L25">
+        <v>795877</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>-48187715</v>
+      </c>
+      <c r="P25">
+        <v>2872869</v>
+      </c>
+      <c r="Q25">
+        <v>399319</v>
+      </c>
+      <c r="R25">
+        <v>5701454</v>
+      </c>
+      <c r="S25">
+        <v>430964</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="11"/>
+        <v>-26131030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>8838115</v>
+        <v>18779548</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>2186201</v>
+        <v>4609087</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>10547419</v>
+        <v>22375130</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="7"/>
-        <v>1036335</v>
+        <v>2198344</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="8"/>
-        <v>0.4097081203714027</v>
+        <v>0.41035845717676417</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="9"/>
-        <v>-11911365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-24964100</v>
+      </c>
+      <c r="I26">
+        <v>6452199</v>
+      </c>
+      <c r="J26">
+        <v>1572346</v>
+      </c>
+      <c r="K26">
+        <v>7668966</v>
+      </c>
+      <c r="L26">
+        <v>753729</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>-8399025</v>
+      </c>
+      <c r="P26">
+        <v>3489234</v>
+      </c>
+      <c r="Q26">
+        <v>850540</v>
+      </c>
+      <c r="R26">
+        <v>4158745</v>
+      </c>
+      <c r="S26">
+        <v>408280</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="11"/>
+        <v>-4653710</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>9464407</v>
+        <v>20113066</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>1555034</v>
+        <v>3266506</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>12668102</v>
+        <v>26870906</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="7"/>
-        <v>1130539</v>
+        <v>2396396</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="8"/>
-        <v>0.39955207680256244</v>
+        <v>0.40025621248816778</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="9"/>
-        <v>-26384255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-55596420</v>
+      </c>
+      <c r="I27">
+        <v>6908945</v>
+      </c>
+      <c r="J27">
+        <v>1109872</v>
+      </c>
+      <c r="K27">
+        <v>9213137</v>
+      </c>
+      <c r="L27">
+        <v>821491</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>-18934465</v>
+      </c>
+      <c r="P27">
+        <v>3739714</v>
+      </c>
+      <c r="Q27">
+        <v>601600</v>
+      </c>
+      <c r="R27">
+        <v>4989667</v>
+      </c>
+      <c r="S27">
+        <v>444366</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="11"/>
+        <v>-10277700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>6941306</v>
+        <v>14749877</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>1356847</v>
+        <v>2853284</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>8623149</v>
+        <v>18301033</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>843642</v>
+        <v>1788573</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="8"/>
-        <v>0.41021110550476553</v>
+        <v>0.41081209064322682</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="9"/>
-        <v>-12600220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-26568695</v>
+      </c>
+      <c r="I28">
+        <v>5066886</v>
+      </c>
+      <c r="J28">
+        <v>971467</v>
+      </c>
+      <c r="K28">
+        <v>6280403</v>
+      </c>
+      <c r="L28">
+        <v>612694</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>-9071700</v>
+      </c>
+      <c r="P28">
+        <v>2741685</v>
+      </c>
+      <c r="Q28">
+        <v>524970</v>
+      </c>
+      <c r="R28">
+        <v>3397481</v>
+      </c>
+      <c r="S28">
+        <v>332237</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="11"/>
+        <v>-4896775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>9232124</v>
+        <v>19612986</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>1955855</v>
+        <v>4117971</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>10967056</v>
+        <v>23270687</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="7"/>
-        <v>1060724</v>
+        <v>2250836</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>0.41670545769844192</v>
+        <v>0.41728297844220086</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="9"/>
-        <v>-12045700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-25322830</v>
+      </c>
+      <c r="I29">
+        <v>6735232</v>
+      </c>
+      <c r="J29">
+        <v>1402865</v>
+      </c>
+      <c r="K29">
+        <v>7979573</v>
+      </c>
+      <c r="L29">
+        <v>771449</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>-8586165</v>
+      </c>
+      <c r="P29">
+        <v>3645630</v>
+      </c>
+      <c r="Q29">
+        <v>759251</v>
+      </c>
+      <c r="R29">
+        <v>4324058</v>
+      </c>
+      <c r="S29">
+        <v>418663</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="11"/>
+        <v>-4690965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>8902504</v>
+        <v>18914644</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>2146648</v>
+        <v>4525373</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>10650570</v>
+        <v>22595960</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="7"/>
-        <v>1042046</v>
+        <v>2210358</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="8"/>
-        <v>0.41025889640429497</v>
+        <v>0.41086657072576083</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="9"/>
-        <v>-12270430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-25761370</v>
+      </c>
+      <c r="I30">
+        <v>6498338</v>
+      </c>
+      <c r="J30">
+        <v>1543684</v>
+      </c>
+      <c r="K30">
+        <v>7745139</v>
+      </c>
+      <c r="L30">
+        <v>757741</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>-8679305</v>
+      </c>
+      <c r="P30">
+        <v>3513802</v>
+      </c>
+      <c r="Q30">
+        <v>835041</v>
+      </c>
+      <c r="R30">
+        <v>4200251</v>
+      </c>
+      <c r="S30">
+        <v>410571</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="11"/>
+        <v>-4811635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>7884446</v>
+        <v>16749844</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>1579029</v>
+        <v>3323396</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>9882686</v>
+        <v>20960392</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="7"/>
-        <v>942948</v>
+        <v>1998167</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="8"/>
-        <v>0.40754576579818602</v>
+        <v>0.40819793870549892</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="9"/>
-        <v>-15267660</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-32114645</v>
+      </c>
+      <c r="I31">
+        <v>5750276</v>
+      </c>
+      <c r="J31">
+        <v>1131560</v>
+      </c>
+      <c r="K31">
+        <v>7184475</v>
+      </c>
+      <c r="L31">
+        <v>684176</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>-10921110</v>
+      </c>
+      <c r="P31">
+        <v>3115122</v>
+      </c>
+      <c r="Q31">
+        <v>612807</v>
+      </c>
+      <c r="R31">
+        <v>3893231</v>
+      </c>
+      <c r="S31">
+        <v>371043</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="11"/>
+        <v>-5925875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>9064217</v>
+        <v>19254899</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
-        <v>1741377</v>
+        <v>3666247</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>10506587</v>
+        <v>22281617</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="7"/>
-        <v>1066607</v>
+        <v>2264063</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="8"/>
-        <v>0.42530687028230474</v>
+        <v>0.42596730204301891</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="9"/>
-        <v>-9090665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+        <v>-18946865</v>
+      </c>
+      <c r="I32">
+        <v>6611972</v>
+      </c>
+      <c r="J32">
+        <v>1248913</v>
+      </c>
+      <c r="K32">
+        <v>7636576</v>
+      </c>
+      <c r="L32">
+        <v>776788</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>-6362100</v>
+      </c>
+      <c r="P32">
+        <v>3578710</v>
+      </c>
+      <c r="Q32">
+        <v>675957</v>
+      </c>
+      <c r="R32">
+        <v>4138454</v>
+      </c>
+      <c r="S32">
+        <v>420668</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>-3494100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="1">
         <f t="shared" si="4"/>
-        <v>9391620</v>
-      </c>
-      <c r="C33" s="8">
+        <v>19955585</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="5"/>
-        <v>1336150</v>
-      </c>
-      <c r="D33" s="8">
+        <v>2803920</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="6"/>
-        <v>13861241</v>
-      </c>
-      <c r="E33" s="8">
+        <v>29405097</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="7"/>
-        <v>1171931</v>
-      </c>
-      <c r="F33" s="8">
+        <v>2486844</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" si="8"/>
-        <v>0.38194378781643556</v>
-      </c>
-      <c r="G33" s="8">
+        <v>0.38255031640038201</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="9"/>
-        <v>-38836555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>-82060900</v>
+      </c>
+      <c r="I33">
+        <v>6853648</v>
+      </c>
+      <c r="J33">
+        <v>952588</v>
+      </c>
+      <c r="K33">
+        <v>10082630</v>
+      </c>
+      <c r="L33">
+        <v>852751</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="10"/>
+        <v>-28026065</v>
+      </c>
+      <c r="P33">
+        <v>3710317</v>
+      </c>
+      <c r="Q33">
+        <v>515182</v>
+      </c>
+      <c r="R33">
+        <v>5461226</v>
+      </c>
+      <c r="S33">
+        <v>462162</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="11"/>
+        <v>-15198280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4903,14 +5792,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -5875,43 +6766,43 @@
       </c>
       <c r="B22" s="1">
         <f>B2+H2+N2+T2+I22+P22+W22+P37+I37+B37</f>
-        <v>6892636</v>
+        <v>14493148</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:E22" si="4">C2+I2+O2+U2+J22+Q22+X22+Q37+J37+C37</f>
-        <v>1159225</v>
+        <v>2398085</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="4"/>
-        <v>15113495</v>
+        <v>31710030</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>1111478</v>
+        <v>2331904</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.29754068964016783</v>
+        <v>0.29820517215776882</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-76651200</v>
+        <v>-160509300</v>
       </c>
       <c r="I22">
-        <v>42</v>
+        <v>2664422</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>434504</v>
       </c>
       <c r="K22">
-        <v>164</v>
+        <v>5820739</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>428537</v>
       </c>
       <c r="N22">
         <f>(I22-K22+L22/2)*10</f>
-        <v>-1160</v>
+        <v>-29420485</v>
       </c>
       <c r="P22">
         <v>2778445</v>
@@ -5940,43 +6831,43 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23:B33" si="5">B3+H3+N3+T3+I23+P23+W23+P38+I38+B38</f>
-        <v>9932278</v>
+        <v>20866863</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C33" si="6">C3+I3+O3+U3+J23+Q23+X23+Q38+J38+C38</f>
-        <v>2172141</v>
+        <v>4525448</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D33" si="7">D3+J3+P3+V3+K23+R23+Y23+R38+K38+D38</f>
-        <v>11822048</v>
+        <v>24805470</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ref="E23:E33" si="8">E3+K3+Q3+W3+L23+S23+Z23+S38+L38+E38</f>
-        <v>1144014</v>
+        <v>2399402</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F33" si="9">B23/(SUM(B23:D23))</f>
-        <v>0.41511678259895202</v>
+        <v>0.41569293670570817</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G33" si="10">(B23-D23+E23/2)*10</f>
-        <v>-13177630</v>
+        <v>-27389060</v>
       </c>
       <c r="I23">
-        <v>66</v>
+        <v>3833295</v>
       </c>
       <c r="J23">
-        <v>15</v>
+        <v>825168</v>
       </c>
       <c r="K23">
-        <v>60</v>
+        <v>4553519</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>440003</v>
       </c>
       <c r="N23">
         <f t="shared" ref="N23:N33" si="11">(I23-K23+L23/2)*10</f>
-        <v>120</v>
+        <v>-5002225</v>
       </c>
       <c r="P23">
         <v>3997571</v>
@@ -6005,43 +6896,43 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="5"/>
-        <v>7845857</v>
+        <v>16494052</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
-        <v>947495</v>
+        <v>1955176</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
-        <v>16689659</v>
+        <v>35012366</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="8"/>
-        <v>1224502</v>
+        <v>2566294</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="9"/>
-        <v>0.30788579104721964</v>
+        <v>0.3085215154639796</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="10"/>
-        <v>-82315510</v>
+        <v>-172351670</v>
       </c>
       <c r="I24">
-        <v>48</v>
+        <v>3032970</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>353196</v>
       </c>
       <c r="K24">
-        <v>96</v>
+        <v>6424276</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>471453</v>
       </c>
       <c r="N24">
         <f t="shared" si="11"/>
-        <v>-415</v>
+        <v>-31555795</v>
       </c>
       <c r="P24">
         <v>3161755</v>
@@ -6070,43 +6961,43 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="5"/>
-        <v>8118592</v>
+        <v>17072382</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
-        <v>1120974</v>
+        <v>2318372</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
-        <v>16179894</v>
+        <v>33938307</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="8"/>
-        <v>1213172</v>
+        <v>2546680</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="9"/>
-        <v>0.31938491218932269</v>
+        <v>0.32013280713868186</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="10"/>
-        <v>-74547160</v>
+        <v>-155925850</v>
       </c>
       <c r="I25">
-        <v>58</v>
+        <v>3141819</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>419663</v>
       </c>
       <c r="K25">
-        <v>83</v>
+        <v>6224980</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>467900</v>
       </c>
       <c r="N25">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>-28492110</v>
       </c>
       <c r="P25">
         <v>3271768</v>
@@ -6135,43 +7026,43 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="5"/>
-        <v>9891801</v>
+        <v>20777417</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
-        <v>2409110</v>
+        <v>5020929</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>11781984</v>
+        <v>24727976</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="8"/>
-        <v>1152253</v>
+        <v>2415697</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="9"/>
-        <v>0.41073969720002518</v>
+        <v>0.41121966091258333</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="10"/>
-        <v>-13140565</v>
+        <v>-27427105</v>
       </c>
       <c r="I26">
-        <v>62</v>
+        <v>3816058</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>915875</v>
       </c>
       <c r="K26">
-        <v>62</v>
+        <v>4540109</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>442809</v>
       </c>
       <c r="N26">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>-5026465</v>
       </c>
       <c r="P26">
         <v>3981359</v>
@@ -6200,43 +7091,43 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="5"/>
-        <v>10581075</v>
+        <v>22230808</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1673913</v>
+        <v>3478424</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>14150342</v>
+        <v>29686566</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
-        <v>1258202</v>
+        <v>2636403</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="9"/>
-        <v>0.40071739304148063</v>
+        <v>0.40130856134611509</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="10"/>
-        <v>-29401660</v>
+        <v>-61375565</v>
       </c>
       <c r="I27">
-        <v>65</v>
+        <v>4086604</v>
       </c>
       <c r="J27">
-        <v>15</v>
+        <v>631850</v>
       </c>
       <c r="K27">
-        <v>73</v>
+        <v>5446570</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>483396</v>
       </c>
       <c r="N27">
         <f t="shared" si="11"/>
-        <v>-45</v>
+        <v>-11182680</v>
       </c>
       <c r="P27">
         <v>4259954</v>
@@ -6265,43 +7156,43 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="5"/>
-        <v>6866960</v>
+        <v>14441468</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>1341964</v>
+        <v>2792797</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>8492427</v>
+        <v>17824240</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="8"/>
-        <v>826558</v>
+        <v>1733954</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="9"/>
-        <v>0.41116194731791456</v>
+        <v>0.41192480968598061</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="10"/>
-        <v>-12121880</v>
+        <v>-25157950</v>
       </c>
       <c r="I28">
-        <v>39</v>
+        <v>2656743</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>508619</v>
       </c>
       <c r="K28">
-        <v>34</v>
+        <v>3272323</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>318686</v>
       </c>
       <c r="N28">
         <f t="shared" si="11"/>
-        <v>85</v>
+        <v>-4562370</v>
       </c>
       <c r="P28">
         <v>2766504</v>
@@ -6330,43 +7221,43 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="5"/>
-        <v>10317952</v>
+        <v>21678273</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>2139389</v>
+        <v>4455496</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>12258723</v>
+        <v>25720361</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>1180333</v>
+        <v>2475804</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="9"/>
-        <v>0.41745934951455055</v>
+        <v>0.41806261140626599</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="10"/>
-        <v>-13506045</v>
+        <v>-28041860</v>
       </c>
       <c r="I29">
-        <v>64</v>
+        <v>3984234</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>811962</v>
       </c>
       <c r="K29">
-        <v>65</v>
+        <v>4719590</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>454789</v>
       </c>
       <c r="N29">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>-5079615</v>
       </c>
       <c r="P29">
         <v>4152651</v>
@@ -6395,43 +7286,43 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="5"/>
-        <v>9967213</v>
+        <v>20934616</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
-        <v>2359187</v>
+        <v>4915597</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>11906329</v>
+        <v>24990614</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="8"/>
-        <v>1160386</v>
+        <v>2431797</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="9"/>
-        <v>0.41131203175672043</v>
+        <v>0.41176781014990177</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="10"/>
-        <v>-13589230</v>
+        <v>-28400995</v>
       </c>
       <c r="I30">
-        <v>59</v>
+        <v>3845519</v>
       </c>
       <c r="J30">
-        <v>17</v>
+        <v>896721</v>
       </c>
       <c r="K30">
-        <v>66</v>
+        <v>4587676</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>445726</v>
       </c>
       <c r="N30">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-5192940</v>
       </c>
       <c r="P30">
         <v>4011615</v>
@@ -6460,43 +7351,43 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="5"/>
-        <v>7909252</v>
+        <v>16617743</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
-        <v>1553320</v>
+        <v>3231751</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
-        <v>10082495</v>
+        <v>21150556</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="8"/>
-        <v>950023</v>
+        <v>1991186</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="9"/>
-        <v>0.40466742835928882</v>
+        <v>0.4053103105971822</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="10"/>
-        <v>-16982315</v>
+        <v>-35372200</v>
       </c>
       <c r="I31">
-        <v>59</v>
+        <v>3055782</v>
       </c>
       <c r="J31">
-        <v>14</v>
+        <v>589014</v>
       </c>
       <c r="K31">
-        <v>67</v>
+        <v>3882196</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>365355</v>
       </c>
       <c r="N31">
         <f t="shared" si="11"/>
-        <v>-25</v>
+        <v>-6437365</v>
       </c>
       <c r="P31">
         <v>3185453</v>
@@ -6525,43 +7416,43 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="5"/>
-        <v>9826538</v>
+        <v>20642701</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
-        <v>1837798</v>
+        <v>3825332</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>11395207</v>
+        <v>23900260</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="8"/>
-        <v>1151585</v>
+        <v>2416288</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="9"/>
-        <v>0.42613758650811079</v>
+        <v>0.42678167286159963</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="10"/>
-        <v>-9928765</v>
+        <v>-20494150</v>
       </c>
       <c r="I32">
-        <v>59</v>
+        <v>3791489</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>696855</v>
       </c>
       <c r="K32">
-        <v>74</v>
+        <v>4382529</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>443447</v>
       </c>
       <c r="N32">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>-3693165</v>
       </c>
       <c r="P32">
         <v>3953529</v>
@@ -6585,48 +7476,48 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="5"/>
-        <v>10495421</v>
+        <v>22052372</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
-        <v>1428934</v>
+        <v>2963840</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
-        <v>15480987</v>
+        <v>32478905</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="8"/>
-        <v>1304162</v>
-      </c>
-      <c r="F33" s="8">
+        <v>2734592</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" si="9"/>
-        <v>0.38296989689090544</v>
-      </c>
-      <c r="G33" s="8">
+        <v>0.38355208495357962</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="10"/>
-        <v>-43334850</v>
+        <v>-90592370</v>
       </c>
       <c r="I33">
-        <v>67</v>
+        <v>4052994</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>537966</v>
       </c>
       <c r="K33">
-        <v>81</v>
+        <v>5959877</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>501741</v>
       </c>
       <c r="N33">
         <f t="shared" si="11"/>
-        <v>-105</v>
+        <v>-16560125</v>
       </c>
       <c r="P33">
         <v>4224054</v>
@@ -6649,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -6735,9 +7626,21 @@
         <f>(B37-D37+E37/2)*10</f>
         <v>-38332535</v>
       </c>
+      <c r="I37">
+        <v>4936132</v>
+      </c>
+      <c r="J37">
+        <v>804363</v>
+      </c>
+      <c r="K37">
+        <v>10775960</v>
+      </c>
+      <c r="L37">
+        <v>791901</v>
+      </c>
       <c r="N37">
         <f>(I37-K37+L37/2)*10</f>
-        <v>0</v>
+        <v>-54438775</v>
       </c>
       <c r="P37">
         <v>686496</v>
@@ -6773,9 +7676,21 @@
         <f t="shared" ref="G38:G48" si="14">(B38-D38+E38/2)*10</f>
         <v>-6678395</v>
       </c>
+      <c r="I38">
+        <v>7101356</v>
+      </c>
+      <c r="J38">
+        <v>1528154</v>
+      </c>
+      <c r="K38">
+        <v>8429963</v>
+      </c>
+      <c r="L38">
+        <v>815397</v>
+      </c>
       <c r="N38">
         <f t="shared" ref="N38:N48" si="15">(I38-K38+L38/2)*10</f>
-        <v>0</v>
+        <v>-9209085</v>
       </c>
       <c r="P38">
         <v>991697</v>
@@ -6811,9 +7726,21 @@
         <f t="shared" si="14"/>
         <v>-41172130</v>
       </c>
+      <c r="I39">
+        <v>5615273</v>
+      </c>
+      <c r="J39">
+        <v>654489</v>
+      </c>
+      <c r="K39">
+        <v>11898527</v>
+      </c>
+      <c r="L39">
+        <v>870352</v>
+      </c>
       <c r="N39">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-58480780</v>
       </c>
       <c r="P39">
         <v>782175</v>
@@ -6849,9 +7776,21 @@
         <f t="shared" si="14"/>
         <v>-37317930</v>
       </c>
+      <c r="I40">
+        <v>5812029</v>
+      </c>
+      <c r="J40">
+        <v>777742</v>
+      </c>
+      <c r="K40">
+        <v>11533516</v>
+      </c>
+      <c r="L40">
+        <v>865618</v>
+      </c>
       <c r="N40">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-52886780</v>
       </c>
       <c r="P40">
         <v>809511</v>
@@ -6887,9 +7826,21 @@
         <f t="shared" si="14"/>
         <v>-6655210</v>
       </c>
+      <c r="I41">
+        <v>7069620</v>
+      </c>
+      <c r="J41">
+        <v>1695961</v>
+      </c>
+      <c r="K41">
+        <v>8405945</v>
+      </c>
+      <c r="L41">
+        <v>820646</v>
+      </c>
       <c r="N41">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-9260020</v>
       </c>
       <c r="P41">
         <v>987108</v>
@@ -6925,9 +7876,21 @@
         <f t="shared" si="14"/>
         <v>-14767835</v>
       </c>
+      <c r="I42">
+        <v>7563194</v>
+      </c>
+      <c r="J42">
+        <v>1172676</v>
+      </c>
+      <c r="K42">
+        <v>10089727</v>
+      </c>
+      <c r="L42">
+        <v>894812</v>
+      </c>
       <c r="N42">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-20791270</v>
       </c>
       <c r="P42">
         <v>1054975</v>
@@ -6963,9 +7926,21 @@
         <f t="shared" si="14"/>
         <v>-6109995</v>
       </c>
+      <c r="I43">
+        <v>4917804</v>
+      </c>
+      <c r="J43">
+        <v>942219</v>
+      </c>
+      <c r="K43">
+        <v>6059524</v>
+      </c>
+      <c r="L43">
+        <v>588717</v>
+      </c>
       <c r="N43">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-8473615</v>
       </c>
       <c r="P43">
         <v>686018</v>
@@ -7001,9 +7976,21 @@
         <f t="shared" si="14"/>
         <v>-6852160</v>
       </c>
+      <c r="I44">
+        <v>7376151</v>
+      </c>
+      <c r="J44">
+        <v>1504157</v>
+      </c>
+      <c r="K44">
+        <v>8742113</v>
+      </c>
+      <c r="L44">
+        <v>840692</v>
+      </c>
       <c r="N44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-9456160</v>
       </c>
       <c r="P44">
         <v>1029967</v>
@@ -7039,9 +8026,21 @@
         <f t="shared" si="14"/>
         <v>-6872905</v>
       </c>
+      <c r="I45">
+        <v>7121943</v>
+      </c>
+      <c r="J45">
+        <v>1659706</v>
+      </c>
+      <c r="K45">
+        <v>8496675</v>
+      </c>
+      <c r="L45">
+        <v>825697</v>
+      </c>
       <c r="N45">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-9618835</v>
       </c>
       <c r="P45">
         <v>994633</v>
@@ -7077,9 +8076,21 @@
         <f t="shared" si="14"/>
         <v>-8543725</v>
       </c>
+      <c r="I46">
+        <v>5652768</v>
+      </c>
+      <c r="J46">
+        <v>1089431</v>
+      </c>
+      <c r="K46">
+        <v>7185932</v>
+      </c>
+      <c r="L46">
+        <v>675819</v>
+      </c>
       <c r="N46">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-11952545</v>
       </c>
       <c r="P46">
         <v>788520</v>
@@ -7115,9 +8126,21 @@
         <f t="shared" si="14"/>
         <v>-5023535</v>
       </c>
+      <c r="I47">
+        <v>7024733</v>
+      </c>
+      <c r="J47">
+        <v>1290694</v>
+      </c>
+      <c r="K47">
+        <v>8122598</v>
+      </c>
+      <c r="L47">
+        <v>821266</v>
+      </c>
       <c r="N47">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-6872320</v>
       </c>
       <c r="P47">
         <v>980996</v>
@@ -7153,9 +8176,21 @@
         <f t="shared" si="14"/>
         <v>-21707980</v>
       </c>
+      <c r="I48">
+        <v>7504024</v>
+      </c>
+      <c r="J48">
+        <v>996950</v>
+      </c>
+      <c r="K48">
+        <v>11038122</v>
+      </c>
+      <c r="L48">
+        <v>928696</v>
+      </c>
       <c r="N48">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-30697500</v>
       </c>
       <c r="P48">
         <v>1047523</v>
@@ -7181,10 +8216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC024D11-A05D-4D78-AF56-9F7AC3169C89}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,6 +8229,7 @@
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7879,7 +8915,7 @@
         <v>-22376745</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -7914,404 +8950,755 @@
       <c r="M21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f>B2+H2+N2+I22</f>
-        <v>7018547</v>
+        <f>B2+H2+N2+I22+O22</f>
+        <v>14886021</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:E22" si="3">C2+I2+O2+J22</f>
-        <v>1174411</v>
+        <f t="shared" ref="C22:E22" si="3">C2+I2+O2+J22+P22</f>
+        <v>2452023</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>15400629</v>
+        <v>32571818</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>1129355</v>
+        <v>2387675</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.2974768948867334</v>
+        <v>0.298258107786393</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-78174045</v>
+        <v>-164919595</v>
+      </c>
+      <c r="I22">
+        <v>5104270</v>
+      </c>
+      <c r="J22">
+        <v>829197</v>
+      </c>
+      <c r="K22">
+        <v>11139418</v>
+      </c>
+      <c r="L22">
+        <v>816045</v>
       </c>
       <c r="M22">
         <f t="shared" ref="M22:M33" si="4">(I22-K22+L22/2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-56271255</v>
+      </c>
+      <c r="O22">
+        <v>2763204</v>
+      </c>
+      <c r="P22">
+        <v>448415</v>
+      </c>
+      <c r="Q22">
+        <v>6031771</v>
+      </c>
+      <c r="R22">
+        <v>442275</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S33" si="5">(O22-Q22+R22/2)*10</f>
+        <v>-30474295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:B33" si="5">B3+H3+N3+I23</f>
-        <v>10115023</v>
+        <f t="shared" ref="B23:B33" si="6">B3+H3+N3+I23+O23</f>
+        <v>21431165</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:C33" si="6">C3+I3+O3+J23</f>
-        <v>2196057</v>
+        <f t="shared" ref="C23:C33" si="7">C3+I3+O3+J23+P23</f>
+        <v>4610553</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:D33" si="7">D3+J3+P3+K23</f>
-        <v>12041054</v>
+        <f t="shared" ref="D23:D33" si="8">D3+J3+P3+K23+Q23</f>
+        <v>25474834</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E33" si="8">E3+K3+Q3+L23</f>
-        <v>1161803</v>
+        <f t="shared" ref="E23:E33" si="9">E3+K3+Q3+L23+R23</f>
+        <v>2457492</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F33" si="9">B23/(SUM(B23:D23))</f>
-        <v>0.4153649532316141</v>
+        <f t="shared" ref="F23:F33" si="10">B23/(SUM(B23:D23))</f>
+        <v>0.4160054228784566</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G33" si="10">(B23-D23+E23/2)*10</f>
-        <v>-13451295</v>
+        <f t="shared" ref="G23:G33" si="11">(B23-D23+E23/2)*10</f>
+        <v>-28149230</v>
+      </c>
+      <c r="I23">
+        <v>7338681</v>
+      </c>
+      <c r="J23">
+        <v>1567961</v>
+      </c>
+      <c r="K23">
+        <v>8717022</v>
+      </c>
+      <c r="L23">
+        <v>839936</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-9583730</v>
+      </c>
+      <c r="O23">
+        <v>3977461</v>
+      </c>
+      <c r="P23">
+        <v>846535</v>
+      </c>
+      <c r="Q23">
+        <v>4716758</v>
+      </c>
+      <c r="R23">
+        <v>455753</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>-5114205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="5"/>
-        <v>7938672</v>
+        <f t="shared" si="6"/>
+        <v>16824730</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
-        <v>931988</v>
+        <f t="shared" si="7"/>
+        <v>1933331</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="7"/>
-        <v>17072954</v>
+        <f t="shared" si="8"/>
+        <v>36123394</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="8"/>
-        <v>1243750</v>
+        <f t="shared" si="9"/>
+        <v>2628447</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30599715213154188</v>
+        <f t="shared" si="10"/>
+        <v>0.30656494074364465</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="10"/>
-        <v>-85124070</v>
+        <f t="shared" si="11"/>
+        <v>-179844405</v>
+      </c>
+      <c r="I24">
+        <v>5767069</v>
+      </c>
+      <c r="J24">
+        <v>649194</v>
+      </c>
+      <c r="K24">
+        <v>12357326</v>
+      </c>
+      <c r="L24">
+        <v>898030</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-61412420</v>
+      </c>
+      <c r="O24">
+        <v>3118989</v>
+      </c>
+      <c r="P24">
+        <v>352149</v>
+      </c>
+      <c r="Q24">
+        <v>6693114</v>
+      </c>
+      <c r="R24">
+        <v>486667</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>-33307915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="5"/>
-        <v>8269945</v>
+        <f t="shared" si="6"/>
+        <v>17526687</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
-        <v>1118405</v>
+        <f t="shared" si="7"/>
+        <v>2330017</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="7"/>
-        <v>16475698</v>
+        <f t="shared" si="8"/>
+        <v>34856075</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="8"/>
-        <v>1232573</v>
+        <f t="shared" si="9"/>
+        <v>2607510</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="9"/>
-        <v>0.3197467387935562</v>
+        <f t="shared" si="10"/>
+        <v>0.32033991547020485</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="10"/>
-        <v>-75894665</v>
+        <f t="shared" si="11"/>
+        <v>-160256330</v>
+      </c>
+      <c r="I25">
+        <v>6004379</v>
+      </c>
+      <c r="J25">
+        <v>786296</v>
+      </c>
+      <c r="K25">
+        <v>11925007</v>
+      </c>
+      <c r="L25">
+        <v>890968</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-54751440</v>
+      </c>
+      <c r="O25">
+        <v>3252363</v>
+      </c>
+      <c r="P25">
+        <v>425316</v>
+      </c>
+      <c r="Q25">
+        <v>6455370</v>
+      </c>
+      <c r="R25">
+        <v>483969</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>-29610225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="5"/>
-        <v>10072393</v>
+        <f t="shared" si="6"/>
+        <v>21341337</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
-        <v>2436010</v>
+        <f t="shared" si="7"/>
+        <v>5117752</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="7"/>
-        <v>12003859</v>
+        <f t="shared" si="8"/>
+        <v>25393398</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="8"/>
-        <v>1170447</v>
+        <f t="shared" si="9"/>
+        <v>2474147</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="9"/>
-        <v>0.41091242415734625</v>
+        <f t="shared" si="10"/>
+        <v>0.41157788632201964</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="10"/>
-        <v>-13462425</v>
+        <f t="shared" si="11"/>
+        <v>-28149875</v>
+      </c>
+      <c r="I26">
+        <v>7311081</v>
+      </c>
+      <c r="J26">
+        <v>1740933</v>
+      </c>
+      <c r="K26">
+        <v>8685603</v>
+      </c>
+      <c r="L26">
+        <v>845414</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-9518150</v>
+      </c>
+      <c r="O26">
+        <v>3957863</v>
+      </c>
+      <c r="P26">
+        <v>940809</v>
+      </c>
+      <c r="Q26">
+        <v>4703936</v>
+      </c>
+      <c r="R26">
+        <v>458286</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>-5169300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="5"/>
-        <v>10771208</v>
+        <f t="shared" si="6"/>
+        <v>22828102</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
-        <v>1672284</v>
+        <f t="shared" si="7"/>
+        <v>3500636</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="7"/>
-        <v>14409209</v>
+        <f t="shared" si="8"/>
+        <v>30475479</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="8"/>
-        <v>1274786</v>
+        <f t="shared" si="9"/>
+        <v>2696731</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="9"/>
-        <v>0.40112195789913274</v>
+        <f t="shared" si="10"/>
+        <v>0.40187336795787537</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="10"/>
-        <v>-30006080</v>
+        <f t="shared" si="11"/>
+        <v>-62990115</v>
+      </c>
+      <c r="I27">
+        <v>7822382</v>
+      </c>
+      <c r="J27">
+        <v>1186689</v>
+      </c>
+      <c r="K27">
+        <v>10422326</v>
+      </c>
+      <c r="L27">
+        <v>921576</v>
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-21391560</v>
+      </c>
+      <c r="O27">
+        <v>4234512</v>
+      </c>
+      <c r="P27">
+        <v>641663</v>
+      </c>
+      <c r="Q27">
+        <v>5643944</v>
+      </c>
+      <c r="R27">
+        <v>500369</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>-11592475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="5"/>
-        <v>6230616</v>
+        <f t="shared" si="6"/>
+        <v>13210431</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
-        <v>1213268</v>
+        <f t="shared" si="7"/>
+        <v>2547203</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="7"/>
-        <v>7663835</v>
+        <f t="shared" si="8"/>
+        <v>16227490</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="8"/>
-        <v>744334</v>
+        <f t="shared" si="9"/>
+        <v>1574047</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="9"/>
-        <v>0.41241275403652927</v>
+        <f t="shared" si="10"/>
+        <v>0.41301797047902644</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="10"/>
-        <v>-10610520</v>
+        <f t="shared" si="11"/>
+        <v>-22300355</v>
+      </c>
+      <c r="I28">
+        <v>4529103</v>
+      </c>
+      <c r="J28">
+        <v>866133</v>
+      </c>
+      <c r="K28">
+        <v>5560208</v>
+      </c>
+      <c r="L28">
+        <v>538165</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-7620225</v>
+      </c>
+      <c r="O28">
+        <v>2450712</v>
+      </c>
+      <c r="P28">
+        <v>467802</v>
+      </c>
+      <c r="Q28">
+        <v>3003447</v>
+      </c>
+      <c r="R28">
+        <v>291548</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>-4069610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="5"/>
-        <v>10506085</v>
+        <f t="shared" si="6"/>
+        <v>22257058</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>2154481</v>
+        <f t="shared" si="7"/>
+        <v>4521801</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="7"/>
-        <v>12483555</v>
+        <f t="shared" si="8"/>
+        <v>26411369</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="8"/>
-        <v>1198492</v>
+        <f t="shared" si="9"/>
+        <v>2534152</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="9"/>
-        <v>0.41783465009574206</v>
+        <f t="shared" si="10"/>
+        <v>0.41844261318075193</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="10"/>
-        <v>-13782240</v>
+        <f t="shared" si="11"/>
+        <v>-28872350</v>
+      </c>
+      <c r="I29">
+        <v>7621709</v>
+      </c>
+      <c r="J29">
+        <v>1536448</v>
+      </c>
+      <c r="K29">
+        <v>9037397</v>
+      </c>
+      <c r="L29">
+        <v>865247</v>
       </c>
       <c r="M29">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-9830645</v>
+      </c>
+      <c r="O29">
+        <v>4129264</v>
+      </c>
+      <c r="P29">
+        <v>830872</v>
+      </c>
+      <c r="Q29">
+        <v>4890417</v>
+      </c>
+      <c r="R29">
+        <v>470413</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>-5259465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="5"/>
-        <v>10149579</v>
+        <f t="shared" si="6"/>
+        <v>21506082</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
-        <v>2380532</v>
+        <f t="shared" si="7"/>
+        <v>5003688</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="7"/>
-        <v>12137362</v>
+        <f t="shared" si="8"/>
+        <v>25671542</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="8"/>
-        <v>1176762</v>
+        <f t="shared" si="9"/>
+        <v>2487902</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="9"/>
-        <v>0.4114559687569132</v>
+        <f t="shared" si="10"/>
+        <v>0.41214145784605799</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="10"/>
-        <v>-13994020</v>
+        <f t="shared" si="11"/>
+        <v>-29215090</v>
+      </c>
+      <c r="I30">
+        <v>7367832</v>
+      </c>
+      <c r="J30">
+        <v>1702829</v>
+      </c>
+      <c r="K30">
+        <v>8779489</v>
+      </c>
+      <c r="L30">
+        <v>850607</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-9863535</v>
+      </c>
+      <c r="O30">
+        <v>3988671</v>
+      </c>
+      <c r="P30">
+        <v>920327</v>
+      </c>
+      <c r="Q30">
+        <v>4754691</v>
+      </c>
+      <c r="R30">
+        <v>460533</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>-5357535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="5"/>
-        <v>7315531</v>
+        <f t="shared" si="6"/>
+        <v>15499078</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
-        <v>1424549</v>
+        <f t="shared" si="7"/>
+        <v>2988511</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="7"/>
-        <v>9414501</v>
+        <f t="shared" si="8"/>
+        <v>19915250</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="8"/>
-        <v>880734</v>
+        <f t="shared" si="9"/>
+        <v>1861891</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="9"/>
-        <v>0.40295785399839301</v>
+        <f t="shared" si="10"/>
+        <v>0.40359198443635896</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="10"/>
-        <v>-16586030</v>
+        <f t="shared" si="11"/>
+        <v>-34852265</v>
+      </c>
+      <c r="I31">
+        <v>5306496</v>
+      </c>
+      <c r="J31">
+        <v>1014472</v>
+      </c>
+      <c r="K31">
+        <v>6809279</v>
+      </c>
+      <c r="L31">
+        <v>636183</v>
       </c>
       <c r="M31">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-11846915</v>
+      </c>
+      <c r="O31">
+        <v>2877051</v>
+      </c>
+      <c r="P31">
+        <v>549490</v>
+      </c>
+      <c r="Q31">
+        <v>3691470</v>
+      </c>
+      <c r="R31">
+        <v>344974</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>-6419320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="5"/>
-        <v>9695829</v>
+        <f t="shared" si="6"/>
+        <v>20546713</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
-        <v>1790746</v>
+        <f t="shared" si="7"/>
+        <v>3754683</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="7"/>
-        <v>11247747</v>
+        <f t="shared" si="8"/>
+        <v>23800196</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="8"/>
-        <v>1133640</v>
+        <f t="shared" si="9"/>
+        <v>2399362</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="9"/>
-        <v>0.42648419425043771</v>
+        <f t="shared" si="10"/>
+        <v>0.42715245266726309</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="10"/>
-        <v>-9850980</v>
+        <f t="shared" si="11"/>
+        <v>-20538020</v>
+      </c>
+      <c r="I32">
+        <v>7036634</v>
+      </c>
+      <c r="J32">
+        <v>1273164</v>
+      </c>
+      <c r="K32">
+        <v>8145633</v>
+      </c>
+      <c r="L32">
+        <v>821071</v>
       </c>
       <c r="M32">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+        <v>-6984635</v>
+      </c>
+      <c r="O32">
+        <v>3814250</v>
+      </c>
+      <c r="P32">
+        <v>690773</v>
+      </c>
+      <c r="Q32">
+        <v>4406816</v>
+      </c>
+      <c r="R32">
+        <v>444651</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>-3702405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="5"/>
-        <v>10686163</v>
+        <f t="shared" si="6"/>
+        <v>22643119</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
-        <v>1422717</v>
+        <f t="shared" si="7"/>
+        <v>2970510</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="7"/>
-        <v>15758816</v>
+        <f t="shared" si="8"/>
+        <v>33337205</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="8"/>
-        <v>1322742</v>
-      </c>
-      <c r="F33" s="8">
         <f t="shared" si="9"/>
-        <v>0.38346058461381233</v>
-      </c>
-      <c r="G33" s="8">
+        <v>2797588</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" si="10"/>
-        <v>-44112820</v>
+        <v>0.38410175842465605</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="11"/>
+        <v>-92952920</v>
+      </c>
+      <c r="I33">
+        <v>7757183</v>
+      </c>
+      <c r="J33">
+        <v>1004035</v>
+      </c>
+      <c r="K33">
+        <v>11404538</v>
+      </c>
+      <c r="L33">
+        <v>956205</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>-31692525</v>
+      </c>
+      <c r="O33">
+        <v>4199773</v>
+      </c>
+      <c r="P33">
+        <v>543758</v>
+      </c>
+      <c r="Q33">
+        <v>6173851</v>
+      </c>
+      <c r="R33">
+        <v>518641</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>-17147575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
